--- a/Mixed Logs.xlsx
+++ b/Mixed Logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Chicken, cat, dog\Dog-Cat_Chicken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABDF4A2-A2AA-4A8A-9FFF-F0B9D5F2311D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB309C4-7985-417F-A38B-614E808032FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{E5509BF1-11B8-46C2-87AA-D7FA4F3627F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="1445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="1703">
   <si>
     <t>1 hour simulation</t>
   </si>
@@ -4371,6 +4371,780 @@
   </si>
   <si>
     <t>[5/4/2025 7:24:04 PM]Simulation Counter : 273, Last winner cat had: 20 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>30 min cat only, 3spd, 8 sight, 7 time</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:17:44 PM]Simulation Counter : 0, Last winner cat had: 20 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:17:51 PM]Simulation Counter : 1, Last winner cat had: 12 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:17:58 PM]Simulation Counter : 2, Last winner cat had: 14 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:18:05 PM]Simulation Counter : 3, Last winner cat had: 14 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:18:12 PM]Simulation Counter : 4, Last winner cat had: 12 points! Last winner dog had: 15.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:18:19 PM]Simulation Counter : 5, Last winner cat had: 12 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:18:26 PM]Simulation Counter : 6, Last winner cat had: 14 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:18:33 PM]Simulation Counter : 7, Last winner cat had: 14 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:18:40 PM]Simulation Counter : 8, Last winner cat had: 12 points! Last winner dog had: 15.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:18:47 PM]Simulation Counter : 9, Last winner cat had: 14 points! Last winner dog had: 11 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:18:54 PM]Simulation Counter : 10, Last winner cat had: 12 points! Last winner dog had: 10.9 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:19:01 PM]Simulation Counter : 11, Last winner cat had: 12 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:19:08 PM]Simulation Counter : 12, Last winner cat had: 12 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:19:15 PM]Simulation Counter : 13, Last winner cat had: 14 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:19:22 PM]Simulation Counter : 14, Last winner cat had: 12 points! Last winner dog had: 15.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:19:29 PM]Simulation Counter : 15, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:19:36 PM]Simulation Counter : 16, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:19:43 PM]Simulation Counter : 17, Last winner cat had: 12 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:19:50 PM]Simulation Counter : 18, Last winner cat had: 12 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:19:57 PM]Simulation Counter : 19, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:20:04 PM]Simulation Counter : 20, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:20:11 PM]Simulation Counter : 21, Last winner cat had: 12 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:20:18 PM]Simulation Counter : 22, Last winner cat had: 14 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:20:25 PM]Simulation Counter : 23, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:20:32 PM]Simulation Counter : 24, Last winner cat had: 12 points! Last winner dog had: 15.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:20:39 PM]Simulation Counter : 25, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:20:46 PM]Simulation Counter : 26, Last winner cat had: 12 points! Last winner dog had: 15.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:20:53 PM]Simulation Counter : 27, Last winner cat had: 12 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:21:00 PM]Simulation Counter : 28, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:21:07 PM]Simulation Counter : 29, Last winner cat had: 12 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:21:14 PM]Simulation Counter : 30, Last winner cat had: 12 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:21:21 PM]Simulation Counter : 31, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:21:28 PM]Simulation Counter : 32, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:21:35 PM]Simulation Counter : 33, Last winner cat had: 12 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:21:42 PM]Simulation Counter : 34, Last winner cat had: 12 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:21:49 PM]Simulation Counter : 35, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:21:56 PM]Simulation Counter : 36, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:22:03 PM]Simulation Counter : 37, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:22:10 PM]Simulation Counter : 38, Last winner cat had: 14 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:22:17 PM]Simulation Counter : 39, Last winner cat had: 12 points! Last winner dog had: 15.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:22:24 PM]Simulation Counter : 40, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:22:31 PM]Simulation Counter : 41, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:22:38 PM]Simulation Counter : 42, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:22:45 PM]Simulation Counter : 43, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:22:52 PM]Simulation Counter : 44, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:22:59 PM]Simulation Counter : 45, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:23:06 PM]Simulation Counter : 46, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:23:13 PM]Simulation Counter : 47, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:23:20 PM]Simulation Counter : 48, Last winner cat had: 14 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:23:27 PM]Simulation Counter : 49, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:23:34 PM]Simulation Counter : 50, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:23:41 PM]Simulation Counter : 51, Last winner cat had: 10 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:23:48 PM]Simulation Counter : 52, Last winner cat had: 10 points! Last winner dog had: 15.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:23:55 PM]Simulation Counter : 53, Last winner cat had: 10 points! Last winner dog had: 15.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:24:02 PM]Simulation Counter : 54, Last winner cat had: 10 points! Last winner dog had: 15.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:24:09 PM]Simulation Counter : 55, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:24:16 PM]Simulation Counter : 56, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:24:23 PM]Simulation Counter : 57, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:24:30 PM]Simulation Counter : 58, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:24:37 PM]Simulation Counter : 59, Last winner cat had: 10 points! Last winner dog had: 10.5 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:24:44 PM]Simulation Counter : 60, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:24:51 PM]Simulation Counter : 61, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:24:58 PM]Simulation Counter : 62, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:25:05 PM]Simulation Counter : 63, Last winner cat had: 14 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:25:12 PM]Simulation Counter : 64, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:25:19 PM]Simulation Counter : 65, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:25:26 PM]Simulation Counter : 66, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:25:33 PM]Simulation Counter : 67, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:25:40 PM]Simulation Counter : 68, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:25:47 PM]Simulation Counter : 69, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:25:54 PM]Simulation Counter : 70, Last winner cat had: 10 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:26:01 PM]Simulation Counter : 71, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:26:08 PM]Simulation Counter : 72, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:26:15 PM]Simulation Counter : 73, Last winner cat had: 10 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:26:22 PM]Simulation Counter : 74, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:26:29 PM]Simulation Counter : 75, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:26:36 PM]Simulation Counter : 76, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:26:43 PM]Simulation Counter : 77, Last winner cat had: 10 points! Last winner dog had: 10.5 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:26:50 PM]Simulation Counter : 78, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:26:57 PM]Simulation Counter : 79, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:27:04 PM]Simulation Counter : 80, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:27:11 PM]Simulation Counter : 81, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:27:18 PM]Simulation Counter : 82, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:27:25 PM]Simulation Counter : 83, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:27:32 PM]Simulation Counter : 84, Last winner cat had: 12 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:27:39 PM]Simulation Counter : 85, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:27:46 PM]Simulation Counter : 86, Last winner cat had: 10 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:27:53 PM]Simulation Counter : 87, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:28:00 PM]Simulation Counter : 88, Last winner cat had: 10 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:28:07 PM]Simulation Counter : 89, Last winner cat had: 10 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:28:14 PM]Simulation Counter : 90, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:28:21 PM]Simulation Counter : 91, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:28:28 PM]Simulation Counter : 92, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:28:35 PM]Simulation Counter : 93, Last winner cat had: 12 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:28:42 PM]Simulation Counter : 94, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:28:49 PM]Simulation Counter : 95, Last winner cat had: 10 points! Last winner dog had: 15.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:28:56 PM]Simulation Counter : 96, Last winner cat had: 12 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:29:03 PM]Simulation Counter : 97, Last winner cat had: 12 points! Last winner dog had: 10.6 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:29:10 PM]Simulation Counter : 98, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:29:17 PM]Simulation Counter : 99, Last winner cat had: 12 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:29:24 PM]Simulation Counter : 100, Last winner cat had: 12 points! Last winner dog had: 10.5 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:29:31 PM]Simulation Counter : 101, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:29:38 PM]Simulation Counter : 102, Last winner cat had: 14 points! Last winner dog had: 10.6 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:29:45 PM]Simulation Counter : 103, Last winner cat had: 12 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:29:52 PM]Simulation Counter : 104, Last winner cat had: 12 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:29:59 PM]Simulation Counter : 105, Last winner cat had: 10 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:30:06 PM]Simulation Counter : 106, Last winner cat had: 12 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:30:13 PM]Simulation Counter : 107, Last winner cat had: 12 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:30:20 PM]Simulation Counter : 108, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:30:27 PM]Simulation Counter : 109, Last winner cat had: 12 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:30:34 PM]Simulation Counter : 110, Last winner cat had: 10 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:30:41 PM]Simulation Counter : 111, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:30:48 PM]Simulation Counter : 112, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:30:55 PM]Simulation Counter : 113, Last winner cat had: 10 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:31:02 PM]Simulation Counter : 114, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:31:09 PM]Simulation Counter : 115, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:31:16 PM]Simulation Counter : 116, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:31:23 PM]Simulation Counter : 117, Last winner cat had: 12 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:31:30 PM]Simulation Counter : 118, Last winner cat had: 12 points! Last winner dog had: 15.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:31:37 PM]Simulation Counter : 119, Last winner cat had: 10 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:31:44 PM]Simulation Counter : 120, Last winner cat had: 10 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:31:51 PM]Simulation Counter : 121, Last winner cat had: 10 points! Last winner dog had: 15.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:31:58 PM]Simulation Counter : 122, Last winner cat had: 12 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:32:05 PM]Simulation Counter : 123, Last winner cat had: 10 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:32:12 PM]Simulation Counter : 124, Last winner cat had: 12 points! Last winner dog had: 10.5 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:32:19 PM]Simulation Counter : 125, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:32:26 PM]Simulation Counter : 126, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:32:33 PM]Simulation Counter : 127, Last winner cat had: 10 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:32:40 PM]Simulation Counter : 128, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:32:47 PM]Simulation Counter : 129, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:32:54 PM]Simulation Counter : 130, Last winner cat had: 12 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:33:01 PM]Simulation Counter : 131, Last winner cat had: 10 points! Last winner dog had: 10.5 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:33:08 PM]Simulation Counter : 132, Last winner cat had: 10 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:33:15 PM]Simulation Counter : 133, Last winner cat had: 10 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:33:22 PM]Simulation Counter : 134, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:33:29 PM]Simulation Counter : 135, Last winner cat had: 10 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:33:36 PM]Simulation Counter : 136, Last winner cat had: 12 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:33:43 PM]Simulation Counter : 137, Last winner cat had: 12 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:33:50 PM]Simulation Counter : 138, Last winner cat had: 10 points! Last winner dog had: 15.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:33:57 PM]Simulation Counter : 139, Last winner cat had: 10 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:34:04 PM]Simulation Counter : 140, Last winner cat had: 10 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:34:11 PM]Simulation Counter : 141, Last winner cat had: 12 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:34:18 PM]Simulation Counter : 142, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:34:25 PM]Simulation Counter : 143, Last winner cat had: 12 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:34:32 PM]Simulation Counter : 144, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:34:39 PM]Simulation Counter : 145, Last winner cat had: 12 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:34:46 PM]Simulation Counter : 146, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:34:53 PM]Simulation Counter : 147, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:35:00 PM]Simulation Counter : 148, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:35:07 PM]Simulation Counter : 149, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:35:14 PM]Simulation Counter : 150, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:35:21 PM]Simulation Counter : 151, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:35:28 PM]Simulation Counter : 152, Last winner cat had: 12 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:35:35 PM]Simulation Counter : 153, Last winner cat had: 10 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:35:42 PM]Simulation Counter : 154, Last winner cat had: 10 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:35:49 PM]Simulation Counter : 155, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:35:56 PM]Simulation Counter : 156, Last winner cat had: 10 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:36:03 PM]Simulation Counter : 157, Last winner cat had: 10 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:36:10 PM]Simulation Counter : 158, Last winner cat had: 10 points! Last winner dog had: 15.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:36:17 PM]Simulation Counter : 159, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:36:24 PM]Simulation Counter : 160, Last winner cat had: 10 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:36:31 PM]Simulation Counter : 161, Last winner cat had: 12 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:36:38 PM]Simulation Counter : 162, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:36:45 PM]Simulation Counter : 163, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:36:52 PM]Simulation Counter : 164, Last winner cat had: 10 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:36:59 PM]Simulation Counter : 165, Last winner cat had: 10 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:37:06 PM]Simulation Counter : 166, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:37:13 PM]Simulation Counter : 167, Last winner cat had: 12 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:37:20 PM]Simulation Counter : 168, Last winner cat had: 10 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:37:27 PM]Simulation Counter : 169, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:37:34 PM]Simulation Counter : 170, Last winner cat had: 10 points! Last winner dog had: 15.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:37:41 PM]Simulation Counter : 171, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:37:48 PM]Simulation Counter : 172, Last winner cat had: 10 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:37:55 PM]Simulation Counter : 173, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:38:02 PM]Simulation Counter : 174, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:38:09 PM]Simulation Counter : 175, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:38:16 PM]Simulation Counter : 176, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:38:23 PM]Simulation Counter : 177, Last winner cat had: 10 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:38:30 PM]Simulation Counter : 178, Last winner cat had: 12 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:38:37 PM]Simulation Counter : 179, Last winner cat had: 10 points! Last winner dog had: 15.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:38:44 PM]Simulation Counter : 180, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:38:51 PM]Simulation Counter : 181, Last winner cat had: 10 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:38:58 PM]Simulation Counter : 182, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:39:05 PM]Simulation Counter : 183, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:39:12 PM]Simulation Counter : 184, Last winner cat had: 12 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:39:19 PM]Simulation Counter : 185, Last winner cat had: 12 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:39:26 PM]Simulation Counter : 186, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:39:33 PM]Simulation Counter : 187, Last winner cat had: 12 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:39:40 PM]Simulation Counter : 188, Last winner cat had: 14 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:39:47 PM]Simulation Counter : 189, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:39:54 PM]Simulation Counter : 190, Last winner cat had: 14 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:40:01 PM]Simulation Counter : 191, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:40:08 PM]Simulation Counter : 192, Last winner cat had: 12 points! Last winner dog had: 15.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:40:15 PM]Simulation Counter : 193, Last winner cat had: 12 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:40:22 PM]Simulation Counter : 194, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:40:29 PM]Simulation Counter : 195, Last winner cat had: 10 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:40:36 PM]Simulation Counter : 196, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:40:43 PM]Simulation Counter : 197, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:40:50 PM]Simulation Counter : 198, Last winner cat had: 10 points! Last winner dog had: 15.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:40:57 PM]Simulation Counter : 199, Last winner cat had: 12 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:41:04 PM]Simulation Counter : 200, Last winner cat had: 14 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:41:11 PM]Simulation Counter : 201, Last winner cat had: 12 points! Last winner dog had: 10.5 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:41:18 PM]Simulation Counter : 202, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:41:25 PM]Simulation Counter : 203, Last winner cat had: 12 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:41:32 PM]Simulation Counter : 204, Last winner cat had: 12 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:41:39 PM]Simulation Counter : 205, Last winner cat had: 12 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:41:46 PM]Simulation Counter : 206, Last winner cat had: 12 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:41:53 PM]Simulation Counter : 207, Last winner cat had: 10 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:42:00 PM]Simulation Counter : 208, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:42:07 PM]Simulation Counter : 209, Last winner cat had: 10 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:42:14 PM]Simulation Counter : 210, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:42:21 PM]Simulation Counter : 211, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:42:28 PM]Simulation Counter : 212, Last winner cat had: 10 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:42:35 PM]Simulation Counter : 213, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:42:42 PM]Simulation Counter : 214, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:42:49 PM]Simulation Counter : 215, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:42:56 PM]Simulation Counter : 216, Last winner cat had: 12 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:43:03 PM]Simulation Counter : 217, Last winner cat had: 10 points! Last winner dog had: 15.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:43:10 PM]Simulation Counter : 218, Last winner cat had: 12 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:43:17 PM]Simulation Counter : 219, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:43:24 PM]Simulation Counter : 220, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:43:31 PM]Simulation Counter : 221, Last winner cat had: 10 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:43:38 PM]Simulation Counter : 222, Last winner cat had: 10 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:43:45 PM]Simulation Counter : 223, Last winner cat had: 10 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:43:52 PM]Simulation Counter : 224, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:43:59 PM]Simulation Counter : 225, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:44:06 PM]Simulation Counter : 226, Last winner cat had: 10 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:44:13 PM]Simulation Counter : 227, Last winner cat had: 10 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:44:20 PM]Simulation Counter : 228, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:44:27 PM]Simulation Counter : 229, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:44:34 PM]Simulation Counter : 230, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:44:41 PM]Simulation Counter : 231, Last winner cat had: 10 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:44:48 PM]Simulation Counter : 232, Last winner cat had: 12 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:44:55 PM]Simulation Counter : 233, Last winner cat had: 10 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:45:02 PM]Simulation Counter : 234, Last winner cat had: 10 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:45:09 PM]Simulation Counter : 235, Last winner cat had: 10 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:45:16 PM]Simulation Counter : 236, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:45:23 PM]Simulation Counter : 237, Last winner cat had: 10 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:45:30 PM]Simulation Counter : 238, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:45:37 PM]Simulation Counter : 239, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:45:44 PM]Simulation Counter : 240, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:45:51 PM]Simulation Counter : 241, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:45:58 PM]Simulation Counter : 242, Last winner cat had: 10 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:46:05 PM]Simulation Counter : 243, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:46:12 PM]Simulation Counter : 244, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:46:19 PM]Simulation Counter : 245, Last winner cat had: 10 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:46:26 PM]Simulation Counter : 246, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:46:33 PM]Simulation Counter : 247, Last winner cat had: 14 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:46:40 PM]Simulation Counter : 248, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:46:47 PM]Simulation Counter : 249, Last winner cat had: 10 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:46:54 PM]Simulation Counter : 250, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:47:01 PM]Simulation Counter : 251, Last winner cat had: 10 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:47:08 PM]Simulation Counter : 252, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:47:15 PM]Simulation Counter : 253, Last winner cat had: 10 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:47:22 PM]Simulation Counter : 254, Last winner cat had: 10 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:47:29 PM]Simulation Counter : 255, Last winner cat had: 10 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:47:36 PM]Simulation Counter : 256, Last winner cat had: 10 points! Last winner dog had: 10.2 points!</t>
   </si>
 </sst>
 </file>
@@ -4742,15 +5516,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C76559D-2104-4C42-96BB-D4003E9D0DC2}">
-  <dimension ref="A1:Y786"/>
+  <dimension ref="A1:AJ786"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B364" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4760,8 +5534,11 @@
       <c r="Y1" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ1" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4771,8 +5548,11 @@
       <c r="Y2" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ2" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4782,8 +5562,11 @@
       <c r="Y3" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ3" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4793,8 +5576,11 @@
       <c r="Y4" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ4" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4804,8 +5590,11 @@
       <c r="Y5" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ5" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4815,8 +5604,11 @@
       <c r="Y6" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ6" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4826,8 +5618,11 @@
       <c r="Y7" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ7" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4837,8 +5632,11 @@
       <c r="Y8" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ8" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4848,8 +5646,11 @@
       <c r="Y9" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ9" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4859,8 +5660,11 @@
       <c r="Y10" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ10" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4870,8 +5674,11 @@
       <c r="Y11" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ11" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4881,8 +5688,11 @@
       <c r="Y12" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ12" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4892,8 +5702,11 @@
       <c r="Y13" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ13" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4903,8 +5716,11 @@
       <c r="Y14" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ14" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4914,8 +5730,11 @@
       <c r="Y15" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ15" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4925,8 +5744,11 @@
       <c r="Y16" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ16" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4936,8 +5758,11 @@
       <c r="Y17" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ17" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4947,8 +5772,11 @@
       <c r="Y18" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ18" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4958,8 +5786,11 @@
       <c r="Y19" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ19" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4969,8 +5800,11 @@
       <c r="Y20" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ20" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4980,8 +5814,11 @@
       <c r="Y21" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ21" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4991,8 +5828,11 @@
       <c r="Y22" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ22" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -5002,8 +5842,11 @@
       <c r="Y23" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ23" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5013,8 +5856,11 @@
       <c r="Y24" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ24" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5024,8 +5870,11 @@
       <c r="Y25" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ25" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -5035,8 +5884,11 @@
       <c r="Y26" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ26" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5046,8 +5898,11 @@
       <c r="Y27" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ27" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5057,8 +5912,11 @@
       <c r="Y28" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ28" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -5068,8 +5926,11 @@
       <c r="Y29" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ29" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5079,8 +5940,11 @@
       <c r="Y30" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ30" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5090,8 +5954,11 @@
       <c r="Y31" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ31" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5101,8 +5968,11 @@
       <c r="Y32" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ32" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5112,8 +5982,11 @@
       <c r="Y33" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ33" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5123,8 +5996,11 @@
       <c r="Y34" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ34" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5134,8 +6010,11 @@
       <c r="Y35" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ35" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5145,8 +6024,11 @@
       <c r="Y36" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ36" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5156,8 +6038,11 @@
       <c r="Y37" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ37" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5167,8 +6052,11 @@
       <c r="Y38" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ38" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -5178,8 +6066,11 @@
       <c r="Y39" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ39" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5189,8 +6080,11 @@
       <c r="Y40" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ40" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -5200,8 +6094,11 @@
       <c r="Y41" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ41" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -5211,8 +6108,11 @@
       <c r="Y42" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ42" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -5222,8 +6122,11 @@
       <c r="Y43" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ43" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -5233,8 +6136,11 @@
       <c r="Y44" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ44" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -5244,8 +6150,11 @@
       <c r="Y45" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ45" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -5255,8 +6164,11 @@
       <c r="Y46" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ46" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -5266,8 +6178,11 @@
       <c r="Y47" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ47" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -5277,8 +6192,11 @@
       <c r="Y48" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ48" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5288,8 +6206,11 @@
       <c r="Y49" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ49" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5299,8 +6220,11 @@
       <c r="Y50" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ50" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -5310,8 +6234,11 @@
       <c r="Y51" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ51" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5321,8 +6248,11 @@
       <c r="Y52" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ52" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -5332,8 +6262,11 @@
       <c r="Y53" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ53" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5343,8 +6276,11 @@
       <c r="Y54" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ54" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5354,8 +6290,11 @@
       <c r="Y55" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ55" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5365,8 +6304,11 @@
       <c r="Y56" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ56" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5376,8 +6318,11 @@
       <c r="Y57" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ57" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5387,8 +6332,11 @@
       <c r="Y58" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ58" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -5398,8 +6346,11 @@
       <c r="Y59" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ59" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -5409,8 +6360,11 @@
       <c r="Y60" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ60" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -5420,8 +6374,11 @@
       <c r="Y61" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ61" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -5431,8 +6388,11 @@
       <c r="Y62" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ62" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5442,8 +6402,11 @@
       <c r="Y63" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ63" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -5453,8 +6416,11 @@
       <c r="Y64" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ64" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -5464,8 +6430,11 @@
       <c r="Y65" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ65" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -5475,8 +6444,11 @@
       <c r="Y66" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ66" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5486,8 +6458,11 @@
       <c r="Y67" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ67" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -5497,8 +6472,11 @@
       <c r="Y68" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ68" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -5508,8 +6486,11 @@
       <c r="Y69" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ69" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -5519,8 +6500,11 @@
       <c r="Y70" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ70" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -5530,8 +6514,11 @@
       <c r="Y71" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ71" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -5541,8 +6528,11 @@
       <c r="Y72" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ72" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -5552,8 +6542,11 @@
       <c r="Y73" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ73" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -5563,8 +6556,11 @@
       <c r="Y74" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ74" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -5574,8 +6570,11 @@
       <c r="Y75" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ75" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -5585,8 +6584,11 @@
       <c r="Y76" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ76" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -5596,8 +6598,11 @@
       <c r="Y77" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ77" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -5607,8 +6612,11 @@
       <c r="Y78" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ78" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -5618,8 +6626,11 @@
       <c r="Y79" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ79" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -5629,8 +6640,11 @@
       <c r="Y80" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ80" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -5640,8 +6654,11 @@
       <c r="Y81" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ81" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="82" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -5651,8 +6668,11 @@
       <c r="Y82" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ82" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="83" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5662,8 +6682,11 @@
       <c r="Y83" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ83" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="84" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -5673,8 +6696,11 @@
       <c r="Y84" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ84" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="85" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -5684,8 +6710,11 @@
       <c r="Y85" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ85" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="86" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -5695,8 +6724,11 @@
       <c r="Y86" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ86" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -5706,8 +6738,11 @@
       <c r="Y87" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ87" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -5717,8 +6752,11 @@
       <c r="Y88" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ88" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="89" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -5728,8 +6766,11 @@
       <c r="Y89" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ89" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="90" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -5739,8 +6780,11 @@
       <c r="Y90" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ90" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="91" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -5750,8 +6794,11 @@
       <c r="Y91" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ91" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="92" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -5761,8 +6808,11 @@
       <c r="Y92" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ92" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="93" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -5772,8 +6822,11 @@
       <c r="Y93" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ93" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="94" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -5783,8 +6836,11 @@
       <c r="Y94" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ94" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="95" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -5794,8 +6850,11 @@
       <c r="Y95" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ95" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="96" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -5805,8 +6864,11 @@
       <c r="Y96" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ96" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -5816,8 +6878,11 @@
       <c r="Y97" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ97" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="98" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -5827,8 +6892,11 @@
       <c r="Y98" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ98" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -5838,8 +6906,11 @@
       <c r="Y99" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ99" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="100" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -5849,8 +6920,11 @@
       <c r="Y100" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ100" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="101" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -5860,8 +6934,11 @@
       <c r="Y101" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ101" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -5871,8 +6948,11 @@
       <c r="Y102" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ102" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="103" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -5882,8 +6962,11 @@
       <c r="Y103" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ103" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="104" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -5893,8 +6976,11 @@
       <c r="Y104" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ104" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="105" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -5904,8 +6990,11 @@
       <c r="Y105" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ105" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="106" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -5915,8 +7004,11 @@
       <c r="Y106" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ106" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="107" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -5926,8 +7018,11 @@
       <c r="Y107" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ107" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="108" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -5937,8 +7032,11 @@
       <c r="Y108" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ108" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="109" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -5948,8 +7046,11 @@
       <c r="Y109" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ109" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="110" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -5959,8 +7060,11 @@
       <c r="Y110" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ110" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="111" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -5970,8 +7074,11 @@
       <c r="Y111" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ111" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="112" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -5981,8 +7088,11 @@
       <c r="Y112" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ112" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="113" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -5992,8 +7102,11 @@
       <c r="Y113" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ113" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="114" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -6003,8 +7116,11 @@
       <c r="Y114" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ114" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="115" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -6014,8 +7130,11 @@
       <c r="Y115" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ115" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="116" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -6025,8 +7144,11 @@
       <c r="Y116" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ116" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="117" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -6036,8 +7158,11 @@
       <c r="Y117" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ117" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="118" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -6047,8 +7172,11 @@
       <c r="Y118" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ118" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="119" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -6058,8 +7186,11 @@
       <c r="Y119" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ119" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="120" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -6069,8 +7200,11 @@
       <c r="Y120" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ120" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="121" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -6080,8 +7214,11 @@
       <c r="Y121" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ121" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="122" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -6091,8 +7228,11 @@
       <c r="Y122" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ122" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="123" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -6102,8 +7242,11 @@
       <c r="Y123" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ123" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="124" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -6113,8 +7256,11 @@
       <c r="Y124" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ124" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="125" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -6124,8 +7270,11 @@
       <c r="Y125" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ125" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="126" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -6135,8 +7284,11 @@
       <c r="Y126" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ126" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="127" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -6146,8 +7298,11 @@
       <c r="Y127" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ127" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="128" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -6157,8 +7312,11 @@
       <c r="Y128" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ128" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="129" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -6168,8 +7326,11 @@
       <c r="Y129" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ129" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="130" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -6179,8 +7340,11 @@
       <c r="Y130" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ130" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="131" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -6190,8 +7354,11 @@
       <c r="Y131" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ131" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="132" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -6201,8 +7368,11 @@
       <c r="Y132" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ132" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="133" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -6212,8 +7382,11 @@
       <c r="Y133" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ133" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="134" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -6223,8 +7396,11 @@
       <c r="Y134" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ134" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="135" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -6234,8 +7410,11 @@
       <c r="Y135" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ135" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="136" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -6245,8 +7424,11 @@
       <c r="Y136" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ136" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="137" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -6256,8 +7438,11 @@
       <c r="Y137" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ137" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="138" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -6267,8 +7452,11 @@
       <c r="Y138" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ138" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="139" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -6278,8 +7466,11 @@
       <c r="Y139" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ139" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="140" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -6289,8 +7480,11 @@
       <c r="Y140" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ140" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="141" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -6300,8 +7494,11 @@
       <c r="Y141" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ141" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="142" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -6311,8 +7508,11 @@
       <c r="Y142" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ142" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="143" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -6322,8 +7522,11 @@
       <c r="Y143" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ143" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="144" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -6333,8 +7536,11 @@
       <c r="Y144" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ144" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="145" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -6344,8 +7550,11 @@
       <c r="Y145" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ145" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="146" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -6355,8 +7564,11 @@
       <c r="Y146" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ146" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="147" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -6366,8 +7578,11 @@
       <c r="Y147" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ147" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="148" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -6377,8 +7592,11 @@
       <c r="Y148" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ148" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="149" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -6388,8 +7606,11 @@
       <c r="Y149" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ149" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="150" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -6399,8 +7620,11 @@
       <c r="Y150" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ150" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="151" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -6410,8 +7634,11 @@
       <c r="Y151" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ151" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="152" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -6421,8 +7648,11 @@
       <c r="Y152" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ152" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="153" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -6432,8 +7662,11 @@
       <c r="Y153" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ153" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="154" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -6443,8 +7676,11 @@
       <c r="Y154" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ154" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="155" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -6454,8 +7690,11 @@
       <c r="Y155" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ155" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="156" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -6465,8 +7704,11 @@
       <c r="Y156" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ156" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="157" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -6476,8 +7718,11 @@
       <c r="Y157" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ157" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="158" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -6487,8 +7732,11 @@
       <c r="Y158" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ158" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="159" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -6498,8 +7746,11 @@
       <c r="Y159" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ159" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="160" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -6509,8 +7760,11 @@
       <c r="Y160" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ160" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="161" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -6520,8 +7774,11 @@
       <c r="Y161" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ161" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="162" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -6531,8 +7788,11 @@
       <c r="Y162" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ162" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="163" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -6542,8 +7802,11 @@
       <c r="Y163" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ163" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="164" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -6553,8 +7816,11 @@
       <c r="Y164" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ164" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="165" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -6564,8 +7830,11 @@
       <c r="Y165" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ165" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="166" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -6575,8 +7844,11 @@
       <c r="Y166" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ166" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="167" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -6586,8 +7858,11 @@
       <c r="Y167" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ167" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="168" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -6597,8 +7872,11 @@
       <c r="Y168" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ168" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="169" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -6608,8 +7886,11 @@
       <c r="Y169" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ169" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="170" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -6619,8 +7900,11 @@
       <c r="Y170" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ170" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="171" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -6630,8 +7914,11 @@
       <c r="Y171" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ171" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="172" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -6641,8 +7928,11 @@
       <c r="Y172" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ172" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="173" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -6652,8 +7942,11 @@
       <c r="Y173" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ173" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="174" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -6663,8 +7956,11 @@
       <c r="Y174" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ174" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="175" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -6674,8 +7970,11 @@
       <c r="Y175" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ175" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="176" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -6685,8 +7984,11 @@
       <c r="Y176" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ176" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="177" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -6696,8 +7998,11 @@
       <c r="Y177" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ177" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="178" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -6707,8 +8012,11 @@
       <c r="Y178" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ178" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="179" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -6718,8 +8026,11 @@
       <c r="Y179" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ179" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="180" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -6729,8 +8040,11 @@
       <c r="Y180" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ180" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="181" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -6740,8 +8054,11 @@
       <c r="Y181" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ181" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="182" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -6751,8 +8068,11 @@
       <c r="Y182" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ182" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="183" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -6762,8 +8082,11 @@
       <c r="Y183" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ183" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="184" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -6773,8 +8096,11 @@
       <c r="Y184" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ184" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="185" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -6784,8 +8110,11 @@
       <c r="Y185" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ185" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="186" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -6795,8 +8124,11 @@
       <c r="Y186" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ186" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="187" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -6806,8 +8138,11 @@
       <c r="Y187" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ187" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="188" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -6817,8 +8152,11 @@
       <c r="Y188" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ188" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="189" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -6828,8 +8166,11 @@
       <c r="Y189" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ189" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="190" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -6839,8 +8180,11 @@
       <c r="Y190" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ190" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="191" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -6850,8 +8194,11 @@
       <c r="Y191" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ191" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="192" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -6861,8 +8208,11 @@
       <c r="Y192" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ192" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="193" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -6872,8 +8222,11 @@
       <c r="Y193" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ193" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="194" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -6883,8 +8236,11 @@
       <c r="Y194" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ194" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="195" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -6894,8 +8250,11 @@
       <c r="Y195" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ195" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="196" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -6905,8 +8264,11 @@
       <c r="Y196" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ196" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="197" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -6916,8 +8278,11 @@
       <c r="Y197" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ197" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="198" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -6927,8 +8292,11 @@
       <c r="Y198" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ198" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="199" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -6938,8 +8306,11 @@
       <c r="Y199" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ199" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="200" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -6949,8 +8320,11 @@
       <c r="Y200" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ200" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="201" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -6960,8 +8334,11 @@
       <c r="Y201" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ201" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="202" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -6971,8 +8348,11 @@
       <c r="Y202" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ202" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="203" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -6982,8 +8362,11 @@
       <c r="Y203" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ203" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="204" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -6993,8 +8376,11 @@
       <c r="Y204" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ204" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="205" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -7004,8 +8390,11 @@
       <c r="Y205" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ205" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="206" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -7015,8 +8404,11 @@
       <c r="Y206" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ206" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="207" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -7026,8 +8418,11 @@
       <c r="Y207" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ207" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="208" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -7037,8 +8432,11 @@
       <c r="Y208" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ208" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="209" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -7048,8 +8446,11 @@
       <c r="Y209" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ209" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="210" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -7059,8 +8460,11 @@
       <c r="Y210" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ210" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="211" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -7070,8 +8474,11 @@
       <c r="Y211" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ211" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="212" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -7081,8 +8488,11 @@
       <c r="Y212" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ212" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="213" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -7092,8 +8502,11 @@
       <c r="Y213" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ213" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="214" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -7103,8 +8516,11 @@
       <c r="Y214" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ214" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="215" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -7114,8 +8530,11 @@
       <c r="Y215" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ215" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="216" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -7125,8 +8544,11 @@
       <c r="Y216" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ216" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="217" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -7136,8 +8558,11 @@
       <c r="Y217" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ217" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="218" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -7147,8 +8572,11 @@
       <c r="Y218" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ218" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="219" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -7158,8 +8586,11 @@
       <c r="Y219" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ219" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="220" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -7169,8 +8600,11 @@
       <c r="Y220" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ220" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="221" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -7180,8 +8614,11 @@
       <c r="Y221" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ221" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="222" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -7191,8 +8628,11 @@
       <c r="Y222" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ222" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="223" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -7202,8 +8642,11 @@
       <c r="Y223" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ223" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -7213,8 +8656,11 @@
       <c r="Y224" t="s">
         <v>1393</v>
       </c>
-    </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ224" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="225" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -7224,8 +8670,11 @@
       <c r="Y225" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ225" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="226" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -7235,8 +8684,11 @@
       <c r="Y226" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ226" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="227" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -7246,8 +8698,11 @@
       <c r="Y227" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ227" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="228" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -7257,8 +8712,11 @@
       <c r="Y228" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ228" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="229" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -7268,8 +8726,11 @@
       <c r="Y229" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ229" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="230" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -7279,8 +8740,11 @@
       <c r="Y230" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ230" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="231" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -7290,8 +8754,11 @@
       <c r="Y231" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ231" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="232" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -7301,8 +8768,11 @@
       <c r="Y232" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ232" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="233" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -7312,8 +8782,11 @@
       <c r="Y233" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ233" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="234" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -7323,8 +8796,11 @@
       <c r="Y234" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ234" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="235" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -7334,8 +8810,11 @@
       <c r="Y235" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ235" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="236" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -7345,8 +8824,11 @@
       <c r="Y236" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ236" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="237" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -7356,8 +8838,11 @@
       <c r="Y237" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ237" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="238" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -7367,8 +8852,11 @@
       <c r="Y238" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ238" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="239" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -7378,8 +8866,11 @@
       <c r="Y239" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ239" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="240" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -7389,8 +8880,11 @@
       <c r="Y240" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ240" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="241" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -7400,8 +8894,11 @@
       <c r="Y241" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ241" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="242" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -7411,8 +8908,11 @@
       <c r="Y242" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ242" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="243" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -7422,8 +8922,11 @@
       <c r="Y243" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ243" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="244" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -7433,8 +8936,11 @@
       <c r="Y244" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ244" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="245" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -7444,8 +8950,11 @@
       <c r="Y245" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ245" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="246" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -7455,8 +8964,11 @@
       <c r="Y246" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ246" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="247" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -7466,8 +8978,11 @@
       <c r="Y247" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ247" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="248" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -7477,8 +8992,11 @@
       <c r="Y248" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ248" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="249" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -7488,8 +9006,11 @@
       <c r="Y249" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ249" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="250" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -7499,8 +9020,11 @@
       <c r="Y250" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ250" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="251" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -7510,8 +9034,11 @@
       <c r="Y251" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ251" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="252" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -7521,8 +9048,11 @@
       <c r="Y252" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ252" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="253" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -7532,8 +9062,11 @@
       <c r="Y253" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ253" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="254" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -7543,8 +9076,11 @@
       <c r="Y254" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ254" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="255" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -7554,8 +9090,11 @@
       <c r="Y255" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ255" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="256" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -7565,8 +9104,11 @@
       <c r="Y256" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ256" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="257" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -7576,8 +9118,11 @@
       <c r="Y257" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ257" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="258" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -7587,8 +9132,11 @@
       <c r="Y258" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AJ258" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="259" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -7599,7 +9147,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -7610,7 +9158,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -7621,7 +9169,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -7632,7 +9180,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -7643,7 +9191,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -7654,7 +9202,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -7665,7 +9213,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -7676,7 +9224,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -7687,7 +9235,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -7698,7 +9246,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -7709,7 +9257,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -7720,7 +9268,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -7731,7 +9279,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>271</v>
       </c>

--- a/Mixed Logs.xlsx
+++ b/Mixed Logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Chicken, cat, dog\Dog-Cat_Chicken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB309C4-7985-417F-A38B-614E808032FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6DE093-22E0-425E-8617-92C0E5F6A229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{E5509BF1-11B8-46C2-87AA-D7FA4F3627F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="1703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="2070">
   <si>
     <t>1 hour simulation</t>
   </si>
@@ -5145,6 +5145,1107 @@
   </si>
   <si>
     <t>[5/4/2025 8:47:36 PM]Simulation Counter : 256, Last winner cat had: 10 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>30 min dog only , 3 spd, 8 sight, 5 time</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:52:11 PM]Simulation Counter : 0, Last winner cat had: 12 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:52:16 PM]Simulation Counter : 1, Last winner cat had: 12 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:52:21 PM]Simulation Counter : 2, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:52:26 PM]Simulation Counter : 3, Last winner cat had: 18 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:52:31 PM]Simulation Counter : 4, Last winner cat had: 18 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:52:36 PM]Simulation Counter : 5, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:52:41 PM]Simulation Counter : 6, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:52:46 PM]Simulation Counter : 7, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:52:51 PM]Simulation Counter : 8, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:52:56 PM]Simulation Counter : 9, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:53:01 PM]Simulation Counter : 10, Last winner cat had: 18 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:53:06 PM]Simulation Counter : 11, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:53:11 PM]Simulation Counter : 12, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:53:16 PM]Simulation Counter : 13, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:53:21 PM]Simulation Counter : 14, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:53:26 PM]Simulation Counter : 15, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:53:31 PM]Simulation Counter : 16, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:53:36 PM]Simulation Counter : 17, Last winner cat had: 18 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:53:41 PM]Simulation Counter : 18, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:53:46 PM]Simulation Counter : 19, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:53:51 PM]Simulation Counter : 20, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:53:56 PM]Simulation Counter : 21, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:54:01 PM]Simulation Counter : 22, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:54:06 PM]Simulation Counter : 23, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:54:11 PM]Simulation Counter : 24, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:54:16 PM]Simulation Counter : 25, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:54:21 PM]Simulation Counter : 26, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:54:26 PM]Simulation Counter : 27, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:54:31 PM]Simulation Counter : 28, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:54:36 PM]Simulation Counter : 29, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:54:41 PM]Simulation Counter : 30, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:54:46 PM]Simulation Counter : 31, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:54:51 PM]Simulation Counter : 32, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:54:56 PM]Simulation Counter : 33, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:55:01 PM]Simulation Counter : 34, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:55:06 PM]Simulation Counter : 35, Last winner cat had: 18 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:55:11 PM]Simulation Counter : 36, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:55:16 PM]Simulation Counter : 37, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:55:21 PM]Simulation Counter : 38, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:55:26 PM]Simulation Counter : 39, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:55:31 PM]Simulation Counter : 40, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:55:36 PM]Simulation Counter : 41, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:55:41 PM]Simulation Counter : 42, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:55:46 PM]Simulation Counter : 43, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:55:51 PM]Simulation Counter : 44, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:55:56 PM]Simulation Counter : 45, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:56:01 PM]Simulation Counter : 46, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:56:06 PM]Simulation Counter : 47, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:56:11 PM]Simulation Counter : 48, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:56:16 PM]Simulation Counter : 49, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:56:21 PM]Simulation Counter : 50, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:56:26 PM]Simulation Counter : 51, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:56:31 PM]Simulation Counter : 52, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:56:36 PM]Simulation Counter : 53, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:56:41 PM]Simulation Counter : 54, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:56:46 PM]Simulation Counter : 55, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:56:51 PM]Simulation Counter : 56, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:56:56 PM]Simulation Counter : 57, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:57:01 PM]Simulation Counter : 58, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:57:06 PM]Simulation Counter : 59, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:57:11 PM]Simulation Counter : 60, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:57:16 PM]Simulation Counter : 61, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:57:21 PM]Simulation Counter : 62, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:57:26 PM]Simulation Counter : 63, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:57:31 PM]Simulation Counter : 64, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:57:36 PM]Simulation Counter : 65, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:57:41 PM]Simulation Counter : 66, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:57:46 PM]Simulation Counter : 67, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:57:51 PM]Simulation Counter : 68, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:57:56 PM]Simulation Counter : 69, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:58:01 PM]Simulation Counter : 70, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:58:06 PM]Simulation Counter : 71, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:58:11 PM]Simulation Counter : 72, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:58:16 PM]Simulation Counter : 73, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:58:21 PM]Simulation Counter : 74, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:58:26 PM]Simulation Counter : 75, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:58:31 PM]Simulation Counter : 76, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:58:36 PM]Simulation Counter : 77, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:58:41 PM]Simulation Counter : 78, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:58:46 PM]Simulation Counter : 79, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:58:51 PM]Simulation Counter : 80, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:58:56 PM]Simulation Counter : 81, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:59:01 PM]Simulation Counter : 82, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:59:06 PM]Simulation Counter : 83, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:59:11 PM]Simulation Counter : 84, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:59:16 PM]Simulation Counter : 85, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:59:21 PM]Simulation Counter : 86, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:59:26 PM]Simulation Counter : 87, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:59:31 PM]Simulation Counter : 88, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:59:36 PM]Simulation Counter : 89, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:59:41 PM]Simulation Counter : 90, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:59:46 PM]Simulation Counter : 91, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:59:51 PM]Simulation Counter : 92, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 8:59:56 PM]Simulation Counter : 93, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:00:01 PM]Simulation Counter : 94, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:00:06 PM]Simulation Counter : 95, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:00:11 PM]Simulation Counter : 96, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:00:16 PM]Simulation Counter : 97, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:00:21 PM]Simulation Counter : 98, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:00:26 PM]Simulation Counter : 99, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:00:31 PM]Simulation Counter : 100, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:00:36 PM]Simulation Counter : 101, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:00:41 PM]Simulation Counter : 102, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:00:46 PM]Simulation Counter : 103, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:00:51 PM]Simulation Counter : 104, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:00:56 PM]Simulation Counter : 105, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:01:01 PM]Simulation Counter : 106, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:01:06 PM]Simulation Counter : 107, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:01:11 PM]Simulation Counter : 108, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:01:16 PM]Simulation Counter : 109, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:10:48 PM]Simulation Counter : 110, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:10:53 PM]Simulation Counter : 111, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:10:58 PM]Simulation Counter : 112, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:11:03 PM]Simulation Counter : 113, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:11:08 PM]Simulation Counter : 114, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:11:13 PM]Simulation Counter : 115, Last winner cat had: 18 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:11:18 PM]Simulation Counter : 116, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:11:23 PM]Simulation Counter : 117, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:11:28 PM]Simulation Counter : 118, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:11:33 PM]Simulation Counter : 119, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:11:38 PM]Simulation Counter : 120, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:11:43 PM]Simulation Counter : 121, Last winner cat had: 18 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:11:48 PM]Simulation Counter : 122, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:11:53 PM]Simulation Counter : 123, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:11:58 PM]Simulation Counter : 124, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:12:03 PM]Simulation Counter : 125, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:12:08 PM]Simulation Counter : 126, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:12:13 PM]Simulation Counter : 127, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:12:18 PM]Simulation Counter : 128, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:12:23 PM]Simulation Counter : 129, Last winner cat had: 18 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:12:28 PM]Simulation Counter : 130, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:12:33 PM]Simulation Counter : 131, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:12:38 PM]Simulation Counter : 132, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:12:43 PM]Simulation Counter : 133, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:12:48 PM]Simulation Counter : 134, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:12:53 PM]Simulation Counter : 135, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:12:58 PM]Simulation Counter : 136, Last winner cat had: 18 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:13:03 PM]Simulation Counter : 137, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:13:08 PM]Simulation Counter : 138, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:13:13 PM]Simulation Counter : 139, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:13:18 PM]Simulation Counter : 140, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:13:23 PM]Simulation Counter : 141, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:13:28 PM]Simulation Counter : 142, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:13:33 PM]Simulation Counter : 143, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:13:38 PM]Simulation Counter : 144, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:13:43 PM]Simulation Counter : 145, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:13:48 PM]Simulation Counter : 146, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:13:53 PM]Simulation Counter : 147, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:13:58 PM]Simulation Counter : 148, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:14:03 PM]Simulation Counter : 149, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:14:08 PM]Simulation Counter : 150, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:14:13 PM]Simulation Counter : 151, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:14:18 PM]Simulation Counter : 152, Last winner cat had: 18 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:14:23 PM]Simulation Counter : 153, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:14:28 PM]Simulation Counter : 154, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:14:33 PM]Simulation Counter : 155, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:14:38 PM]Simulation Counter : 156, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:14:43 PM]Simulation Counter : 157, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:14:48 PM]Simulation Counter : 158, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:14:53 PM]Simulation Counter : 159, Last winner cat had: 18 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:14:58 PM]Simulation Counter : 160, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:15:03 PM]Simulation Counter : 161, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:15:08 PM]Simulation Counter : 162, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:15:13 PM]Simulation Counter : 163, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:15:18 PM]Simulation Counter : 164, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:15:23 PM]Simulation Counter : 165, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:15:28 PM]Simulation Counter : 166, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:15:33 PM]Simulation Counter : 167, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:15:38 PM]Simulation Counter : 168, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:15:43 PM]Simulation Counter : 169, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:15:48 PM]Simulation Counter : 170, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:15:53 PM]Simulation Counter : 171, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:15:58 PM]Simulation Counter : 172, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:16:03 PM]Simulation Counter : 173, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:16:08 PM]Simulation Counter : 174, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:16:13 PM]Simulation Counter : 175, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:16:18 PM]Simulation Counter : 176, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:16:23 PM]Simulation Counter : 177, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:16:28 PM]Simulation Counter : 178, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:16:33 PM]Simulation Counter : 179, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:16:38 PM]Simulation Counter : 180, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:16:43 PM]Simulation Counter : 181, Last winner cat had: 18 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:16:48 PM]Simulation Counter : 182, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:16:53 PM]Simulation Counter : 183, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:16:58 PM]Simulation Counter : 184, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:17:03 PM]Simulation Counter : 185, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:17:08 PM]Simulation Counter : 186, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:17:13 PM]Simulation Counter : 187, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:17:18 PM]Simulation Counter : 188, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:17:23 PM]Simulation Counter : 189, Last winner cat had: 18 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:17:28 PM]Simulation Counter : 190, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:17:33 PM]Simulation Counter : 191, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:17:38 PM]Simulation Counter : 192, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:17:43 PM]Simulation Counter : 193, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:17:48 PM]Simulation Counter : 194, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:17:53 PM]Simulation Counter : 195, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:17:58 PM]Simulation Counter : 196, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:18:03 PM]Simulation Counter : 197, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:18:08 PM]Simulation Counter : 198, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:18:13 PM]Simulation Counter : 199, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:18:18 PM]Simulation Counter : 200, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:18:23 PM]Simulation Counter : 201, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:18:28 PM]Simulation Counter : 202, Last winner cat had: 18 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:18:33 PM]Simulation Counter : 203, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:18:38 PM]Simulation Counter : 204, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:18:43 PM]Simulation Counter : 205, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:18:48 PM]Simulation Counter : 206, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:18:53 PM]Simulation Counter : 207, Last winner cat had: 18 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:18:58 PM]Simulation Counter : 208, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:19:03 PM]Simulation Counter : 209, Last winner cat had: 18 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:19:08 PM]Simulation Counter : 210, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:19:13 PM]Simulation Counter : 211, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:19:18 PM]Simulation Counter : 212, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:19:23 PM]Simulation Counter : 213, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:19:28 PM]Simulation Counter : 214, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:19:33 PM]Simulation Counter : 215, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:19:38 PM]Simulation Counter : 216, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:19:43 PM]Simulation Counter : 217, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:19:48 PM]Simulation Counter : 218, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:19:53 PM]Simulation Counter : 219, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:19:58 PM]Simulation Counter : 220, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:20:03 PM]Simulation Counter : 221, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:20:08 PM]Simulation Counter : 222, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:20:13 PM]Simulation Counter : 223, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:20:18 PM]Simulation Counter : 224, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:20:23 PM]Simulation Counter : 225, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:20:28 PM]Simulation Counter : 226, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:20:33 PM]Simulation Counter : 227, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:20:38 PM]Simulation Counter : 228, Last winner cat had: 18 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:20:43 PM]Simulation Counter : 229, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:20:48 PM]Simulation Counter : 230, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:20:53 PM]Simulation Counter : 231, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:20:58 PM]Simulation Counter : 232, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:21:03 PM]Simulation Counter : 233, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:21:08 PM]Simulation Counter : 234, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:21:13 PM]Simulation Counter : 235, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:21:18 PM]Simulation Counter : 236, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:21:23 PM]Simulation Counter : 237, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:21:28 PM]Simulation Counter : 238, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:21:33 PM]Simulation Counter : 239, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:21:38 PM]Simulation Counter : 240, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:21:43 PM]Simulation Counter : 241, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:21:48 PM]Simulation Counter : 242, Last winner cat had: 18 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:21:53 PM]Simulation Counter : 243, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:21:58 PM]Simulation Counter : 244, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:22:03 PM]Simulation Counter : 245, Last winner cat had: 18 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:22:08 PM]Simulation Counter : 246, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:22:13 PM]Simulation Counter : 247, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:22:18 PM]Simulation Counter : 248, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:22:23 PM]Simulation Counter : 249, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:22:28 PM]Simulation Counter : 250, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:22:33 PM]Simulation Counter : 251, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:22:38 PM]Simulation Counter : 252, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:22:43 PM]Simulation Counter : 253, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:22:48 PM]Simulation Counter : 254, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:22:53 PM]Simulation Counter : 255, Last winner cat had: 18 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:22:58 PM]Simulation Counter : 256, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:23:03 PM]Simulation Counter : 257, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:23:08 PM]Simulation Counter : 258, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:23:13 PM]Simulation Counter : 259, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:23:18 PM]Simulation Counter : 260, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:23:23 PM]Simulation Counter : 261, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:23:28 PM]Simulation Counter : 262, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:23:33 PM]Simulation Counter : 263, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:23:38 PM]Simulation Counter : 264, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:23:43 PM]Simulation Counter : 265, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:23:48 PM]Simulation Counter : 266, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:23:53 PM]Simulation Counter : 267, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:23:58 PM]Simulation Counter : 268, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:24:03 PM]Simulation Counter : 269, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:24:08 PM]Simulation Counter : 270, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:24:13 PM]Simulation Counter : 271, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:24:18 PM]Simulation Counter : 272, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:24:23 PM]Simulation Counter : 273, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:24:28 PM]Simulation Counter : 274, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:24:33 PM]Simulation Counter : 275, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:24:38 PM]Simulation Counter : 276, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:24:43 PM]Simulation Counter : 277, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:24:48 PM]Simulation Counter : 278, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:24:53 PM]Simulation Counter : 279, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:24:58 PM]Simulation Counter : 280, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:25:03 PM]Simulation Counter : 281, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:25:08 PM]Simulation Counter : 282, Last winner cat had: 18 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:25:13 PM]Simulation Counter : 283, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:25:18 PM]Simulation Counter : 284, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:25:23 PM]Simulation Counter : 285, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:25:28 PM]Simulation Counter : 286, Last winner cat had: 18 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:25:33 PM]Simulation Counter : 287, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:25:38 PM]Simulation Counter : 288, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:25:43 PM]Simulation Counter : 289, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:25:48 PM]Simulation Counter : 290, Last winner cat had: 18 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:25:53 PM]Simulation Counter : 291, Last winner cat had: 18 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:25:58 PM]Simulation Counter : 292, Last winner cat had: 18 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:26:03 PM]Simulation Counter : 293, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:26:08 PM]Simulation Counter : 294, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:26:13 PM]Simulation Counter : 295, Last winner cat had: 18 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:26:18 PM]Simulation Counter : 296, Last winner cat had: 18 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:26:23 PM]Simulation Counter : 297, Last winner cat had: 18 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:26:28 PM]Simulation Counter : 298, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:26:33 PM]Simulation Counter : 299, Last winner cat had: 18 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:26:38 PM]Simulation Counter : 300, Last winner cat had: 18 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:26:43 PM]Simulation Counter : 301, Last winner cat had: 18 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:26:48 PM]Simulation Counter : 302, Last winner cat had: 18 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:26:53 PM]Simulation Counter : 303, Last winner cat had: 18 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:26:58 PM]Simulation Counter : 304, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:27:03 PM]Simulation Counter : 305, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:27:08 PM]Simulation Counter : 306, Last winner cat had: 18 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:27:13 PM]Simulation Counter : 307, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:27:18 PM]Simulation Counter : 308, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:27:23 PM]Simulation Counter : 309, Last winner cat had: 18 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:27:28 PM]Simulation Counter : 310, Last winner cat had: 18 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:27:33 PM]Simulation Counter : 311, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:27:38 PM]Simulation Counter : 312, Last winner cat had: 18 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:27:43 PM]Simulation Counter : 313, Last winner cat had: 18 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:27:48 PM]Simulation Counter : 314, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:27:53 PM]Simulation Counter : 315, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:27:58 PM]Simulation Counter : 316, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:28:03 PM]Simulation Counter : 317, Last winner cat had: 18 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:28:08 PM]Simulation Counter : 318, Last winner cat had: 18 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:28:13 PM]Simulation Counter : 319, Last winner cat had: 18 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:28:18 PM]Simulation Counter : 320, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:28:23 PM]Simulation Counter : 321, Last winner cat had: 18 points! Last winner dog had: 5.3 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:28:28 PM]Simulation Counter : 322, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:28:33 PM]Simulation Counter : 323, Last winner cat had: 18 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:28:38 PM]Simulation Counter : 324, Last winner cat had: 18 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:28:43 PM]Simulation Counter : 325, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:28:48 PM]Simulation Counter : 326, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:28:53 PM]Simulation Counter : 327, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:28:58 PM]Simulation Counter : 328, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:29:03 PM]Simulation Counter : 329, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:29:08 PM]Simulation Counter : 330, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:29:13 PM]Simulation Counter : 331, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:29:18 PM]Simulation Counter : 332, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:29:23 PM]Simulation Counter : 333, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:29:28 PM]Simulation Counter : 334, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:29:33 PM]Simulation Counter : 335, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:29:38 PM]Simulation Counter : 336, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:29:43 PM]Simulation Counter : 337, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:29:48 PM]Simulation Counter : 338, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:29:53 PM]Simulation Counter : 339, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:29:58 PM]Simulation Counter : 340, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:30:03 PM]Simulation Counter : 341, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:30:08 PM]Simulation Counter : 342, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:30:13 PM]Simulation Counter : 343, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:30:18 PM]Simulation Counter : 344, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:30:23 PM]Simulation Counter : 345, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:30:28 PM]Simulation Counter : 346, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:30:33 PM]Simulation Counter : 347, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:30:38 PM]Simulation Counter : 348, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:30:43 PM]Simulation Counter : 349, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:30:48 PM]Simulation Counter : 350, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:30:53 PM]Simulation Counter : 351, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:30:58 PM]Simulation Counter : 352, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:31:03 PM]Simulation Counter : 353, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:31:08 PM]Simulation Counter : 354, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:31:13 PM]Simulation Counter : 355, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:31:18 PM]Simulation Counter : 356, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:31:23 PM]Simulation Counter : 357, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:31:28 PM]Simulation Counter : 358, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:31:33 PM]Simulation Counter : 359, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:31:38 PM]Simulation Counter : 360, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:31:43 PM]Simulation Counter : 361, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:31:48 PM]Simulation Counter : 362, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:31:53 PM]Simulation Counter : 363, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:31:58 PM]Simulation Counter : 364, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/4/2025 9:32:03 PM]Simulation Counter : 365, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
   </si>
 </sst>
 </file>
@@ -5516,15 +6617,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C76559D-2104-4C42-96BB-D4003E9D0DC2}">
-  <dimension ref="A1:AJ786"/>
+  <dimension ref="A1:AV786"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AK4" sqref="AK4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS10" sqref="AS10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5537,8 +6638,11 @@
       <c r="AJ1" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV1" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5551,8 +6655,11 @@
       <c r="AJ2" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV2" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5565,8 +6672,11 @@
       <c r="AJ3" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV3" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5579,8 +6689,11 @@
       <c r="AJ4" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV4" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5593,8 +6706,11 @@
       <c r="AJ5" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV5" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5607,8 +6723,11 @@
       <c r="AJ6" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV6" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5621,8 +6740,11 @@
       <c r="AJ7" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV7" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5635,8 +6757,11 @@
       <c r="AJ8" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV8" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5649,8 +6774,11 @@
       <c r="AJ9" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV9" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5663,8 +6791,11 @@
       <c r="AJ10" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV10" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5677,8 +6808,11 @@
       <c r="AJ11" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV11" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5691,8 +6825,11 @@
       <c r="AJ12" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV12" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5705,8 +6842,11 @@
       <c r="AJ13" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV13" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5719,8 +6859,11 @@
       <c r="AJ14" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV14" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5733,8 +6876,11 @@
       <c r="AJ15" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV15" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -5747,8 +6893,11 @@
       <c r="AJ16" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV16" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5761,8 +6910,11 @@
       <c r="AJ17" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV17" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5775,8 +6927,11 @@
       <c r="AJ18" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV18" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5789,8 +6944,11 @@
       <c r="AJ19" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV19" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5803,8 +6961,11 @@
       <c r="AJ20" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV20" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5817,8 +6978,11 @@
       <c r="AJ21" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV21" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5831,8 +6995,11 @@
       <c r="AJ22" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV22" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -5845,8 +7012,11 @@
       <c r="AJ23" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV23" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5859,8 +7029,11 @@
       <c r="AJ24" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV24" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5873,8 +7046,11 @@
       <c r="AJ25" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV25" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -5887,8 +7063,11 @@
       <c r="AJ26" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV26" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5901,8 +7080,11 @@
       <c r="AJ27" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV27" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5915,8 +7097,11 @@
       <c r="AJ28" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV28" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -5929,8 +7114,11 @@
       <c r="AJ29" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV29" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5943,8 +7131,11 @@
       <c r="AJ30" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV30" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5957,8 +7148,11 @@
       <c r="AJ31" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV31" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5971,8 +7165,11 @@
       <c r="AJ32" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV32" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5985,8 +7182,11 @@
       <c r="AJ33" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV33" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5999,8 +7199,11 @@
       <c r="AJ34" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV34" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -6013,8 +7216,11 @@
       <c r="AJ35" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV35" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -6027,8 +7233,11 @@
       <c r="AJ36" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV36" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -6041,8 +7250,11 @@
       <c r="AJ37" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV37" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -6055,8 +7267,11 @@
       <c r="AJ38" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV38" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -6069,8 +7284,11 @@
       <c r="AJ39" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV39" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -6083,8 +7301,11 @@
       <c r="AJ40" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV40" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -6097,8 +7318,11 @@
       <c r="AJ41" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV41" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -6111,8 +7335,11 @@
       <c r="AJ42" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV42" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -6125,8 +7352,11 @@
       <c r="AJ43" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV43" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -6139,8 +7369,11 @@
       <c r="AJ44" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV44" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -6153,8 +7386,11 @@
       <c r="AJ45" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV45" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -6167,8 +7403,11 @@
       <c r="AJ46" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV46" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -6181,8 +7420,11 @@
       <c r="AJ47" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV47" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -6195,8 +7437,11 @@
       <c r="AJ48" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV48" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -6209,8 +7454,11 @@
       <c r="AJ49" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV49" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -6223,8 +7471,11 @@
       <c r="AJ50" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV50" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -6237,8 +7488,11 @@
       <c r="AJ51" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV51" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -6251,8 +7505,11 @@
       <c r="AJ52" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV52" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -6265,8 +7522,11 @@
       <c r="AJ53" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV53" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -6279,8 +7539,11 @@
       <c r="AJ54" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV54" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="55" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -6293,8 +7556,11 @@
       <c r="AJ55" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV55" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="56" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -6307,8 +7573,11 @@
       <c r="AJ56" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV56" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -6321,8 +7590,11 @@
       <c r="AJ57" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV57" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -6335,8 +7607,11 @@
       <c r="AJ58" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV58" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -6349,8 +7624,11 @@
       <c r="AJ59" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV59" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -6363,8 +7641,11 @@
       <c r="AJ60" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV60" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="61" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -6377,8 +7658,11 @@
       <c r="AJ61" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV61" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -6391,8 +7675,11 @@
       <c r="AJ62" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV62" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -6405,8 +7692,11 @@
       <c r="AJ63" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV63" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -6419,8 +7709,11 @@
       <c r="AJ64" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV64" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="65" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -6433,8 +7726,11 @@
       <c r="AJ65" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV65" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="66" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -6447,8 +7743,11 @@
       <c r="AJ66" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV66" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="67" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -6461,8 +7760,11 @@
       <c r="AJ67" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV67" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="68" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -6475,8 +7777,11 @@
       <c r="AJ68" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV68" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="69" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -6489,8 +7794,11 @@
       <c r="AJ69" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV69" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="70" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -6503,8 +7811,11 @@
       <c r="AJ70" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV70" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="71" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -6517,8 +7828,11 @@
       <c r="AJ71" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV71" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="72" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -6531,8 +7845,11 @@
       <c r="AJ72" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV72" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="73" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -6545,8 +7862,11 @@
       <c r="AJ73" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV73" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="74" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -6559,8 +7879,11 @@
       <c r="AJ74" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV74" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="75" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -6573,8 +7896,11 @@
       <c r="AJ75" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV75" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="76" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -6587,8 +7913,11 @@
       <c r="AJ76" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV76" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="77" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -6601,8 +7930,11 @@
       <c r="AJ77" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV77" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="78" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -6615,8 +7947,11 @@
       <c r="AJ78" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV78" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="79" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -6629,8 +7964,11 @@
       <c r="AJ79" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV79" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="80" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -6643,8 +7981,11 @@
       <c r="AJ80" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV80" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="81" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -6657,8 +7998,11 @@
       <c r="AJ81" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV81" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="82" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -6671,8 +8015,11 @@
       <c r="AJ82" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV82" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="83" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -6685,8 +8032,11 @@
       <c r="AJ83" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV83" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="84" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -6699,8 +8049,11 @@
       <c r="AJ84" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV84" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="85" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -6713,8 +8066,11 @@
       <c r="AJ85" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV85" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="86" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -6727,8 +8083,11 @@
       <c r="AJ86" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV86" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="87" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -6741,8 +8100,11 @@
       <c r="AJ87" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV87" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="88" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -6755,8 +8117,11 @@
       <c r="AJ88" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV88" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="89" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -6769,8 +8134,11 @@
       <c r="AJ89" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV89" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="90" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -6783,8 +8151,11 @@
       <c r="AJ90" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV90" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="91" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -6797,8 +8168,11 @@
       <c r="AJ91" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV91" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="92" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -6811,8 +8185,11 @@
       <c r="AJ92" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV92" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="93" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -6825,8 +8202,11 @@
       <c r="AJ93" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV93" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="94" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -6839,8 +8219,11 @@
       <c r="AJ94" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV94" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="95" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -6853,8 +8236,11 @@
       <c r="AJ95" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV95" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="96" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -6867,8 +8253,11 @@
       <c r="AJ96" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV96" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="97" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -6881,8 +8270,11 @@
       <c r="AJ97" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV97" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="98" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -6895,8 +8287,11 @@
       <c r="AJ98" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV98" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="99" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -6909,8 +8304,11 @@
       <c r="AJ99" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV99" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="100" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -6923,8 +8321,11 @@
       <c r="AJ100" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV100" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="101" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -6937,8 +8338,11 @@
       <c r="AJ101" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV101" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="102" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -6951,8 +8355,11 @@
       <c r="AJ102" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV102" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="103" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -6965,8 +8372,11 @@
       <c r="AJ103" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV103" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="104" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -6979,8 +8389,11 @@
       <c r="AJ104" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV104" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="105" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -6993,8 +8406,11 @@
       <c r="AJ105" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV105" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="106" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -7007,8 +8423,11 @@
       <c r="AJ106" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV106" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="107" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -7021,8 +8440,11 @@
       <c r="AJ107" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV107" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="108" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -7035,8 +8457,11 @@
       <c r="AJ108" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV108" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="109" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -7049,8 +8474,11 @@
       <c r="AJ109" t="s">
         <v>1553</v>
       </c>
-    </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV109" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="110" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -7063,8 +8491,11 @@
       <c r="AJ110" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV110" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="111" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -7077,8 +8508,11 @@
       <c r="AJ111" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV111" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="112" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -7091,8 +8525,11 @@
       <c r="AJ112" t="s">
         <v>1556</v>
       </c>
-    </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV112" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="113" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -7105,8 +8542,11 @@
       <c r="AJ113" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV113" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="114" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -7119,8 +8559,11 @@
       <c r="AJ114" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV114" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="115" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -7133,8 +8576,11 @@
       <c r="AJ115" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV115" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="116" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -7147,8 +8593,11 @@
       <c r="AJ116" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV116" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="117" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -7161,8 +8610,11 @@
       <c r="AJ117" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV117" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="118" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -7175,8 +8627,11 @@
       <c r="AJ118" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV118" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="119" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -7189,8 +8644,11 @@
       <c r="AJ119" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV119" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="120" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -7203,8 +8661,11 @@
       <c r="AJ120" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV120" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="121" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -7217,8 +8678,11 @@
       <c r="AJ121" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV121" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="122" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -7231,8 +8695,11 @@
       <c r="AJ122" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV122" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="123" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -7245,8 +8712,11 @@
       <c r="AJ123" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV123" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="124" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -7259,8 +8729,11 @@
       <c r="AJ124" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV124" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="125" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -7273,8 +8746,11 @@
       <c r="AJ125" t="s">
         <v>1569</v>
       </c>
-    </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV125" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="126" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -7287,8 +8763,11 @@
       <c r="AJ126" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV126" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="127" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -7301,8 +8780,11 @@
       <c r="AJ127" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV127" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="128" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -7315,8 +8797,11 @@
       <c r="AJ128" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV128" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="129" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -7329,8 +8814,11 @@
       <c r="AJ129" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV129" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="130" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -7343,8 +8831,11 @@
       <c r="AJ130" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV130" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="131" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -7357,8 +8848,11 @@
       <c r="AJ131" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV131" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="132" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -7371,8 +8865,11 @@
       <c r="AJ132" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV132" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="133" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -7385,8 +8882,11 @@
       <c r="AJ133" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV133" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="134" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -7399,8 +8899,11 @@
       <c r="AJ134" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV134" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="135" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -7413,8 +8916,11 @@
       <c r="AJ135" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV135" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="136" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -7427,8 +8933,11 @@
       <c r="AJ136" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV136" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="137" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -7441,8 +8950,11 @@
       <c r="AJ137" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV137" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="138" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -7455,8 +8967,11 @@
       <c r="AJ138" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV138" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="139" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -7469,8 +8984,11 @@
       <c r="AJ139" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV139" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="140" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -7483,8 +9001,11 @@
       <c r="AJ140" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV140" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="141" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -7497,8 +9018,11 @@
       <c r="AJ141" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV141" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="142" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -7511,8 +9035,11 @@
       <c r="AJ142" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV142" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="143" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -7525,8 +9052,11 @@
       <c r="AJ143" t="s">
         <v>1587</v>
       </c>
-    </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV143" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="144" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -7539,8 +9069,11 @@
       <c r="AJ144" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV144" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="145" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -7553,8 +9086,11 @@
       <c r="AJ145" t="s">
         <v>1589</v>
       </c>
-    </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV145" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="146" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -7567,8 +9103,11 @@
       <c r="AJ146" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV146" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="147" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -7581,8 +9120,11 @@
       <c r="AJ147" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV147" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="148" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -7595,8 +9137,11 @@
       <c r="AJ148" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV148" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="149" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -7609,8 +9154,11 @@
       <c r="AJ149" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV149" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="150" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -7623,8 +9171,11 @@
       <c r="AJ150" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV150" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="151" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -7637,8 +9188,11 @@
       <c r="AJ151" t="s">
         <v>1595</v>
       </c>
-    </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV151" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="152" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -7651,8 +9205,11 @@
       <c r="AJ152" t="s">
         <v>1596</v>
       </c>
-    </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV152" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="153" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -7665,8 +9222,11 @@
       <c r="AJ153" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV153" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="154" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -7679,8 +9239,11 @@
       <c r="AJ154" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV154" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="155" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -7693,8 +9256,11 @@
       <c r="AJ155" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV155" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="156" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -7707,8 +9273,11 @@
       <c r="AJ156" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV156" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="157" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -7721,8 +9290,11 @@
       <c r="AJ157" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV157" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="158" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -7735,8 +9307,11 @@
       <c r="AJ158" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV158" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="159" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -7749,8 +9324,11 @@
       <c r="AJ159" t="s">
         <v>1603</v>
       </c>
-    </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV159" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="160" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -7763,8 +9341,11 @@
       <c r="AJ160" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV160" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="161" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -7777,8 +9358,11 @@
       <c r="AJ161" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV161" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="162" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -7791,8 +9375,11 @@
       <c r="AJ162" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV162" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="163" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -7805,8 +9392,11 @@
       <c r="AJ163" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV163" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="164" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -7819,8 +9409,11 @@
       <c r="AJ164" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV164" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="165" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -7833,8 +9426,11 @@
       <c r="AJ165" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV165" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="166" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -7847,8 +9443,11 @@
       <c r="AJ166" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV166" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="167" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -7861,8 +9460,11 @@
       <c r="AJ167" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV167" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="168" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -7875,8 +9477,11 @@
       <c r="AJ168" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV168" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="169" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -7889,8 +9494,11 @@
       <c r="AJ169" t="s">
         <v>1613</v>
       </c>
-    </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV169" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="170" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -7903,8 +9511,11 @@
       <c r="AJ170" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV170" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="171" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -7917,8 +9528,11 @@
       <c r="AJ171" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV171" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="172" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -7931,8 +9545,11 @@
       <c r="AJ172" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV172" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="173" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -7945,8 +9562,11 @@
       <c r="AJ173" t="s">
         <v>1617</v>
       </c>
-    </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV173" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="174" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -7959,8 +9579,11 @@
       <c r="AJ174" t="s">
         <v>1618</v>
       </c>
-    </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV174" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="175" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -7973,8 +9596,11 @@
       <c r="AJ175" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV175" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="176" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -7987,8 +9613,11 @@
       <c r="AJ176" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV176" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="177" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -8001,8 +9630,11 @@
       <c r="AJ177" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV177" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="178" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -8015,8 +9647,11 @@
       <c r="AJ178" t="s">
         <v>1622</v>
       </c>
-    </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV178" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="179" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -8029,8 +9664,11 @@
       <c r="AJ179" t="s">
         <v>1623</v>
       </c>
-    </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV179" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="180" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -8043,8 +9681,11 @@
       <c r="AJ180" t="s">
         <v>1624</v>
       </c>
-    </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV180" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="181" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -8057,8 +9698,11 @@
       <c r="AJ181" t="s">
         <v>1625</v>
       </c>
-    </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV181" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="182" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -8071,8 +9715,11 @@
       <c r="AJ182" t="s">
         <v>1626</v>
       </c>
-    </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV182" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="183" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -8085,8 +9732,11 @@
       <c r="AJ183" t="s">
         <v>1627</v>
       </c>
-    </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV183" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="184" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -8099,8 +9749,11 @@
       <c r="AJ184" t="s">
         <v>1628</v>
       </c>
-    </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV184" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="185" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -8113,8 +9766,11 @@
       <c r="AJ185" t="s">
         <v>1629</v>
       </c>
-    </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV185" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="186" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -8127,8 +9783,11 @@
       <c r="AJ186" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV186" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="187" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -8141,8 +9800,11 @@
       <c r="AJ187" t="s">
         <v>1631</v>
       </c>
-    </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV187" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="188" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -8155,8 +9817,11 @@
       <c r="AJ188" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV188" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="189" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -8169,8 +9834,11 @@
       <c r="AJ189" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV189" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="190" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -8183,8 +9851,11 @@
       <c r="AJ190" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV190" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="191" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -8197,8 +9868,11 @@
       <c r="AJ191" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV191" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="192" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -8211,8 +9885,11 @@
       <c r="AJ192" t="s">
         <v>1636</v>
       </c>
-    </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV192" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="193" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -8225,8 +9902,11 @@
       <c r="AJ193" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV193" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="194" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -8239,8 +9919,11 @@
       <c r="AJ194" t="s">
         <v>1638</v>
       </c>
-    </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV194" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="195" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -8253,8 +9936,11 @@
       <c r="AJ195" t="s">
         <v>1639</v>
       </c>
-    </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV195" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="196" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -8267,8 +9953,11 @@
       <c r="AJ196" t="s">
         <v>1640</v>
       </c>
-    </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV196" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="197" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -8281,8 +9970,11 @@
       <c r="AJ197" t="s">
         <v>1641</v>
       </c>
-    </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV197" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="198" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -8295,8 +9987,11 @@
       <c r="AJ198" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV198" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="199" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -8309,8 +10004,11 @@
       <c r="AJ199" t="s">
         <v>1643</v>
       </c>
-    </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV199" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="200" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -8323,8 +10021,11 @@
       <c r="AJ200" t="s">
         <v>1644</v>
       </c>
-    </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV200" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="201" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -8337,8 +10038,11 @@
       <c r="AJ201" t="s">
         <v>1645</v>
       </c>
-    </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV201" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="202" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -8351,8 +10055,11 @@
       <c r="AJ202" t="s">
         <v>1646</v>
       </c>
-    </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV202" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="203" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -8365,8 +10072,11 @@
       <c r="AJ203" t="s">
         <v>1647</v>
       </c>
-    </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV203" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="204" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -8379,8 +10089,11 @@
       <c r="AJ204" t="s">
         <v>1648</v>
       </c>
-    </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV204" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="205" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -8393,8 +10106,11 @@
       <c r="AJ205" t="s">
         <v>1649</v>
       </c>
-    </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV205" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="206" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -8407,8 +10123,11 @@
       <c r="AJ206" t="s">
         <v>1650</v>
       </c>
-    </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV206" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="207" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -8421,8 +10140,11 @@
       <c r="AJ207" t="s">
         <v>1651</v>
       </c>
-    </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV207" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="208" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -8435,8 +10157,11 @@
       <c r="AJ208" t="s">
         <v>1652</v>
       </c>
-    </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV208" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="209" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -8449,8 +10174,11 @@
       <c r="AJ209" t="s">
         <v>1653</v>
       </c>
-    </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV209" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="210" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -8463,8 +10191,11 @@
       <c r="AJ210" t="s">
         <v>1654</v>
       </c>
-    </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV210" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="211" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -8477,8 +10208,11 @@
       <c r="AJ211" t="s">
         <v>1655</v>
       </c>
-    </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV211" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="212" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -8491,8 +10225,11 @@
       <c r="AJ212" t="s">
         <v>1656</v>
       </c>
-    </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV212" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="213" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -8505,8 +10242,11 @@
       <c r="AJ213" t="s">
         <v>1657</v>
       </c>
-    </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV213" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="214" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -8519,8 +10259,11 @@
       <c r="AJ214" t="s">
         <v>1658</v>
       </c>
-    </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV214" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="215" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -8533,8 +10276,11 @@
       <c r="AJ215" t="s">
         <v>1659</v>
       </c>
-    </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV215" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="216" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -8547,8 +10293,11 @@
       <c r="AJ216" t="s">
         <v>1660</v>
       </c>
-    </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV216" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="217" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -8561,8 +10310,11 @@
       <c r="AJ217" t="s">
         <v>1661</v>
       </c>
-    </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV217" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="218" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -8575,8 +10327,11 @@
       <c r="AJ218" t="s">
         <v>1662</v>
       </c>
-    </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV218" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="219" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -8589,8 +10344,11 @@
       <c r="AJ219" t="s">
         <v>1663</v>
       </c>
-    </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV219" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="220" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -8603,8 +10361,11 @@
       <c r="AJ220" t="s">
         <v>1664</v>
       </c>
-    </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV220" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="221" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -8617,8 +10378,11 @@
       <c r="AJ221" t="s">
         <v>1665</v>
       </c>
-    </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV221" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="222" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -8631,8 +10395,11 @@
       <c r="AJ222" t="s">
         <v>1666</v>
       </c>
-    </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV222" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="223" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -8645,8 +10412,11 @@
       <c r="AJ223" t="s">
         <v>1667</v>
       </c>
-    </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV223" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="224" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -8659,8 +10429,11 @@
       <c r="AJ224" t="s">
         <v>1668</v>
       </c>
-    </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV224" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="225" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -8673,8 +10446,11 @@
       <c r="AJ225" t="s">
         <v>1669</v>
       </c>
-    </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV225" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="226" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -8687,8 +10463,11 @@
       <c r="AJ226" t="s">
         <v>1670</v>
       </c>
-    </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV226" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="227" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -8701,8 +10480,11 @@
       <c r="AJ227" t="s">
         <v>1671</v>
       </c>
-    </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV227" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="228" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -8715,8 +10497,11 @@
       <c r="AJ228" t="s">
         <v>1672</v>
       </c>
-    </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV228" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="229" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -8729,8 +10514,11 @@
       <c r="AJ229" t="s">
         <v>1673</v>
       </c>
-    </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV229" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="230" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -8743,8 +10531,11 @@
       <c r="AJ230" t="s">
         <v>1674</v>
       </c>
-    </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV230" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="231" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -8757,8 +10548,11 @@
       <c r="AJ231" t="s">
         <v>1675</v>
       </c>
-    </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV231" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="232" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -8771,8 +10565,11 @@
       <c r="AJ232" t="s">
         <v>1676</v>
       </c>
-    </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV232" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="233" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -8785,8 +10582,11 @@
       <c r="AJ233" t="s">
         <v>1677</v>
       </c>
-    </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV233" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="234" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -8799,8 +10599,11 @@
       <c r="AJ234" t="s">
         <v>1678</v>
       </c>
-    </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV234" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="235" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -8813,8 +10616,11 @@
       <c r="AJ235" t="s">
         <v>1679</v>
       </c>
-    </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV235" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="236" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -8827,8 +10633,11 @@
       <c r="AJ236" t="s">
         <v>1680</v>
       </c>
-    </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV236" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="237" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -8841,8 +10650,11 @@
       <c r="AJ237" t="s">
         <v>1681</v>
       </c>
-    </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV237" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="238" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -8855,8 +10667,11 @@
       <c r="AJ238" t="s">
         <v>1682</v>
       </c>
-    </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV238" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="239" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -8869,8 +10684,11 @@
       <c r="AJ239" t="s">
         <v>1683</v>
       </c>
-    </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV239" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="240" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -8883,8 +10701,11 @@
       <c r="AJ240" t="s">
         <v>1684</v>
       </c>
-    </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV240" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="241" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -8897,8 +10718,11 @@
       <c r="AJ241" t="s">
         <v>1685</v>
       </c>
-    </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV241" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="242" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -8911,8 +10735,11 @@
       <c r="AJ242" t="s">
         <v>1686</v>
       </c>
-    </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV242" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="243" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -8925,8 +10752,11 @@
       <c r="AJ243" t="s">
         <v>1687</v>
       </c>
-    </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV243" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="244" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -8939,8 +10769,11 @@
       <c r="AJ244" t="s">
         <v>1688</v>
       </c>
-    </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV244" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="245" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -8953,8 +10786,11 @@
       <c r="AJ245" t="s">
         <v>1689</v>
       </c>
-    </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV245" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="246" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -8967,8 +10803,11 @@
       <c r="AJ246" t="s">
         <v>1690</v>
       </c>
-    </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV246" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="247" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -8981,8 +10820,11 @@
       <c r="AJ247" t="s">
         <v>1691</v>
       </c>
-    </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV247" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="248" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -8995,8 +10837,11 @@
       <c r="AJ248" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV248" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="249" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -9009,8 +10854,11 @@
       <c r="AJ249" t="s">
         <v>1693</v>
       </c>
-    </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV249" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="250" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -9023,8 +10871,11 @@
       <c r="AJ250" t="s">
         <v>1694</v>
       </c>
-    </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV250" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="251" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -9037,8 +10888,11 @@
       <c r="AJ251" t="s">
         <v>1695</v>
       </c>
-    </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV251" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="252" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -9051,8 +10905,11 @@
       <c r="AJ252" t="s">
         <v>1696</v>
       </c>
-    </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV252" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="253" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -9065,8 +10922,11 @@
       <c r="AJ253" t="s">
         <v>1697</v>
       </c>
-    </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV253" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="254" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -9079,8 +10939,11 @@
       <c r="AJ254" t="s">
         <v>1698</v>
       </c>
-    </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV254" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="255" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -9093,8 +10956,11 @@
       <c r="AJ255" t="s">
         <v>1699</v>
       </c>
-    </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV255" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="256" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -9107,8 +10973,11 @@
       <c r="AJ256" t="s">
         <v>1700</v>
       </c>
-    </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV256" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="257" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -9121,8 +10990,11 @@
       <c r="AJ257" t="s">
         <v>1701</v>
       </c>
-    </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV257" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="258" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -9135,8 +11007,11 @@
       <c r="AJ258" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV258" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="259" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -9146,8 +11021,11 @@
       <c r="Y259" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV259" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="260" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -9157,8 +11035,11 @@
       <c r="Y260" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV260" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="261" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -9168,8 +11049,11 @@
       <c r="Y261" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV261" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="262" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -9179,8 +11063,11 @@
       <c r="Y262" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="263" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV262" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="263" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -9190,8 +11077,11 @@
       <c r="Y263" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="264" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV263" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="264" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -9201,8 +11091,11 @@
       <c r="Y264" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="265" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV264" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="265" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -9212,8 +11105,11 @@
       <c r="Y265" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="266" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV265" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="266" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -9223,8 +11119,11 @@
       <c r="Y266" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="267" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV266" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="267" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -9234,8 +11133,11 @@
       <c r="Y267" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="268" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV267" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="268" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -9245,8 +11147,11 @@
       <c r="Y268" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="269" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV268" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="269" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -9256,8 +11161,11 @@
       <c r="Y269" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="270" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV269" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="270" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -9267,8 +11175,11 @@
       <c r="Y270" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="271" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV270" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="271" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -9278,8 +11189,11 @@
       <c r="Y271" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="272" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AV271" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="272" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -9289,8 +11203,11 @@
       <c r="Y272" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AV272" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="273" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -9300,8 +11217,11 @@
       <c r="Y273" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AV273" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="274" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -9311,8 +11231,11 @@
       <c r="Y274" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AV274" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="275" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -9322,744 +11245,1023 @@
       <c r="Y275" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AV275" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="276" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>275</v>
       </c>
       <c r="M276" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AV276" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="277" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>276</v>
       </c>
       <c r="M277" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AV277" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="278" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>277</v>
       </c>
       <c r="M278" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AV278" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="279" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>278</v>
       </c>
       <c r="M279" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AV279" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="280" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>279</v>
       </c>
       <c r="M280" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AV280" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="281" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>280</v>
       </c>
       <c r="M281" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AV281" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="282" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>281</v>
       </c>
       <c r="M282" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AV282" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="283" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>282</v>
       </c>
       <c r="M283" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AV283" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="284" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>283</v>
       </c>
       <c r="M284" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AV284" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="285" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>284</v>
       </c>
       <c r="M285" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AV285" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="286" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>285</v>
       </c>
       <c r="M286" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AV286" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="287" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>286</v>
       </c>
       <c r="M287" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AV287" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="288" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>287</v>
       </c>
       <c r="M288" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV288" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="289" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>288</v>
       </c>
       <c r="M289" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV289" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="290" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>289</v>
       </c>
       <c r="M290" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV290" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="291" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>290</v>
       </c>
       <c r="M291" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV291" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="292" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>291</v>
       </c>
       <c r="M292" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV292" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="293" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>292</v>
       </c>
       <c r="M293" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV293" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="294" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>293</v>
       </c>
       <c r="M294" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV294" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="295" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>294</v>
       </c>
       <c r="M295" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV295" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="296" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>295</v>
       </c>
       <c r="M296" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV296" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="297" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>296</v>
       </c>
       <c r="M297" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV297" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>297</v>
       </c>
       <c r="M298" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV298" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>298</v>
       </c>
       <c r="M299" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV299" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>299</v>
       </c>
       <c r="M300" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV300" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="301" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>300</v>
       </c>
       <c r="M301" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV301" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="302" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>301</v>
       </c>
       <c r="M302" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV302" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="303" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>302</v>
       </c>
       <c r="M303" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV303" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="304" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>303</v>
       </c>
       <c r="M304" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV304" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="305" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>304</v>
       </c>
       <c r="M305" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV305" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="306" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>305</v>
       </c>
       <c r="M306" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV306" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="307" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>306</v>
       </c>
       <c r="M307" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV307" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="308" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>307</v>
       </c>
       <c r="M308" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV308" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="309" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>308</v>
       </c>
       <c r="M309" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV309" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="310" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>309</v>
       </c>
       <c r="M310" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV310" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="311" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>310</v>
       </c>
       <c r="M311" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV311" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="312" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>311</v>
       </c>
       <c r="M312" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV312" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="313" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>312</v>
       </c>
       <c r="M313" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV313" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="314" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>313</v>
       </c>
       <c r="M314" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV314" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="315" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>314</v>
       </c>
       <c r="M315" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV315" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="316" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>315</v>
       </c>
       <c r="M316" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV316" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="317" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>316</v>
       </c>
       <c r="M317" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV317" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="318" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>317</v>
       </c>
       <c r="M318" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV318" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="319" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>318</v>
       </c>
       <c r="M319" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV319" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="320" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>319</v>
       </c>
       <c r="M320" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV320" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="321" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>320</v>
       </c>
       <c r="M321" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV321" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="322" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>321</v>
       </c>
       <c r="M322" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV322" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="323" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>322</v>
       </c>
       <c r="M323" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV323" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="324" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>323</v>
       </c>
       <c r="M324" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV324" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="325" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>324</v>
       </c>
       <c r="M325" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV325" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="326" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>325</v>
       </c>
       <c r="M326" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV326" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="327" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>326</v>
       </c>
       <c r="M327" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV327" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="328" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>327</v>
       </c>
       <c r="M328" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV328" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="329" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>328</v>
       </c>
       <c r="M329" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV329" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="330" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>329</v>
       </c>
       <c r="M330" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV330" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="331" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>330</v>
       </c>
       <c r="M331" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV331" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="332" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>331</v>
       </c>
       <c r="M332" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV332" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="333" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>332</v>
       </c>
       <c r="M333" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV333" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="334" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>333</v>
       </c>
       <c r="M334" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV334" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="335" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>334</v>
       </c>
       <c r="M335" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV335" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="336" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>335</v>
       </c>
       <c r="M336" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV336" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="337" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>336</v>
       </c>
       <c r="M337" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV337" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="338" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>337</v>
       </c>
       <c r="M338" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV338" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="339" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>338</v>
       </c>
       <c r="M339" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV339" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="340" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>339</v>
       </c>
       <c r="M340" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV340" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="341" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>340</v>
       </c>
       <c r="M341" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV341" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="342" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>341</v>
       </c>
       <c r="M342" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV342" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="343" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>342</v>
       </c>
       <c r="M343" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV343" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="344" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>343</v>
       </c>
       <c r="M344" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV344" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="345" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>344</v>
       </c>
       <c r="M345" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV345" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="346" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>345</v>
       </c>
       <c r="M346" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV346" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="347" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>346</v>
       </c>
       <c r="M347" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV347" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="348" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>347</v>
       </c>
       <c r="M348" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV348" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="349" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>348</v>
       </c>
       <c r="M349" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV349" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="350" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>349</v>
       </c>
       <c r="M350" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV350" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="351" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>350</v>
       </c>
       <c r="M351" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV351" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="352" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>351</v>
       </c>
       <c r="M352" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV352" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="353" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>352</v>
       </c>
       <c r="M353" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV353" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="354" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>353</v>
       </c>
       <c r="M354" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV354" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="355" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>354</v>
       </c>
       <c r="M355" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV355" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="356" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>355</v>
       </c>
       <c r="M356" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV356" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="357" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>356</v>
       </c>
       <c r="M357" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV357" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="358" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>357</v>
       </c>
       <c r="M358" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV358" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="359" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>358</v>
       </c>
       <c r="M359" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV359" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="360" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>359</v>
       </c>
       <c r="M360" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV360" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="361" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>360</v>
       </c>
       <c r="M361" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV361" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="362" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>361</v>
       </c>
       <c r="M362" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV362" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="363" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>362</v>
       </c>
       <c r="M363" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV363" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="364" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>363</v>
       </c>
       <c r="M364" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV364" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="365" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>364</v>
       </c>
       <c r="M365" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV365" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="366" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>365</v>
       </c>
       <c r="M366" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV366" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="367" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>366</v>
       </c>
       <c r="M367" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AV367" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="368" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>367</v>
       </c>

--- a/Mixed Logs.xlsx
+++ b/Mixed Logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Chicken, cat, dog\Dog-Cat_Chicken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6E5058-604E-47D2-BFAC-E00B82312388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2029DE-28B3-4C87-928F-245F63894428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{E5509BF1-11B8-46C2-87AA-D7FA4F3627F1}"/>
+    <workbookView xWindow="4840" yWindow="1600" windowWidth="19200" windowHeight="10970" xr2:uid="{E5509BF1-11B8-46C2-87AA-D7FA4F3627F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="2999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="3371">
   <si>
     <t>1 hour simulation</t>
   </si>
@@ -9033,6 +9033,1122 @@
   </si>
   <si>
     <t>30 min , 3 spd, 8 sight, 5 time, 4 mutation chance</t>
+  </si>
+  <si>
+    <t>30 min, cat only, 4 mutation chance, 5 time</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:58:02 PM]Simulation Counter : 0, Last winner cat had: 18 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:58:07 PM]Simulation Counter : 1, Last winner cat had: 18 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:58:12 PM]Simulation Counter : 2, Last winner cat had: 18 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:58:17 PM]Simulation Counter : 3, Last winner cat had: 18 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:58:22 PM]Simulation Counter : 4, Last winner cat had: 18 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:58:27 PM]Simulation Counter : 5, Last winner cat had: 18 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:58:32 PM]Simulation Counter : 6, Last winner cat had: 18 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:58:37 PM]Simulation Counter : 7, Last winner cat had: 16 points! Last winner dog had: 15.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:58:42 PM]Simulation Counter : 8, Last winner cat had: 16 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:58:47 PM]Simulation Counter : 9, Last winner cat had: 16 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:58:52 PM]Simulation Counter : 10, Last winner cat had: 16 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:58:57 PM]Simulation Counter : 11, Last winner cat had: 18 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:59:02 PM]Simulation Counter : 12, Last winner cat had: 16 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:59:07 PM]Simulation Counter : 13, Last winner cat had: 16 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:59:12 PM]Simulation Counter : 14, Last winner cat had: 16 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:59:17 PM]Simulation Counter : 15, Last winner cat had: 12 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:59:22 PM]Simulation Counter : 16, Last winner cat had: 16 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:59:27 PM]Simulation Counter : 17, Last winner cat had: 16 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:59:32 PM]Simulation Counter : 18, Last winner cat had: 16 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:59:37 PM]Simulation Counter : 19, Last winner cat had: 16 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:59:42 PM]Simulation Counter : 20, Last winner cat had: 16 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:59:47 PM]Simulation Counter : 21, Last winner cat had: 16 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:59:52 PM]Simulation Counter : 22, Last winner cat had: 16 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 2:59:57 PM]Simulation Counter : 23, Last winner cat had: 16 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:00:02 PM]Simulation Counter : 24, Last winner cat had: 16 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:00:07 PM]Simulation Counter : 25, Last winner cat had: 12 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:00:12 PM]Simulation Counter : 26, Last winner cat had: 16 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:00:17 PM]Simulation Counter : 27, Last winner cat had: 16 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:00:22 PM]Simulation Counter : 28, Last winner cat had: 14 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:00:27 PM]Simulation Counter : 29, Last winner cat had: 14 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:00:32 PM]Simulation Counter : 30, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:00:37 PM]Simulation Counter : 31, Last winner cat had: 14 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:00:42 PM]Simulation Counter : 32, Last winner cat had: 14 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:00:47 PM]Simulation Counter : 33, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:00:52 PM]Simulation Counter : 34, Last winner cat had: 14 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:00:57 PM]Simulation Counter : 35, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:01:02 PM]Simulation Counter : 36, Last winner cat had: 12 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:01:07 PM]Simulation Counter : 37, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:01:12 PM]Simulation Counter : 38, Last winner cat had: 12 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:01:17 PM]Simulation Counter : 39, Last winner cat had: 12 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:01:22 PM]Simulation Counter : 40, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:01:27 PM]Simulation Counter : 41, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:01:32 PM]Simulation Counter : 42, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:01:37 PM]Simulation Counter : 43, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:01:42 PM]Simulation Counter : 44, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:01:47 PM]Simulation Counter : 45, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:01:52 PM]Simulation Counter : 46, Last winner cat had: 12 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:01:57 PM]Simulation Counter : 47, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:02:02 PM]Simulation Counter : 48, Last winner cat had: 14 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:02:07 PM]Simulation Counter : 49, Last winner cat had: 12 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:02:12 PM]Simulation Counter : 50, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:02:17 PM]Simulation Counter : 51, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:02:22 PM]Simulation Counter : 52, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:02:27 PM]Simulation Counter : 53, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:02:32 PM]Simulation Counter : 54, Last winner cat had: 14 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:02:37 PM]Simulation Counter : 55, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:02:42 PM]Simulation Counter : 56, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:02:47 PM]Simulation Counter : 57, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:02:52 PM]Simulation Counter : 58, Last winner cat had: 12 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:02:57 PM]Simulation Counter : 59, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:03:02 PM]Simulation Counter : 60, Last winner cat had: 14 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:03:07 PM]Simulation Counter : 61, Last winner cat had: 12 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:03:12 PM]Simulation Counter : 62, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:03:17 PM]Simulation Counter : 63, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:03:22 PM]Simulation Counter : 64, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:03:27 PM]Simulation Counter : 65, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:03:32 PM]Simulation Counter : 66, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:03:37 PM]Simulation Counter : 67, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:03:42 PM]Simulation Counter : 68, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:03:47 PM]Simulation Counter : 69, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:03:52 PM]Simulation Counter : 70, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:03:57 PM]Simulation Counter : 71, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:04:02 PM]Simulation Counter : 72, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:04:07 PM]Simulation Counter : 73, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:04:12 PM]Simulation Counter : 74, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:04:17 PM]Simulation Counter : 75, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:04:22 PM]Simulation Counter : 76, Last winner cat had: 14 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:04:27 PM]Simulation Counter : 77, Last winner cat had: 14 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:04:32 PM]Simulation Counter : 78, Last winner cat had: 14 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:04:37 PM]Simulation Counter : 79, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:04:42 PM]Simulation Counter : 80, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:04:47 PM]Simulation Counter : 81, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:04:52 PM]Simulation Counter : 82, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:04:57 PM]Simulation Counter : 83, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:05:02 PM]Simulation Counter : 84, Last winner cat had: 12 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:05:07 PM]Simulation Counter : 85, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:05:12 PM]Simulation Counter : 86, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:05:17 PM]Simulation Counter : 87, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:05:22 PM]Simulation Counter : 88, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:05:27 PM]Simulation Counter : 89, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:05:32 PM]Simulation Counter : 90, Last winner cat had: 14 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:05:37 PM]Simulation Counter : 91, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:05:42 PM]Simulation Counter : 92, Last winner cat had: 14 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:05:47 PM]Simulation Counter : 93, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:05:52 PM]Simulation Counter : 94, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:05:57 PM]Simulation Counter : 95, Last winner cat had: 14 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:06:02 PM]Simulation Counter : 96, Last winner cat had: 14 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:06:07 PM]Simulation Counter : 97, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:06:12 PM]Simulation Counter : 98, Last winner cat had: 14 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:06:17 PM]Simulation Counter : 99, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:06:22 PM]Simulation Counter : 100, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:06:27 PM]Simulation Counter : 101, Last winner cat had: 14 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:06:32 PM]Simulation Counter : 102, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:06:37 PM]Simulation Counter : 103, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:06:42 PM]Simulation Counter : 104, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:06:47 PM]Simulation Counter : 105, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:06:52 PM]Simulation Counter : 106, Last winner cat had: 14 points! Last winner dog had: 10.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:06:57 PM]Simulation Counter : 107, Last winner cat had: 14 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:07:02 PM]Simulation Counter : 108, Last winner cat had: 14 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:07:07 PM]Simulation Counter : 109, Last winner cat had: 12 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:07:12 PM]Simulation Counter : 110, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:07:17 PM]Simulation Counter : 111, Last winner cat had: 12 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:07:22 PM]Simulation Counter : 112, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:07:27 PM]Simulation Counter : 113, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:07:32 PM]Simulation Counter : 114, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:07:37 PM]Simulation Counter : 115, Last winner cat had: 12 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:07:42 PM]Simulation Counter : 116, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:07:47 PM]Simulation Counter : 117, Last winner cat had: 14 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:07:52 PM]Simulation Counter : 118, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:07:57 PM]Simulation Counter : 119, Last winner cat had: 12 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:08:02 PM]Simulation Counter : 120, Last winner cat had: 12 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:08:07 PM]Simulation Counter : 121, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:08:12 PM]Simulation Counter : 122, Last winner cat had: 12 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:08:17 PM]Simulation Counter : 123, Last winner cat had: 12 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:08:22 PM]Simulation Counter : 124, Last winner cat had: 6 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:08:27 PM]Simulation Counter : 125, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:08:32 PM]Simulation Counter : 126, Last winner cat had: 12 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:08:37 PM]Simulation Counter : 127, Last winner cat had: 12 points! Last winner dog had: 10.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:08:42 PM]Simulation Counter : 128, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:08:52 PM]Simulation Counter : 129, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:08:57 PM]Simulation Counter : 130, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:09:02 PM]Simulation Counter : 131, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:09:07 PM]Simulation Counter : 132, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:09:12 PM]Simulation Counter : 133, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:09:17 PM]Simulation Counter : 134, Last winner cat had: 12 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:09:22 PM]Simulation Counter : 135, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:09:27 PM]Simulation Counter : 136, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:09:32 PM]Simulation Counter : 137, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:09:37 PM]Simulation Counter : 138, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:09:42 PM]Simulation Counter : 139, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:09:47 PM]Simulation Counter : 140, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:09:52 PM]Simulation Counter : 141, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:09:57 PM]Simulation Counter : 142, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:10:02 PM]Simulation Counter : 143, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:10:07 PM]Simulation Counter : 144, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:10:12 PM]Simulation Counter : 145, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:10:17 PM]Simulation Counter : 146, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:10:22 PM]Simulation Counter : 147, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:10:27 PM]Simulation Counter : 148, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:10:32 PM]Simulation Counter : 149, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:10:37 PM]Simulation Counter : 150, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:10:42 PM]Simulation Counter : 151, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:10:47 PM]Simulation Counter : 152, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:10:52 PM]Simulation Counter : 153, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:10:57 PM]Simulation Counter : 154, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:11:02 PM]Simulation Counter : 155, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:11:07 PM]Simulation Counter : 156, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:11:12 PM]Simulation Counter : 157, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:11:17 PM]Simulation Counter : 158, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:11:22 PM]Simulation Counter : 159, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:11:27 PM]Simulation Counter : 160, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:11:32 PM]Simulation Counter : 161, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:11:37 PM]Simulation Counter : 162, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:11:42 PM]Simulation Counter : 163, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:11:47 PM]Simulation Counter : 164, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:11:52 PM]Simulation Counter : 165, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:11:57 PM]Simulation Counter : 166, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:12:02 PM]Simulation Counter : 167, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:12:07 PM]Simulation Counter : 168, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:12:12 PM]Simulation Counter : 169, Last winner cat had: 10 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:12:17 PM]Simulation Counter : 170, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:12:22 PM]Simulation Counter : 171, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:12:27 PM]Simulation Counter : 172, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:12:32 PM]Simulation Counter : 173, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:12:37 PM]Simulation Counter : 174, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:12:42 PM]Simulation Counter : 175, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:12:47 PM]Simulation Counter : 176, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:12:52 PM]Simulation Counter : 177, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:12:57 PM]Simulation Counter : 178, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:13:02 PM]Simulation Counter : 179, Last winner cat had: 8 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:13:07 PM]Simulation Counter : 180, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:13:12 PM]Simulation Counter : 181, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:13:17 PM]Simulation Counter : 182, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:13:22 PM]Simulation Counter : 183, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:13:27 PM]Simulation Counter : 184, Last winner cat had: 10 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:13:32 PM]Simulation Counter : 185, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:13:37 PM]Simulation Counter : 186, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:13:42 PM]Simulation Counter : 187, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:13:47 PM]Simulation Counter : 188, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:13:52 PM]Simulation Counter : 189, Last winner cat had: 10 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:13:57 PM]Simulation Counter : 190, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:14:02 PM]Simulation Counter : 191, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:14:07 PM]Simulation Counter : 192, Last winner cat had: 10 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:14:12 PM]Simulation Counter : 193, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:14:17 PM]Simulation Counter : 194, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:14:22 PM]Simulation Counter : 195, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:14:27 PM]Simulation Counter : 196, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:14:32 PM]Simulation Counter : 197, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:14:37 PM]Simulation Counter : 198, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:14:42 PM]Simulation Counter : 199, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:14:47 PM]Simulation Counter : 200, Last winner cat had: 10 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:14:52 PM]Simulation Counter : 201, Last winner cat had: 10 points! Last winner dog had: 15.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:14:57 PM]Simulation Counter : 202, Last winner cat had: 10 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:15:02 PM]Simulation Counter : 203, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:15:07 PM]Simulation Counter : 204, Last winner cat had: 10 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:15:12 PM]Simulation Counter : 205, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:15:17 PM]Simulation Counter : 206, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:15:22 PM]Simulation Counter : 207, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:15:27 PM]Simulation Counter : 208, Last winner cat had: 8 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:15:32 PM]Simulation Counter : 209, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:15:37 PM]Simulation Counter : 210, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:15:42 PM]Simulation Counter : 211, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:15:47 PM]Simulation Counter : 212, Last winner cat had: 10 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:15:52 PM]Simulation Counter : 213, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:15:57 PM]Simulation Counter : 214, Last winner cat had: 8 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:16:02 PM]Simulation Counter : 215, Last winner cat had: 8 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:16:07 PM]Simulation Counter : 216, Last winner cat had: 10 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:16:12 PM]Simulation Counter : 217, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:16:17 PM]Simulation Counter : 218, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:16:22 PM]Simulation Counter : 219, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:16:27 PM]Simulation Counter : 220, Last winner cat had: 10 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:16:32 PM]Simulation Counter : 221, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:16:37 PM]Simulation Counter : 222, Last winner cat had: 10 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:16:42 PM]Simulation Counter : 223, Last winner cat had: 8 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:16:47 PM]Simulation Counter : 224, Last winner cat had: 10 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:16:52 PM]Simulation Counter : 225, Last winner cat had: 8 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:16:57 PM]Simulation Counter : 226, Last winner cat had: 10 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:17:02 PM]Simulation Counter : 227, Last winner cat had: 8 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:17:07 PM]Simulation Counter : 228, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:17:12 PM]Simulation Counter : 229, Last winner cat had: 8 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:17:17 PM]Simulation Counter : 230, Last winner cat had: 8 points! Last winner dog had: 20.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:17:22 PM]Simulation Counter : 231, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:17:27 PM]Simulation Counter : 232, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:17:32 PM]Simulation Counter : 233, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:17:37 PM]Simulation Counter : 234, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:17:42 PM]Simulation Counter : 235, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:17:47 PM]Simulation Counter : 236, Last winner cat had: 8 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:17:52 PM]Simulation Counter : 237, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:17:57 PM]Simulation Counter : 238, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:18:02 PM]Simulation Counter : 239, Last winner cat had: 8 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:18:07 PM]Simulation Counter : 240, Last winner cat had: 8 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:18:12 PM]Simulation Counter : 241, Last winner cat had: 8 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:18:17 PM]Simulation Counter : 242, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:18:22 PM]Simulation Counter : 243, Last winner cat had: 8 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:18:27 PM]Simulation Counter : 244, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:18:32 PM]Simulation Counter : 245, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:18:37 PM]Simulation Counter : 246, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:18:42 PM]Simulation Counter : 247, Last winner cat had: 8 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:18:47 PM]Simulation Counter : 248, Last winner cat had: 8 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:18:52 PM]Simulation Counter : 249, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:18:57 PM]Simulation Counter : 250, Last winner cat had: 8 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:19:02 PM]Simulation Counter : 251, Last winner cat had: 8 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:19:07 PM]Simulation Counter : 252, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:19:12 PM]Simulation Counter : 253, Last winner cat had: 8 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:19:17 PM]Simulation Counter : 254, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:19:22 PM]Simulation Counter : 255, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:19:27 PM]Simulation Counter : 256, Last winner cat had: 6 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:19:32 PM]Simulation Counter : 257, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:19:37 PM]Simulation Counter : 258, Last winner cat had: 6 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:19:42 PM]Simulation Counter : 259, Last winner cat had: 8 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:19:47 PM]Simulation Counter : 260, Last winner cat had: 6 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:19:52 PM]Simulation Counter : 261, Last winner cat had: 8 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:19:57 PM]Simulation Counter : 262, Last winner cat had: 8 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:20:02 PM]Simulation Counter : 263, Last winner cat had: 8 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:20:07 PM]Simulation Counter : 264, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:20:12 PM]Simulation Counter : 265, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:20:17 PM]Simulation Counter : 266, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:20:22 PM]Simulation Counter : 267, Last winner cat had: 6 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:20:27 PM]Simulation Counter : 268, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:20:32 PM]Simulation Counter : 269, Last winner cat had: 6 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:20:37 PM]Simulation Counter : 270, Last winner cat had: 6 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:20:42 PM]Simulation Counter : 271, Last winner cat had: 6 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:20:47 PM]Simulation Counter : 272, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:20:52 PM]Simulation Counter : 273, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:20:57 PM]Simulation Counter : 274, Last winner cat had: 6 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:21:02 PM]Simulation Counter : 275, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:21:07 PM]Simulation Counter : 276, Last winner cat had: 6 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:21:12 PM]Simulation Counter : 277, Last winner cat had: 6 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:21:17 PM]Simulation Counter : 278, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:21:22 PM]Simulation Counter : 279, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:21:27 PM]Simulation Counter : 280, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:21:32 PM]Simulation Counter : 281, Last winner cat had: 6 points! Last winner dog had: 25.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:21:37 PM]Simulation Counter : 282, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:21:42 PM]Simulation Counter : 283, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:21:47 PM]Simulation Counter : 284, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:21:52 PM]Simulation Counter : 285, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:21:57 PM]Simulation Counter : 286, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:22:02 PM]Simulation Counter : 287, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:22:07 PM]Simulation Counter : 288, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:22:12 PM]Simulation Counter : 289, Last winner cat had: 6 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:22:17 PM]Simulation Counter : 290, Last winner cat had: 6 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:22:22 PM]Simulation Counter : 291, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:22:27 PM]Simulation Counter : 292, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:22:32 PM]Simulation Counter : 293, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:22:37 PM]Simulation Counter : 294, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:22:42 PM]Simulation Counter : 295, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:22:47 PM]Simulation Counter : 296, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:22:52 PM]Simulation Counter : 297, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:22:57 PM]Simulation Counter : 298, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:23:02 PM]Simulation Counter : 299, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:23:07 PM]Simulation Counter : 300, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:23:12 PM]Simulation Counter : 301, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:23:17 PM]Simulation Counter : 302, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:23:22 PM]Simulation Counter : 303, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:23:27 PM]Simulation Counter : 304, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:23:32 PM]Simulation Counter : 305, Last winner cat had: 6 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:23:37 PM]Simulation Counter : 306, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:23:42 PM]Simulation Counter : 307, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:23:47 PM]Simulation Counter : 308, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:23:52 PM]Simulation Counter : 309, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:23:57 PM]Simulation Counter : 310, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:24:02 PM]Simulation Counter : 311, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:24:07 PM]Simulation Counter : 312, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:24:12 PM]Simulation Counter : 313, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:24:17 PM]Simulation Counter : 314, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:24:22 PM]Simulation Counter : 315, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:24:27 PM]Simulation Counter : 316, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:24:32 PM]Simulation Counter : 317, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:24:37 PM]Simulation Counter : 318, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:24:42 PM]Simulation Counter : 319, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:24:47 PM]Simulation Counter : 320, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:24:52 PM]Simulation Counter : 321, Last winner cat had: 6 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:24:57 PM]Simulation Counter : 322, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:25:02 PM]Simulation Counter : 323, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:25:07 PM]Simulation Counter : 324, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:25:12 PM]Simulation Counter : 325, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:25:17 PM]Simulation Counter : 326, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:25:22 PM]Simulation Counter : 327, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:25:27 PM]Simulation Counter : 328, Last winner cat had: 6 points! Last winner dog had: 20.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:25:32 PM]Simulation Counter : 329, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:25:37 PM]Simulation Counter : 330, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:25:42 PM]Simulation Counter : 331, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:25:47 PM]Simulation Counter : 332, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:25:52 PM]Simulation Counter : 333, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:25:57 PM]Simulation Counter : 334, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:26:02 PM]Simulation Counter : 335, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:26:07 PM]Simulation Counter : 336, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:26:12 PM]Simulation Counter : 337, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:26:17 PM]Simulation Counter : 338, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:26:22 PM]Simulation Counter : 339, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:26:27 PM]Simulation Counter : 340, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:26:32 PM]Simulation Counter : 341, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:26:37 PM]Simulation Counter : 342, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:26:42 PM]Simulation Counter : 343, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:26:47 PM]Simulation Counter : 344, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:26:52 PM]Simulation Counter : 345, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:26:57 PM]Simulation Counter : 346, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:27:02 PM]Simulation Counter : 347, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:27:07 PM]Simulation Counter : 348, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:27:12 PM]Simulation Counter : 349, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:27:17 PM]Simulation Counter : 350, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:27:22 PM]Simulation Counter : 351, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:27:27 PM]Simulation Counter : 352, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:27:32 PM]Simulation Counter : 353, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:27:37 PM]Simulation Counter : 354, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:27:42 PM]Simulation Counter : 355, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:27:47 PM]Simulation Counter : 356, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:27:52 PM]Simulation Counter : 357, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:27:57 PM]Simulation Counter : 358, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:28:02 PM]Simulation Counter : 359, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:28:07 PM]Simulation Counter : 360, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:28:12 PM]Simulation Counter : 361, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:28:17 PM]Simulation Counter : 362, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:28:22 PM]Simulation Counter : 363, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:28:27 PM]Simulation Counter : 364, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:28:32 PM]Simulation Counter : 365, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:28:37 PM]Simulation Counter : 366, Last winner cat had: 4 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:28:42 PM]Simulation Counter : 367, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:28:47 PM]Simulation Counter : 368, Last winner cat had: 6 points! Last winner dog had: 25.3 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:28:52 PM]Simulation Counter : 369, Last winner cat had: 6 points! Last winner dog had: 25.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:28:57 PM]Simulation Counter : 370, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
   </si>
 </sst>
 </file>
@@ -9404,15 +10520,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C76559D-2104-4C42-96BB-D4003E9D0DC2}">
-  <dimension ref="A1:BS786"/>
+  <dimension ref="A1:CD786"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CD11" sqref="CD11"/>
+    <sheetView tabSelected="1" topLeftCell="CC1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="CC4" sqref="CC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9434,8 +10550,11 @@
       <c r="BS1" t="s">
         <v>2998</v>
       </c>
-    </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD1" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9457,8 +10576,11 @@
       <c r="BS2" t="s">
         <v>2631</v>
       </c>
-    </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD2" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9480,8 +10602,11 @@
       <c r="BS3" t="s">
         <v>2632</v>
       </c>
-    </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD3" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9503,8 +10628,11 @@
       <c r="BS4" t="s">
         <v>2633</v>
       </c>
-    </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD4" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9526,8 +10654,11 @@
       <c r="BS5" t="s">
         <v>2634</v>
       </c>
-    </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD5" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9549,8 +10680,11 @@
       <c r="BS6" t="s">
         <v>2635</v>
       </c>
-    </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD6" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9572,8 +10706,11 @@
       <c r="BS7" t="s">
         <v>2636</v>
       </c>
-    </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD7" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9595,8 +10732,11 @@
       <c r="BS8" t="s">
         <v>2637</v>
       </c>
-    </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD8" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9618,8 +10758,11 @@
       <c r="BS9" t="s">
         <v>2638</v>
       </c>
-    </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD9" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -9641,8 +10784,11 @@
       <c r="BS10" t="s">
         <v>2639</v>
       </c>
-    </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD10" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -9664,8 +10810,11 @@
       <c r="BS11" t="s">
         <v>2640</v>
       </c>
-    </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD11" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9687,8 +10836,11 @@
       <c r="BS12" t="s">
         <v>2641</v>
       </c>
-    </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD12" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9710,8 +10862,11 @@
       <c r="BS13" t="s">
         <v>2642</v>
       </c>
-    </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD13" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9733,8 +10888,11 @@
       <c r="BS14" t="s">
         <v>2643</v>
       </c>
-    </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD14" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -9756,8 +10914,11 @@
       <c r="BS15" t="s">
         <v>2644</v>
       </c>
-    </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD15" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -9779,8 +10940,11 @@
       <c r="BS16" t="s">
         <v>2645</v>
       </c>
-    </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD16" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -9802,8 +10966,11 @@
       <c r="BS17" t="s">
         <v>2646</v>
       </c>
-    </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD17" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -9825,8 +10992,11 @@
       <c r="BS18" t="s">
         <v>2647</v>
       </c>
-    </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD18" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -9848,8 +11018,11 @@
       <c r="BS19" t="s">
         <v>2648</v>
       </c>
-    </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD19" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -9871,8 +11044,11 @@
       <c r="BS20" t="s">
         <v>2649</v>
       </c>
-    </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD20" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -9894,8 +11070,11 @@
       <c r="BS21" t="s">
         <v>2650</v>
       </c>
-    </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD21" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -9917,8 +11096,11 @@
       <c r="BS22" t="s">
         <v>2651</v>
       </c>
-    </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD22" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -9940,8 +11122,11 @@
       <c r="BS23" t="s">
         <v>2652</v>
       </c>
-    </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD23" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -9963,8 +11148,11 @@
       <c r="BS24" t="s">
         <v>2653</v>
       </c>
-    </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD24" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -9986,8 +11174,11 @@
       <c r="BS25" t="s">
         <v>2654</v>
       </c>
-    </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD25" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -10009,8 +11200,11 @@
       <c r="BS26" t="s">
         <v>2655</v>
       </c>
-    </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD26" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -10032,8 +11226,11 @@
       <c r="BS27" t="s">
         <v>2656</v>
       </c>
-    </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD27" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -10055,8 +11252,11 @@
       <c r="BS28" t="s">
         <v>2657</v>
       </c>
-    </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD28" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -10078,8 +11278,11 @@
       <c r="BS29" t="s">
         <v>2658</v>
       </c>
-    </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD29" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -10101,8 +11304,11 @@
       <c r="BS30" t="s">
         <v>2659</v>
       </c>
-    </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD30" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -10124,8 +11330,11 @@
       <c r="BS31" t="s">
         <v>2660</v>
       </c>
-    </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD31" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -10147,8 +11356,11 @@
       <c r="BS32" t="s">
         <v>2661</v>
       </c>
-    </row>
-    <row r="33" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD32" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="33" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -10170,8 +11382,11 @@
       <c r="BS33" t="s">
         <v>2662</v>
       </c>
-    </row>
-    <row r="34" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD33" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -10193,8 +11408,11 @@
       <c r="BS34" t="s">
         <v>2663</v>
       </c>
-    </row>
-    <row r="35" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD34" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -10216,8 +11434,11 @@
       <c r="BS35" t="s">
         <v>2664</v>
       </c>
-    </row>
-    <row r="36" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD35" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -10239,8 +11460,11 @@
       <c r="BS36" t="s">
         <v>2665</v>
       </c>
-    </row>
-    <row r="37" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD36" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -10262,8 +11486,11 @@
       <c r="BS37" t="s">
         <v>2666</v>
       </c>
-    </row>
-    <row r="38" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD37" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="38" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -10285,8 +11512,11 @@
       <c r="BS38" t="s">
         <v>2667</v>
       </c>
-    </row>
-    <row r="39" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD38" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="39" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -10308,8 +11538,11 @@
       <c r="BS39" t="s">
         <v>2668</v>
       </c>
-    </row>
-    <row r="40" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD39" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -10331,8 +11564,11 @@
       <c r="BS40" t="s">
         <v>2669</v>
       </c>
-    </row>
-    <row r="41" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD40" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="41" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -10354,8 +11590,11 @@
       <c r="BS41" t="s">
         <v>2670</v>
       </c>
-    </row>
-    <row r="42" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD41" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="42" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -10377,8 +11616,11 @@
       <c r="BS42" t="s">
         <v>2671</v>
       </c>
-    </row>
-    <row r="43" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD42" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="43" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -10400,8 +11642,11 @@
       <c r="BS43" t="s">
         <v>2672</v>
       </c>
-    </row>
-    <row r="44" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD43" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="44" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -10423,8 +11668,11 @@
       <c r="BS44" t="s">
         <v>2673</v>
       </c>
-    </row>
-    <row r="45" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD44" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="45" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -10446,8 +11694,11 @@
       <c r="BS45" t="s">
         <v>2674</v>
       </c>
-    </row>
-    <row r="46" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD45" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="46" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -10469,8 +11720,11 @@
       <c r="BS46" t="s">
         <v>2675</v>
       </c>
-    </row>
-    <row r="47" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD46" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="47" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -10492,8 +11746,11 @@
       <c r="BS47" t="s">
         <v>2676</v>
       </c>
-    </row>
-    <row r="48" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD47" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="48" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -10515,8 +11772,11 @@
       <c r="BS48" t="s">
         <v>2677</v>
       </c>
-    </row>
-    <row r="49" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD48" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="49" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -10538,8 +11798,11 @@
       <c r="BS49" t="s">
         <v>2678</v>
       </c>
-    </row>
-    <row r="50" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD49" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="50" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -10561,8 +11824,11 @@
       <c r="BS50" t="s">
         <v>2679</v>
       </c>
-    </row>
-    <row r="51" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD50" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="51" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -10584,8 +11850,11 @@
       <c r="BS51" t="s">
         <v>2680</v>
       </c>
-    </row>
-    <row r="52" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD51" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="52" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -10607,8 +11876,11 @@
       <c r="BS52" t="s">
         <v>2681</v>
       </c>
-    </row>
-    <row r="53" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD52" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="53" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -10630,8 +11902,11 @@
       <c r="BS53" t="s">
         <v>2682</v>
       </c>
-    </row>
-    <row r="54" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD53" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="54" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -10653,8 +11928,11 @@
       <c r="BS54" t="s">
         <v>2683</v>
       </c>
-    </row>
-    <row r="55" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD54" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="55" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -10676,8 +11954,11 @@
       <c r="BS55" t="s">
         <v>2684</v>
       </c>
-    </row>
-    <row r="56" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD55" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="56" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -10699,8 +11980,11 @@
       <c r="BS56" t="s">
         <v>2685</v>
       </c>
-    </row>
-    <row r="57" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD56" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="57" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -10722,8 +12006,11 @@
       <c r="BS57" t="s">
         <v>2686</v>
       </c>
-    </row>
-    <row r="58" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD57" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="58" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -10745,8 +12032,11 @@
       <c r="BS58" t="s">
         <v>2687</v>
       </c>
-    </row>
-    <row r="59" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD58" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="59" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -10768,8 +12058,11 @@
       <c r="BS59" t="s">
         <v>2688</v>
       </c>
-    </row>
-    <row r="60" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD59" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="60" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -10791,8 +12084,11 @@
       <c r="BS60" t="s">
         <v>2689</v>
       </c>
-    </row>
-    <row r="61" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD60" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="61" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -10814,8 +12110,11 @@
       <c r="BS61" t="s">
         <v>2690</v>
       </c>
-    </row>
-    <row r="62" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD61" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="62" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -10837,8 +12136,11 @@
       <c r="BS62" t="s">
         <v>2691</v>
       </c>
-    </row>
-    <row r="63" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD62" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="63" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -10860,8 +12162,11 @@
       <c r="BS63" t="s">
         <v>2692</v>
       </c>
-    </row>
-    <row r="64" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD63" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="64" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -10883,8 +12188,11 @@
       <c r="BS64" t="s">
         <v>2693</v>
       </c>
-    </row>
-    <row r="65" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD64" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="65" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -10906,8 +12214,11 @@
       <c r="BS65" t="s">
         <v>2694</v>
       </c>
-    </row>
-    <row r="66" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD65" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="66" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -10929,8 +12240,11 @@
       <c r="BS66" t="s">
         <v>2695</v>
       </c>
-    </row>
-    <row r="67" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD66" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="67" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -10952,8 +12266,11 @@
       <c r="BS67" t="s">
         <v>2696</v>
       </c>
-    </row>
-    <row r="68" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD67" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="68" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -10975,8 +12292,11 @@
       <c r="BS68" t="s">
         <v>2697</v>
       </c>
-    </row>
-    <row r="69" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD68" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="69" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -10998,8 +12318,11 @@
       <c r="BS69" t="s">
         <v>2698</v>
       </c>
-    </row>
-    <row r="70" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD69" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="70" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -11021,8 +12344,11 @@
       <c r="BS70" t="s">
         <v>2699</v>
       </c>
-    </row>
-    <row r="71" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD70" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="71" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -11044,8 +12370,11 @@
       <c r="BS71" t="s">
         <v>2700</v>
       </c>
-    </row>
-    <row r="72" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD71" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="72" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -11067,8 +12396,11 @@
       <c r="BS72" t="s">
         <v>2701</v>
       </c>
-    </row>
-    <row r="73" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD72" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="73" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -11090,8 +12422,11 @@
       <c r="BS73" t="s">
         <v>2702</v>
       </c>
-    </row>
-    <row r="74" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD73" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="74" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -11113,8 +12448,11 @@
       <c r="BS74" t="s">
         <v>2703</v>
       </c>
-    </row>
-    <row r="75" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD74" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="75" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -11136,8 +12474,11 @@
       <c r="BS75" t="s">
         <v>2704</v>
       </c>
-    </row>
-    <row r="76" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD75" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="76" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -11159,8 +12500,11 @@
       <c r="BS76" t="s">
         <v>2705</v>
       </c>
-    </row>
-    <row r="77" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD76" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="77" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -11182,8 +12526,11 @@
       <c r="BS77" t="s">
         <v>2706</v>
       </c>
-    </row>
-    <row r="78" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD77" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="78" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -11205,8 +12552,11 @@
       <c r="BS78" t="s">
         <v>2707</v>
       </c>
-    </row>
-    <row r="79" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD78" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="79" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -11228,8 +12578,11 @@
       <c r="BS79" t="s">
         <v>2708</v>
       </c>
-    </row>
-    <row r="80" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD79" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="80" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -11251,8 +12604,11 @@
       <c r="BS80" t="s">
         <v>2709</v>
       </c>
-    </row>
-    <row r="81" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD80" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="81" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -11274,8 +12630,11 @@
       <c r="BS81" t="s">
         <v>2710</v>
       </c>
-    </row>
-    <row r="82" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD81" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="82" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -11297,8 +12656,11 @@
       <c r="BS82" t="s">
         <v>2711</v>
       </c>
-    </row>
-    <row r="83" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD82" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="83" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -11320,8 +12682,11 @@
       <c r="BS83" t="s">
         <v>2712</v>
       </c>
-    </row>
-    <row r="84" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD83" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="84" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -11343,8 +12708,11 @@
       <c r="BS84" t="s">
         <v>2713</v>
       </c>
-    </row>
-    <row r="85" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD84" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="85" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -11366,8 +12734,11 @@
       <c r="BS85" t="s">
         <v>2714</v>
       </c>
-    </row>
-    <row r="86" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD85" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="86" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -11389,8 +12760,11 @@
       <c r="BS86" t="s">
         <v>2715</v>
       </c>
-    </row>
-    <row r="87" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD86" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="87" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -11412,8 +12786,11 @@
       <c r="BS87" t="s">
         <v>2716</v>
       </c>
-    </row>
-    <row r="88" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD87" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="88" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -11435,8 +12812,11 @@
       <c r="BS88" t="s">
         <v>2717</v>
       </c>
-    </row>
-    <row r="89" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD88" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="89" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -11458,8 +12838,11 @@
       <c r="BS89" t="s">
         <v>2718</v>
       </c>
-    </row>
-    <row r="90" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD89" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="90" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -11481,8 +12864,11 @@
       <c r="BS90" t="s">
         <v>2719</v>
       </c>
-    </row>
-    <row r="91" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD90" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="91" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -11504,8 +12890,11 @@
       <c r="BS91" t="s">
         <v>2720</v>
       </c>
-    </row>
-    <row r="92" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD91" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="92" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -11527,8 +12916,11 @@
       <c r="BS92" t="s">
         <v>2721</v>
       </c>
-    </row>
-    <row r="93" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD92" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="93" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -11550,8 +12942,11 @@
       <c r="BS93" t="s">
         <v>2722</v>
       </c>
-    </row>
-    <row r="94" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD93" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="94" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -11573,8 +12968,11 @@
       <c r="BS94" t="s">
         <v>2723</v>
       </c>
-    </row>
-    <row r="95" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD94" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="95" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -11596,8 +12994,11 @@
       <c r="BS95" t="s">
         <v>2724</v>
       </c>
-    </row>
-    <row r="96" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD95" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="96" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -11619,8 +13020,11 @@
       <c r="BS96" t="s">
         <v>2725</v>
       </c>
-    </row>
-    <row r="97" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD96" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="97" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -11642,8 +13046,11 @@
       <c r="BS97" t="s">
         <v>2726</v>
       </c>
-    </row>
-    <row r="98" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD97" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="98" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -11665,8 +13072,11 @@
       <c r="BS98" t="s">
         <v>2727</v>
       </c>
-    </row>
-    <row r="99" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD98" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="99" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -11688,8 +13098,11 @@
       <c r="BS99" t="s">
         <v>2728</v>
       </c>
-    </row>
-    <row r="100" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD99" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="100" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -11711,8 +13124,11 @@
       <c r="BS100" t="s">
         <v>2729</v>
       </c>
-    </row>
-    <row r="101" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD100" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="101" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -11734,8 +13150,11 @@
       <c r="BS101" t="s">
         <v>2730</v>
       </c>
-    </row>
-    <row r="102" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD101" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="102" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -11757,8 +13176,11 @@
       <c r="BS102" t="s">
         <v>2731</v>
       </c>
-    </row>
-    <row r="103" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD102" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -11780,8 +13202,11 @@
       <c r="BS103" t="s">
         <v>2732</v>
       </c>
-    </row>
-    <row r="104" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD103" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -11803,8 +13228,11 @@
       <c r="BS104" t="s">
         <v>2733</v>
       </c>
-    </row>
-    <row r="105" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD104" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -11826,8 +13254,11 @@
       <c r="BS105" t="s">
         <v>2734</v>
       </c>
-    </row>
-    <row r="106" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD105" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -11849,8 +13280,11 @@
       <c r="BS106" t="s">
         <v>2735</v>
       </c>
-    </row>
-    <row r="107" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD106" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -11872,8 +13306,11 @@
       <c r="BS107" t="s">
         <v>2736</v>
       </c>
-    </row>
-    <row r="108" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD107" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -11895,8 +13332,11 @@
       <c r="BS108" t="s">
         <v>2737</v>
       </c>
-    </row>
-    <row r="109" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD108" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -11918,8 +13358,11 @@
       <c r="BS109" t="s">
         <v>2738</v>
       </c>
-    </row>
-    <row r="110" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD109" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -11941,8 +13384,11 @@
       <c r="BS110" t="s">
         <v>2739</v>
       </c>
-    </row>
-    <row r="111" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD110" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -11964,8 +13410,11 @@
       <c r="BS111" t="s">
         <v>2740</v>
       </c>
-    </row>
-    <row r="112" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD111" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -11987,8 +13436,11 @@
       <c r="BS112" t="s">
         <v>2741</v>
       </c>
-    </row>
-    <row r="113" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD112" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -12010,8 +13462,11 @@
       <c r="BS113" t="s">
         <v>2742</v>
       </c>
-    </row>
-    <row r="114" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD113" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -12033,8 +13488,11 @@
       <c r="BS114" t="s">
         <v>2743</v>
       </c>
-    </row>
-    <row r="115" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD114" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -12056,8 +13514,11 @@
       <c r="BS115" t="s">
         <v>2744</v>
       </c>
-    </row>
-    <row r="116" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD115" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -12079,8 +13540,11 @@
       <c r="BS116" t="s">
         <v>2745</v>
       </c>
-    </row>
-    <row r="117" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD116" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -12102,8 +13566,11 @@
       <c r="BS117" t="s">
         <v>2746</v>
       </c>
-    </row>
-    <row r="118" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD117" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -12125,8 +13592,11 @@
       <c r="BS118" t="s">
         <v>2747</v>
       </c>
-    </row>
-    <row r="119" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD118" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -12148,8 +13618,11 @@
       <c r="BS119" t="s">
         <v>2748</v>
       </c>
-    </row>
-    <row r="120" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD119" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -12171,8 +13644,11 @@
       <c r="BS120" t="s">
         <v>2749</v>
       </c>
-    </row>
-    <row r="121" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD120" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -12194,8 +13670,11 @@
       <c r="BS121" t="s">
         <v>2750</v>
       </c>
-    </row>
-    <row r="122" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD121" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -12217,8 +13696,11 @@
       <c r="BS122" t="s">
         <v>2751</v>
       </c>
-    </row>
-    <row r="123" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD122" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -12240,8 +13722,11 @@
       <c r="BS123" t="s">
         <v>2752</v>
       </c>
-    </row>
-    <row r="124" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD123" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -12263,8 +13748,11 @@
       <c r="BS124" t="s">
         <v>2753</v>
       </c>
-    </row>
-    <row r="125" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD124" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -12286,8 +13774,11 @@
       <c r="BS125" t="s">
         <v>2754</v>
       </c>
-    </row>
-    <row r="126" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD125" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -12309,8 +13800,11 @@
       <c r="BS126" t="s">
         <v>2755</v>
       </c>
-    </row>
-    <row r="127" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD126" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -12332,8 +13826,11 @@
       <c r="BS127" t="s">
         <v>2756</v>
       </c>
-    </row>
-    <row r="128" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD127" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -12355,8 +13852,11 @@
       <c r="BS128" t="s">
         <v>2757</v>
       </c>
-    </row>
-    <row r="129" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD128" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -12378,8 +13878,11 @@
       <c r="BS129" t="s">
         <v>2758</v>
       </c>
-    </row>
-    <row r="130" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD129" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -12401,8 +13904,11 @@
       <c r="BS130" t="s">
         <v>2759</v>
       </c>
-    </row>
-    <row r="131" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD130" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -12424,8 +13930,11 @@
       <c r="BS131" t="s">
         <v>2760</v>
       </c>
-    </row>
-    <row r="132" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD131" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -12447,8 +13956,11 @@
       <c r="BS132" t="s">
         <v>2761</v>
       </c>
-    </row>
-    <row r="133" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD132" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -12470,8 +13982,11 @@
       <c r="BS133" t="s">
         <v>2762</v>
       </c>
-    </row>
-    <row r="134" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD133" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -12493,8 +14008,11 @@
       <c r="BS134" t="s">
         <v>2763</v>
       </c>
-    </row>
-    <row r="135" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD134" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -12516,8 +14034,11 @@
       <c r="BS135" t="s">
         <v>2764</v>
       </c>
-    </row>
-    <row r="136" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD135" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -12539,8 +14060,11 @@
       <c r="BS136" t="s">
         <v>2765</v>
       </c>
-    </row>
-    <row r="137" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD136" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -12562,8 +14086,11 @@
       <c r="BS137" t="s">
         <v>2766</v>
       </c>
-    </row>
-    <row r="138" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD137" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -12585,8 +14112,11 @@
       <c r="BS138" t="s">
         <v>2767</v>
       </c>
-    </row>
-    <row r="139" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD138" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -12608,8 +14138,11 @@
       <c r="BS139" t="s">
         <v>2768</v>
       </c>
-    </row>
-    <row r="140" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD139" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -12631,8 +14164,11 @@
       <c r="BS140" t="s">
         <v>2769</v>
       </c>
-    </row>
-    <row r="141" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD140" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -12654,8 +14190,11 @@
       <c r="BS141" t="s">
         <v>2770</v>
       </c>
-    </row>
-    <row r="142" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD141" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -12677,8 +14216,11 @@
       <c r="BS142" t="s">
         <v>2771</v>
       </c>
-    </row>
-    <row r="143" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD142" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -12700,8 +14242,11 @@
       <c r="BS143" t="s">
         <v>2772</v>
       </c>
-    </row>
-    <row r="144" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD143" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -12723,8 +14268,11 @@
       <c r="BS144" t="s">
         <v>2773</v>
       </c>
-    </row>
-    <row r="145" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD144" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -12746,8 +14294,11 @@
       <c r="BS145" t="s">
         <v>2774</v>
       </c>
-    </row>
-    <row r="146" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD145" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -12769,8 +14320,11 @@
       <c r="BS146" t="s">
         <v>2775</v>
       </c>
-    </row>
-    <row r="147" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD146" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -12792,8 +14346,11 @@
       <c r="BS147" t="s">
         <v>2776</v>
       </c>
-    </row>
-    <row r="148" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD147" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -12815,8 +14372,11 @@
       <c r="BS148" t="s">
         <v>2777</v>
       </c>
-    </row>
-    <row r="149" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD148" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -12838,8 +14398,11 @@
       <c r="BS149" t="s">
         <v>2778</v>
       </c>
-    </row>
-    <row r="150" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD149" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -12861,8 +14424,11 @@
       <c r="BS150" t="s">
         <v>2779</v>
       </c>
-    </row>
-    <row r="151" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD150" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -12884,8 +14450,11 @@
       <c r="BS151" t="s">
         <v>2780</v>
       </c>
-    </row>
-    <row r="152" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD151" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -12907,8 +14476,11 @@
       <c r="BS152" t="s">
         <v>2781</v>
       </c>
-    </row>
-    <row r="153" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD152" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -12930,8 +14502,11 @@
       <c r="BS153" t="s">
         <v>2782</v>
       </c>
-    </row>
-    <row r="154" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD153" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -12953,8 +14528,11 @@
       <c r="BS154" t="s">
         <v>2783</v>
       </c>
-    </row>
-    <row r="155" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD154" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -12976,8 +14554,11 @@
       <c r="BS155" t="s">
         <v>2784</v>
       </c>
-    </row>
-    <row r="156" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD155" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -12999,8 +14580,11 @@
       <c r="BS156" t="s">
         <v>2785</v>
       </c>
-    </row>
-    <row r="157" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD156" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -13022,8 +14606,11 @@
       <c r="BS157" t="s">
         <v>2786</v>
       </c>
-    </row>
-    <row r="158" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD157" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -13045,8 +14632,11 @@
       <c r="BS158" t="s">
         <v>2787</v>
       </c>
-    </row>
-    <row r="159" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD158" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -13068,8 +14658,11 @@
       <c r="BS159" t="s">
         <v>2788</v>
       </c>
-    </row>
-    <row r="160" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD159" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -13091,8 +14684,11 @@
       <c r="BS160" t="s">
         <v>2789</v>
       </c>
-    </row>
-    <row r="161" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD160" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -13114,8 +14710,11 @@
       <c r="BS161" t="s">
         <v>2790</v>
       </c>
-    </row>
-    <row r="162" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD161" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -13137,8 +14736,11 @@
       <c r="BS162" t="s">
         <v>2791</v>
       </c>
-    </row>
-    <row r="163" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD162" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -13160,8 +14762,11 @@
       <c r="BS163" t="s">
         <v>2792</v>
       </c>
-    </row>
-    <row r="164" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD163" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -13183,8 +14788,11 @@
       <c r="BS164" t="s">
         <v>2793</v>
       </c>
-    </row>
-    <row r="165" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD164" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -13206,8 +14814,11 @@
       <c r="BS165" t="s">
         <v>2794</v>
       </c>
-    </row>
-    <row r="166" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD165" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -13229,8 +14840,11 @@
       <c r="BS166" t="s">
         <v>2795</v>
       </c>
-    </row>
-    <row r="167" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD166" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -13252,8 +14866,11 @@
       <c r="BS167" t="s">
         <v>2796</v>
       </c>
-    </row>
-    <row r="168" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD167" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -13275,8 +14892,11 @@
       <c r="BS168" t="s">
         <v>2797</v>
       </c>
-    </row>
-    <row r="169" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD168" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -13298,8 +14918,11 @@
       <c r="BS169" t="s">
         <v>2798</v>
       </c>
-    </row>
-    <row r="170" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD169" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -13321,8 +14944,11 @@
       <c r="BS170" t="s">
         <v>2799</v>
       </c>
-    </row>
-    <row r="171" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD170" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -13344,8 +14970,11 @@
       <c r="BS171" t="s">
         <v>2800</v>
       </c>
-    </row>
-    <row r="172" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD171" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -13367,8 +14996,11 @@
       <c r="BS172" t="s">
         <v>2801</v>
       </c>
-    </row>
-    <row r="173" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD172" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -13390,8 +15022,11 @@
       <c r="BS173" t="s">
         <v>2802</v>
       </c>
-    </row>
-    <row r="174" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD173" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -13413,8 +15048,11 @@
       <c r="BS174" t="s">
         <v>2803</v>
       </c>
-    </row>
-    <row r="175" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD174" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -13436,8 +15074,11 @@
       <c r="BS175" t="s">
         <v>2804</v>
       </c>
-    </row>
-    <row r="176" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD175" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -13459,8 +15100,11 @@
       <c r="BS176" t="s">
         <v>2805</v>
       </c>
-    </row>
-    <row r="177" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD176" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -13482,8 +15126,11 @@
       <c r="BS177" t="s">
         <v>2806</v>
       </c>
-    </row>
-    <row r="178" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD177" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -13505,8 +15152,11 @@
       <c r="BS178" t="s">
         <v>2807</v>
       </c>
-    </row>
-    <row r="179" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD178" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -13528,8 +15178,11 @@
       <c r="BS179" t="s">
         <v>2808</v>
       </c>
-    </row>
-    <row r="180" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD179" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -13551,8 +15204,11 @@
       <c r="BS180" t="s">
         <v>2809</v>
       </c>
-    </row>
-    <row r="181" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD180" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -13574,8 +15230,11 @@
       <c r="BS181" t="s">
         <v>2810</v>
       </c>
-    </row>
-    <row r="182" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD181" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -13597,8 +15256,11 @@
       <c r="BS182" t="s">
         <v>2811</v>
       </c>
-    </row>
-    <row r="183" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD182" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -13620,8 +15282,11 @@
       <c r="BS183" t="s">
         <v>2812</v>
       </c>
-    </row>
-    <row r="184" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD183" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -13643,8 +15308,11 @@
       <c r="BS184" t="s">
         <v>2813</v>
       </c>
-    </row>
-    <row r="185" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD184" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -13666,8 +15334,11 @@
       <c r="BS185" t="s">
         <v>2814</v>
       </c>
-    </row>
-    <row r="186" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD185" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -13689,8 +15360,11 @@
       <c r="BS186" t="s">
         <v>2815</v>
       </c>
-    </row>
-    <row r="187" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD186" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -13712,8 +15386,11 @@
       <c r="BS187" t="s">
         <v>2816</v>
       </c>
-    </row>
-    <row r="188" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD187" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -13735,8 +15412,11 @@
       <c r="BS188" t="s">
         <v>2817</v>
       </c>
-    </row>
-    <row r="189" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD188" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -13758,8 +15438,11 @@
       <c r="BS189" t="s">
         <v>2818</v>
       </c>
-    </row>
-    <row r="190" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD189" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -13781,8 +15464,11 @@
       <c r="BS190" t="s">
         <v>2819</v>
       </c>
-    </row>
-    <row r="191" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD190" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -13804,8 +15490,11 @@
       <c r="BS191" t="s">
         <v>2820</v>
       </c>
-    </row>
-    <row r="192" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD191" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -13827,8 +15516,11 @@
       <c r="BS192" t="s">
         <v>2821</v>
       </c>
-    </row>
-    <row r="193" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD192" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -13850,8 +15542,11 @@
       <c r="BS193" t="s">
         <v>2822</v>
       </c>
-    </row>
-    <row r="194" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD193" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -13873,8 +15568,11 @@
       <c r="BS194" t="s">
         <v>2823</v>
       </c>
-    </row>
-    <row r="195" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD194" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -13896,8 +15594,11 @@
       <c r="BS195" t="s">
         <v>2824</v>
       </c>
-    </row>
-    <row r="196" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD195" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -13919,8 +15620,11 @@
       <c r="BS196" t="s">
         <v>2825</v>
       </c>
-    </row>
-    <row r="197" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD196" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -13942,8 +15646,11 @@
       <c r="BS197" t="s">
         <v>2826</v>
       </c>
-    </row>
-    <row r="198" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD197" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -13965,8 +15672,11 @@
       <c r="BS198" t="s">
         <v>2827</v>
       </c>
-    </row>
-    <row r="199" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD198" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -13988,8 +15698,11 @@
       <c r="BS199" t="s">
         <v>2828</v>
       </c>
-    </row>
-    <row r="200" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD199" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -14011,8 +15724,11 @@
       <c r="BS200" t="s">
         <v>2829</v>
       </c>
-    </row>
-    <row r="201" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD200" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -14034,8 +15750,11 @@
       <c r="BS201" t="s">
         <v>2830</v>
       </c>
-    </row>
-    <row r="202" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD201" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -14057,8 +15776,11 @@
       <c r="BS202" t="s">
         <v>2831</v>
       </c>
-    </row>
-    <row r="203" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD202" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -14080,8 +15802,11 @@
       <c r="BS203" t="s">
         <v>2832</v>
       </c>
-    </row>
-    <row r="204" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD203" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -14103,8 +15828,11 @@
       <c r="BS204" t="s">
         <v>2833</v>
       </c>
-    </row>
-    <row r="205" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD204" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -14126,8 +15854,11 @@
       <c r="BS205" t="s">
         <v>2834</v>
       </c>
-    </row>
-    <row r="206" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD205" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -14149,8 +15880,11 @@
       <c r="BS206" t="s">
         <v>2835</v>
       </c>
-    </row>
-    <row r="207" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD206" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -14172,8 +15906,11 @@
       <c r="BS207" t="s">
         <v>2836</v>
       </c>
-    </row>
-    <row r="208" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD207" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -14195,8 +15932,11 @@
       <c r="BS208" t="s">
         <v>2837</v>
       </c>
-    </row>
-    <row r="209" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD208" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -14218,8 +15958,11 @@
       <c r="BS209" t="s">
         <v>2838</v>
       </c>
-    </row>
-    <row r="210" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD209" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -14241,8 +15984,11 @@
       <c r="BS210" t="s">
         <v>2839</v>
       </c>
-    </row>
-    <row r="211" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD210" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -14264,8 +16010,11 @@
       <c r="BS211" t="s">
         <v>2840</v>
       </c>
-    </row>
-    <row r="212" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD211" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -14287,8 +16036,11 @@
       <c r="BS212" t="s">
         <v>2841</v>
       </c>
-    </row>
-    <row r="213" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD212" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -14310,8 +16062,11 @@
       <c r="BS213" t="s">
         <v>2842</v>
       </c>
-    </row>
-    <row r="214" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD213" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -14333,8 +16088,11 @@
       <c r="BS214" t="s">
         <v>2843</v>
       </c>
-    </row>
-    <row r="215" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD214" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -14356,8 +16114,11 @@
       <c r="BS215" t="s">
         <v>2844</v>
       </c>
-    </row>
-    <row r="216" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD215" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -14379,8 +16140,11 @@
       <c r="BS216" t="s">
         <v>2845</v>
       </c>
-    </row>
-    <row r="217" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD216" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -14402,8 +16166,11 @@
       <c r="BS217" t="s">
         <v>2846</v>
       </c>
-    </row>
-    <row r="218" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD217" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -14425,8 +16192,11 @@
       <c r="BS218" t="s">
         <v>2847</v>
       </c>
-    </row>
-    <row r="219" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD218" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -14448,8 +16218,11 @@
       <c r="BS219" t="s">
         <v>2848</v>
       </c>
-    </row>
-    <row r="220" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD219" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -14471,8 +16244,11 @@
       <c r="BS220" t="s">
         <v>2849</v>
       </c>
-    </row>
-    <row r="221" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD220" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -14494,8 +16270,11 @@
       <c r="BS221" t="s">
         <v>2850</v>
       </c>
-    </row>
-    <row r="222" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD221" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -14517,8 +16296,11 @@
       <c r="BS222" t="s">
         <v>2851</v>
       </c>
-    </row>
-    <row r="223" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD222" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -14540,8 +16322,11 @@
       <c r="BS223" t="s">
         <v>2852</v>
       </c>
-    </row>
-    <row r="224" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD223" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -14563,8 +16348,11 @@
       <c r="BS224" t="s">
         <v>2853</v>
       </c>
-    </row>
-    <row r="225" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD224" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -14586,8 +16374,11 @@
       <c r="BS225" t="s">
         <v>2854</v>
       </c>
-    </row>
-    <row r="226" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD225" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -14609,8 +16400,11 @@
       <c r="BS226" t="s">
         <v>2855</v>
       </c>
-    </row>
-    <row r="227" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD226" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -14632,8 +16426,11 @@
       <c r="BS227" t="s">
         <v>2856</v>
       </c>
-    </row>
-    <row r="228" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD227" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -14655,8 +16452,11 @@
       <c r="BS228" t="s">
         <v>2857</v>
       </c>
-    </row>
-    <row r="229" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD228" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -14678,8 +16478,11 @@
       <c r="BS229" t="s">
         <v>2858</v>
       </c>
-    </row>
-    <row r="230" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD229" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -14701,8 +16504,11 @@
       <c r="BS230" t="s">
         <v>2859</v>
       </c>
-    </row>
-    <row r="231" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD230" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -14724,8 +16530,11 @@
       <c r="BS231" t="s">
         <v>2860</v>
       </c>
-    </row>
-    <row r="232" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD231" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -14747,8 +16556,11 @@
       <c r="BS232" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="233" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD232" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -14770,8 +16582,11 @@
       <c r="BS233" t="s">
         <v>2862</v>
       </c>
-    </row>
-    <row r="234" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD233" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -14793,8 +16608,11 @@
       <c r="BS234" t="s">
         <v>2863</v>
       </c>
-    </row>
-    <row r="235" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD234" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -14816,8 +16634,11 @@
       <c r="BS235" t="s">
         <v>2864</v>
       </c>
-    </row>
-    <row r="236" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD235" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -14839,8 +16660,11 @@
       <c r="BS236" t="s">
         <v>2865</v>
       </c>
-    </row>
-    <row r="237" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD236" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -14862,8 +16686,11 @@
       <c r="BS237" t="s">
         <v>2866</v>
       </c>
-    </row>
-    <row r="238" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD237" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -14885,8 +16712,11 @@
       <c r="BS238" t="s">
         <v>2867</v>
       </c>
-    </row>
-    <row r="239" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD238" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -14908,8 +16738,11 @@
       <c r="BS239" t="s">
         <v>2868</v>
       </c>
-    </row>
-    <row r="240" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD239" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -14931,8 +16764,11 @@
       <c r="BS240" t="s">
         <v>2869</v>
       </c>
-    </row>
-    <row r="241" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD240" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -14954,8 +16790,11 @@
       <c r="BS241" t="s">
         <v>2870</v>
       </c>
-    </row>
-    <row r="242" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD241" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -14977,8 +16816,11 @@
       <c r="BS242" t="s">
         <v>2871</v>
       </c>
-    </row>
-    <row r="243" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD242" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -15000,8 +16842,11 @@
       <c r="BS243" t="s">
         <v>2872</v>
       </c>
-    </row>
-    <row r="244" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD243" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -15023,8 +16868,11 @@
       <c r="BS244" t="s">
         <v>2873</v>
       </c>
-    </row>
-    <row r="245" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD244" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -15046,8 +16894,11 @@
       <c r="BS245" t="s">
         <v>2874</v>
       </c>
-    </row>
-    <row r="246" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD245" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -15069,8 +16920,11 @@
       <c r="BS246" t="s">
         <v>2875</v>
       </c>
-    </row>
-    <row r="247" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD246" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -15092,8 +16946,11 @@
       <c r="BS247" t="s">
         <v>2876</v>
       </c>
-    </row>
-    <row r="248" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD247" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -15115,8 +16972,11 @@
       <c r="BS248" t="s">
         <v>2877</v>
       </c>
-    </row>
-    <row r="249" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD248" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -15138,8 +16998,11 @@
       <c r="BS249" t="s">
         <v>2878</v>
       </c>
-    </row>
-    <row r="250" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD249" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -15161,8 +17024,11 @@
       <c r="BS250" t="s">
         <v>2879</v>
       </c>
-    </row>
-    <row r="251" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD250" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -15184,8 +17050,11 @@
       <c r="BS251" t="s">
         <v>2880</v>
       </c>
-    </row>
-    <row r="252" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD251" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -15207,8 +17076,11 @@
       <c r="BS252" t="s">
         <v>2881</v>
       </c>
-    </row>
-    <row r="253" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD252" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -15230,8 +17102,11 @@
       <c r="BS253" t="s">
         <v>2882</v>
       </c>
-    </row>
-    <row r="254" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD253" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -15253,8 +17128,11 @@
       <c r="BS254" t="s">
         <v>2883</v>
       </c>
-    </row>
-    <row r="255" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD254" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -15276,8 +17154,11 @@
       <c r="BS255" t="s">
         <v>2884</v>
       </c>
-    </row>
-    <row r="256" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD255" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -15299,8 +17180,11 @@
       <c r="BS256" t="s">
         <v>2885</v>
       </c>
-    </row>
-    <row r="257" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD256" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -15322,8 +17206,11 @@
       <c r="BS257" t="s">
         <v>2886</v>
       </c>
-    </row>
-    <row r="258" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD257" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -15345,8 +17232,11 @@
       <c r="BS258" t="s">
         <v>2887</v>
       </c>
-    </row>
-    <row r="259" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD258" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -15365,8 +17255,11 @@
       <c r="BS259" t="s">
         <v>2888</v>
       </c>
-    </row>
-    <row r="260" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD259" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="260" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -15385,8 +17278,11 @@
       <c r="BS260" t="s">
         <v>2889</v>
       </c>
-    </row>
-    <row r="261" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD260" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -15405,8 +17301,11 @@
       <c r="BS261" t="s">
         <v>2890</v>
       </c>
-    </row>
-    <row r="262" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD261" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="262" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -15425,8 +17324,11 @@
       <c r="BS262" t="s">
         <v>2891</v>
       </c>
-    </row>
-    <row r="263" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD262" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -15445,8 +17347,11 @@
       <c r="BS263" t="s">
         <v>2892</v>
       </c>
-    </row>
-    <row r="264" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD263" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="264" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -15465,8 +17370,11 @@
       <c r="BS264" t="s">
         <v>2893</v>
       </c>
-    </row>
-    <row r="265" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD264" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -15485,8 +17393,11 @@
       <c r="BS265" t="s">
         <v>2894</v>
       </c>
-    </row>
-    <row r="266" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD265" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -15505,8 +17416,11 @@
       <c r="BS266" t="s">
         <v>2895</v>
       </c>
-    </row>
-    <row r="267" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD266" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -15525,8 +17439,11 @@
       <c r="BS267" t="s">
         <v>2896</v>
       </c>
-    </row>
-    <row r="268" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD267" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -15545,8 +17462,11 @@
       <c r="BS268" t="s">
         <v>2897</v>
       </c>
-    </row>
-    <row r="269" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD268" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -15565,8 +17485,11 @@
       <c r="BS269" t="s">
         <v>2898</v>
       </c>
-    </row>
-    <row r="270" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD269" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="270" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -15585,8 +17508,11 @@
       <c r="BS270" t="s">
         <v>2899</v>
       </c>
-    </row>
-    <row r="271" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD270" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="271" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -15605,8 +17531,11 @@
       <c r="BS271" t="s">
         <v>2900</v>
       </c>
-    </row>
-    <row r="272" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD271" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -15625,8 +17554,11 @@
       <c r="BS272" t="s">
         <v>2901</v>
       </c>
-    </row>
-    <row r="273" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD272" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="273" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -15645,8 +17577,11 @@
       <c r="BS273" t="s">
         <v>2902</v>
       </c>
-    </row>
-    <row r="274" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD273" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -15665,8 +17600,11 @@
       <c r="BS274" t="s">
         <v>2903</v>
       </c>
-    </row>
-    <row r="275" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD274" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -15685,8 +17623,11 @@
       <c r="BS275" t="s">
         <v>2904</v>
       </c>
-    </row>
-    <row r="276" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD275" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -15702,8 +17643,11 @@
       <c r="BS276" t="s">
         <v>2905</v>
       </c>
-    </row>
-    <row r="277" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD276" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -15719,8 +17663,11 @@
       <c r="BS277" t="s">
         <v>2906</v>
       </c>
-    </row>
-    <row r="278" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD277" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -15736,8 +17683,11 @@
       <c r="BS278" t="s">
         <v>2907</v>
       </c>
-    </row>
-    <row r="279" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD278" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -15753,8 +17703,11 @@
       <c r="BS279" t="s">
         <v>2908</v>
       </c>
-    </row>
-    <row r="280" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD279" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -15770,8 +17723,11 @@
       <c r="BS280" t="s">
         <v>2909</v>
       </c>
-    </row>
-    <row r="281" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD280" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -15787,8 +17743,11 @@
       <c r="BS281" t="s">
         <v>2910</v>
       </c>
-    </row>
-    <row r="282" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD281" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -15804,8 +17763,11 @@
       <c r="BS282" t="s">
         <v>2911</v>
       </c>
-    </row>
-    <row r="283" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD282" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -15821,8 +17783,11 @@
       <c r="BS283" t="s">
         <v>2912</v>
       </c>
-    </row>
-    <row r="284" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD283" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -15838,8 +17803,11 @@
       <c r="BS284" t="s">
         <v>2913</v>
       </c>
-    </row>
-    <row r="285" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD284" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -15855,8 +17823,11 @@
       <c r="BS285" t="s">
         <v>2914</v>
       </c>
-    </row>
-    <row r="286" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD285" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="286" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -15872,8 +17843,11 @@
       <c r="BS286" t="s">
         <v>2915</v>
       </c>
-    </row>
-    <row r="287" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD286" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -15889,8 +17863,11 @@
       <c r="BS287" t="s">
         <v>2916</v>
       </c>
-    </row>
-    <row r="288" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD287" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -15906,8 +17883,11 @@
       <c r="BS288" t="s">
         <v>2917</v>
       </c>
-    </row>
-    <row r="289" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD288" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -15923,8 +17903,11 @@
       <c r="BS289" t="s">
         <v>2918</v>
       </c>
-    </row>
-    <row r="290" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD289" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -15940,8 +17923,11 @@
       <c r="BS290" t="s">
         <v>2919</v>
       </c>
-    </row>
-    <row r="291" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD290" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="291" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -15957,8 +17943,11 @@
       <c r="BS291" t="s">
         <v>2920</v>
       </c>
-    </row>
-    <row r="292" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD291" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -15974,8 +17963,11 @@
       <c r="BS292" t="s">
         <v>2921</v>
       </c>
-    </row>
-    <row r="293" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD292" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -15991,8 +17983,11 @@
       <c r="BS293" t="s">
         <v>2922</v>
       </c>
-    </row>
-    <row r="294" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD293" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -16008,8 +18003,11 @@
       <c r="BS294" t="s">
         <v>2923</v>
       </c>
-    </row>
-    <row r="295" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD294" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -16025,8 +18023,11 @@
       <c r="BS295" t="s">
         <v>2924</v>
       </c>
-    </row>
-    <row r="296" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD295" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="296" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -16042,8 +18043,11 @@
       <c r="BS296" t="s">
         <v>2925</v>
       </c>
-    </row>
-    <row r="297" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD296" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -16059,8 +18063,11 @@
       <c r="BS297" t="s">
         <v>2926</v>
       </c>
-    </row>
-    <row r="298" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD297" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -16076,8 +18083,11 @@
       <c r="BS298" t="s">
         <v>2927</v>
       </c>
-    </row>
-    <row r="299" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD298" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="299" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -16093,8 +18103,11 @@
       <c r="BS299" t="s">
         <v>2928</v>
       </c>
-    </row>
-    <row r="300" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD299" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -16110,8 +18123,11 @@
       <c r="BS300" t="s">
         <v>2929</v>
       </c>
-    </row>
-    <row r="301" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD300" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -16127,8 +18143,11 @@
       <c r="BS301" t="s">
         <v>2930</v>
       </c>
-    </row>
-    <row r="302" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD301" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -16144,8 +18163,11 @@
       <c r="BS302" t="s">
         <v>2931</v>
       </c>
-    </row>
-    <row r="303" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD302" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="303" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -16161,8 +18183,11 @@
       <c r="BS303" t="s">
         <v>2932</v>
       </c>
-    </row>
-    <row r="304" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD303" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="304" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -16178,8 +18203,11 @@
       <c r="BS304" t="s">
         <v>2933</v>
       </c>
-    </row>
-    <row r="305" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD304" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="305" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -16195,8 +18223,11 @@
       <c r="BS305" t="s">
         <v>2934</v>
       </c>
-    </row>
-    <row r="306" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD305" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -16212,8 +18243,11 @@
       <c r="BS306" t="s">
         <v>2935</v>
       </c>
-    </row>
-    <row r="307" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD306" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -16229,8 +18263,11 @@
       <c r="BS307" t="s">
         <v>2936</v>
       </c>
-    </row>
-    <row r="308" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD307" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -16246,8 +18283,11 @@
       <c r="BS308" t="s">
         <v>2937</v>
       </c>
-    </row>
-    <row r="309" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD308" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="309" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -16263,8 +18303,11 @@
       <c r="BS309" t="s">
         <v>2938</v>
       </c>
-    </row>
-    <row r="310" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD309" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="310" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -16280,8 +18323,11 @@
       <c r="BS310" t="s">
         <v>2939</v>
       </c>
-    </row>
-    <row r="311" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD310" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="311" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -16297,8 +18343,11 @@
       <c r="BS311" t="s">
         <v>2940</v>
       </c>
-    </row>
-    <row r="312" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD311" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="312" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -16314,8 +18363,11 @@
       <c r="BS312" t="s">
         <v>2941</v>
       </c>
-    </row>
-    <row r="313" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD312" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="313" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -16331,8 +18383,11 @@
       <c r="BS313" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="314" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD313" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="314" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -16348,8 +18403,11 @@
       <c r="BS314" t="s">
         <v>2943</v>
       </c>
-    </row>
-    <row r="315" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD314" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -16365,8 +18423,11 @@
       <c r="BS315" t="s">
         <v>2944</v>
       </c>
-    </row>
-    <row r="316" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD315" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="316" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -16382,8 +18443,11 @@
       <c r="BS316" t="s">
         <v>2945</v>
       </c>
-    </row>
-    <row r="317" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD316" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="317" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -16399,8 +18463,11 @@
       <c r="BS317" t="s">
         <v>2946</v>
       </c>
-    </row>
-    <row r="318" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD317" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="318" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -16416,8 +18483,11 @@
       <c r="BS318" t="s">
         <v>2947</v>
       </c>
-    </row>
-    <row r="319" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD318" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="319" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -16433,8 +18503,11 @@
       <c r="BS319" t="s">
         <v>2948</v>
       </c>
-    </row>
-    <row r="320" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD319" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="320" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -16450,8 +18523,11 @@
       <c r="BS320" t="s">
         <v>2949</v>
       </c>
-    </row>
-    <row r="321" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD320" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -16467,8 +18543,11 @@
       <c r="BS321" t="s">
         <v>2950</v>
       </c>
-    </row>
-    <row r="322" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD321" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="322" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -16484,8 +18563,11 @@
       <c r="BS322" t="s">
         <v>2951</v>
       </c>
-    </row>
-    <row r="323" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD322" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="323" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -16501,8 +18583,11 @@
       <c r="BS323" t="s">
         <v>2952</v>
       </c>
-    </row>
-    <row r="324" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD323" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="324" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -16518,8 +18603,11 @@
       <c r="BS324" t="s">
         <v>2953</v>
       </c>
-    </row>
-    <row r="325" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD324" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="325" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -16535,8 +18623,11 @@
       <c r="BS325" t="s">
         <v>2954</v>
       </c>
-    </row>
-    <row r="326" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD325" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="326" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -16552,8 +18643,11 @@
       <c r="BS326" t="s">
         <v>2955</v>
       </c>
-    </row>
-    <row r="327" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD326" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="327" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -16569,8 +18663,11 @@
       <c r="BS327" t="s">
         <v>2956</v>
       </c>
-    </row>
-    <row r="328" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD327" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="328" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -16586,8 +18683,11 @@
       <c r="BS328" t="s">
         <v>2957</v>
       </c>
-    </row>
-    <row r="329" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD328" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="329" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -16603,8 +18703,11 @@
       <c r="BS329" t="s">
         <v>2958</v>
       </c>
-    </row>
-    <row r="330" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD329" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="330" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -16620,8 +18723,11 @@
       <c r="BS330" t="s">
         <v>2959</v>
       </c>
-    </row>
-    <row r="331" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD330" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="331" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -16637,8 +18743,11 @@
       <c r="BS331" t="s">
         <v>2960</v>
       </c>
-    </row>
-    <row r="332" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD331" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="332" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -16654,8 +18763,11 @@
       <c r="BS332" t="s">
         <v>2961</v>
       </c>
-    </row>
-    <row r="333" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD332" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="333" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -16671,8 +18783,11 @@
       <c r="BS333" t="s">
         <v>2962</v>
       </c>
-    </row>
-    <row r="334" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD333" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="334" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -16688,8 +18803,11 @@
       <c r="BS334" t="s">
         <v>2963</v>
       </c>
-    </row>
-    <row r="335" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD334" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="335" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -16705,8 +18823,11 @@
       <c r="BS335" t="s">
         <v>2964</v>
       </c>
-    </row>
-    <row r="336" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD335" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="336" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -16722,8 +18843,11 @@
       <c r="BS336" t="s">
         <v>2965</v>
       </c>
-    </row>
-    <row r="337" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD336" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="337" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -16739,8 +18863,11 @@
       <c r="BS337" t="s">
         <v>2966</v>
       </c>
-    </row>
-    <row r="338" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD337" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="338" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>337</v>
       </c>
@@ -16756,8 +18883,11 @@
       <c r="BS338" t="s">
         <v>2967</v>
       </c>
-    </row>
-    <row r="339" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD338" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="339" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -16773,8 +18903,11 @@
       <c r="BS339" t="s">
         <v>2968</v>
       </c>
-    </row>
-    <row r="340" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD339" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="340" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -16790,8 +18923,11 @@
       <c r="BS340" t="s">
         <v>2969</v>
       </c>
-    </row>
-    <row r="341" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD340" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="341" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -16807,8 +18943,11 @@
       <c r="BS341" t="s">
         <v>2970</v>
       </c>
-    </row>
-    <row r="342" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD341" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="342" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -16824,8 +18963,11 @@
       <c r="BS342" t="s">
         <v>2971</v>
       </c>
-    </row>
-    <row r="343" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD342" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="343" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -16841,8 +18983,11 @@
       <c r="BS343" t="s">
         <v>2972</v>
       </c>
-    </row>
-    <row r="344" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD343" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="344" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -16858,8 +19003,11 @@
       <c r="BS344" t="s">
         <v>2973</v>
       </c>
-    </row>
-    <row r="345" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD344" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="345" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -16875,8 +19023,11 @@
       <c r="BS345" t="s">
         <v>2974</v>
       </c>
-    </row>
-    <row r="346" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD345" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="346" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -16892,8 +19043,11 @@
       <c r="BS346" t="s">
         <v>2975</v>
       </c>
-    </row>
-    <row r="347" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD346" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="347" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -16909,8 +19063,11 @@
       <c r="BS347" t="s">
         <v>2976</v>
       </c>
-    </row>
-    <row r="348" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD347" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="348" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -16926,8 +19083,11 @@
       <c r="BS348" t="s">
         <v>2977</v>
       </c>
-    </row>
-    <row r="349" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD348" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="349" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -16943,8 +19103,11 @@
       <c r="BS349" t="s">
         <v>2978</v>
       </c>
-    </row>
-    <row r="350" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD349" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="350" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -16960,8 +19123,11 @@
       <c r="BS350" t="s">
         <v>2979</v>
       </c>
-    </row>
-    <row r="351" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD350" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="351" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -16977,8 +19143,11 @@
       <c r="BS351" t="s">
         <v>2980</v>
       </c>
-    </row>
-    <row r="352" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD351" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="352" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -16994,8 +19163,11 @@
       <c r="BS352" t="s">
         <v>2981</v>
       </c>
-    </row>
-    <row r="353" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD352" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="353" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -17011,8 +19183,11 @@
       <c r="BS353" t="s">
         <v>2982</v>
       </c>
-    </row>
-    <row r="354" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD353" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="354" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>353</v>
       </c>
@@ -17028,8 +19203,11 @@
       <c r="BS354" t="s">
         <v>2983</v>
       </c>
-    </row>
-    <row r="355" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD354" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="355" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -17045,8 +19223,11 @@
       <c r="BS355" t="s">
         <v>2984</v>
       </c>
-    </row>
-    <row r="356" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD355" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="356" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>355</v>
       </c>
@@ -17062,8 +19243,11 @@
       <c r="BS356" t="s">
         <v>2985</v>
       </c>
-    </row>
-    <row r="357" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD356" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="357" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>356</v>
       </c>
@@ -17079,8 +19263,11 @@
       <c r="BS357" t="s">
         <v>2986</v>
       </c>
-    </row>
-    <row r="358" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD357" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="358" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -17096,8 +19283,11 @@
       <c r="BS358" t="s">
         <v>2987</v>
       </c>
-    </row>
-    <row r="359" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD358" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="359" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -17113,8 +19303,11 @@
       <c r="BS359" t="s">
         <v>2988</v>
       </c>
-    </row>
-    <row r="360" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD359" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="360" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -17130,8 +19323,11 @@
       <c r="BS360" t="s">
         <v>2989</v>
       </c>
-    </row>
-    <row r="361" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD360" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="361" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -17147,8 +19343,11 @@
       <c r="BS361" t="s">
         <v>2990</v>
       </c>
-    </row>
-    <row r="362" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD361" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="362" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -17164,8 +19363,11 @@
       <c r="BS362" t="s">
         <v>2991</v>
       </c>
-    </row>
-    <row r="363" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD362" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="363" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -17181,8 +19383,11 @@
       <c r="BS363" t="s">
         <v>2992</v>
       </c>
-    </row>
-    <row r="364" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD363" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="364" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -17198,8 +19403,11 @@
       <c r="BS364" t="s">
         <v>2993</v>
       </c>
-    </row>
-    <row r="365" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD364" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="365" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>364</v>
       </c>
@@ -17215,8 +19423,11 @@
       <c r="BS365" t="s">
         <v>2994</v>
       </c>
-    </row>
-    <row r="366" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD365" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="366" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -17232,8 +19443,11 @@
       <c r="BS366" t="s">
         <v>2995</v>
       </c>
-    </row>
-    <row r="367" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD366" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="367" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -17249,8 +19463,11 @@
       <c r="BS367" t="s">
         <v>2996</v>
       </c>
-    </row>
-    <row r="368" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="CD367" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="368" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>367</v>
       </c>
@@ -17263,8 +19480,11 @@
       <c r="BS368" t="s">
         <v>2997</v>
       </c>
-    </row>
-    <row r="369" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="CD368" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="369" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>368</v>
       </c>
@@ -17274,8 +19494,11 @@
       <c r="BH369" t="s">
         <v>2438</v>
       </c>
-    </row>
-    <row r="370" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="CD369" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="370" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>369</v>
       </c>
@@ -17285,8 +19508,11 @@
       <c r="BH370" t="s">
         <v>2439</v>
       </c>
-    </row>
-    <row r="371" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="CD370" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="371" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -17296,8 +19522,11 @@
       <c r="BH371" t="s">
         <v>2440</v>
       </c>
-    </row>
-    <row r="372" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="CD371" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="372" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -17307,8 +19536,11 @@
       <c r="BH372" t="s">
         <v>2441</v>
       </c>
-    </row>
-    <row r="373" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="CD372" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="373" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>372</v>
       </c>
@@ -17319,7 +19551,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="374" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -17330,7 +19562,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="375" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -17341,7 +19573,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="376" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>375</v>
       </c>
@@ -17352,7 +19584,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="377" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>376</v>
       </c>
@@ -17363,7 +19595,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="378" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>377</v>
       </c>
@@ -17374,7 +19606,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="379" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -17385,7 +19617,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="380" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -17396,7 +19628,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="381" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -17407,7 +19639,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="382" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>381</v>
       </c>
@@ -17418,7 +19650,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="383" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -17429,7 +19661,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="384" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>383</v>
       </c>

--- a/Mixed Logs.xlsx
+++ b/Mixed Logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Chicken, cat, dog\Dog-Cat_Chicken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2029DE-28B3-4C87-928F-245F63894428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D7368B-318F-4EE9-AB22-20457D2D0858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4840" yWindow="1600" windowWidth="19200" windowHeight="10970" xr2:uid="{E5509BF1-11B8-46C2-87AA-D7FA4F3627F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="3371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="3746">
   <si>
     <t>1 hour simulation</t>
   </si>
@@ -10149,6 +10149,1131 @@
   </si>
   <si>
     <t>[5/5/2025 3:28:57 PM]Simulation Counter : 370, Last winner cat had: 6 points! Last winner dog had: 20.3 points!</t>
+  </si>
+  <si>
+    <t>30 min, dog only, 4 mutation chance, 5 time</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:34:41 PM]Simulation Counter : 0, Last winner cat had: 12 points! Last winner dog had: 10.4 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:34:46 PM]Simulation Counter : 1, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:34:51 PM]Simulation Counter : 2, Last winner cat had: 12 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:34:56 PM]Simulation Counter : 3, Last winner cat had: 12 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:35:01 PM]Simulation Counter : 4, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:35:06 PM]Simulation Counter : 5, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:35:11 PM]Simulation Counter : 6, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:35:16 PM]Simulation Counter : 7, Last winner cat had: 12 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:35:21 PM]Simulation Counter : 8, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:35:26 PM]Simulation Counter : 9, Last winner cat had: 12 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:35:31 PM]Simulation Counter : 10, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:35:36 PM]Simulation Counter : 11, Last winner cat had: 12 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:35:41 PM]Simulation Counter : 12, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:35:46 PM]Simulation Counter : 13, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:35:51 PM]Simulation Counter : 14, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:35:56 PM]Simulation Counter : 15, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:36:01 PM]Simulation Counter : 16, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:36:06 PM]Simulation Counter : 17, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:36:11 PM]Simulation Counter : 18, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:36:16 PM]Simulation Counter : 19, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:36:21 PM]Simulation Counter : 20, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:36:26 PM]Simulation Counter : 21, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:36:31 PM]Simulation Counter : 22, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:36:36 PM]Simulation Counter : 23, Last winner cat had: 12 points! Last winner dog had: 25 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:36:41 PM]Simulation Counter : 24, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:36:46 PM]Simulation Counter : 25, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:36:51 PM]Simulation Counter : 26, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:36:56 PM]Simulation Counter : 27, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:37:01 PM]Simulation Counter : 28, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:37:06 PM]Simulation Counter : 29, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:37:11 PM]Simulation Counter : 30, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:37:16 PM]Simulation Counter : 31, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:37:21 PM]Simulation Counter : 32, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:37:26 PM]Simulation Counter : 33, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:37:31 PM]Simulation Counter : 34, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:37:36 PM]Simulation Counter : 35, Last winner cat had: 12 points! Last winner dog had: 20 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:37:41 PM]Simulation Counter : 36, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:37:46 PM]Simulation Counter : 37, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:37:51 PM]Simulation Counter : 38, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:37:56 PM]Simulation Counter : 39, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:38:01 PM]Simulation Counter : 40, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:38:06 PM]Simulation Counter : 41, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:38:11 PM]Simulation Counter : 42, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:38:16 PM]Simulation Counter : 43, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:38:21 PM]Simulation Counter : 44, Last winner cat had: 12 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:38:26 PM]Simulation Counter : 45, Last winner cat had: 12 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:38:31 PM]Simulation Counter : 46, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:38:36 PM]Simulation Counter : 47, Last winner cat had: 12 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:38:41 PM]Simulation Counter : 48, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:38:46 PM]Simulation Counter : 49, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:38:51 PM]Simulation Counter : 50, Last winner cat had: 12 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:38:56 PM]Simulation Counter : 51, Last winner cat had: 12 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:39:01 PM]Simulation Counter : 52, Last winner cat had: 12 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:39:06 PM]Simulation Counter : 53, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:39:11 PM]Simulation Counter : 54, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:39:16 PM]Simulation Counter : 55, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:39:21 PM]Simulation Counter : 56, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:39:26 PM]Simulation Counter : 57, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:39:31 PM]Simulation Counter : 58, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:39:36 PM]Simulation Counter : 59, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:39:41 PM]Simulation Counter : 60, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:39:46 PM]Simulation Counter : 61, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:39:51 PM]Simulation Counter : 62, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:39:56 PM]Simulation Counter : 63, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:40:01 PM]Simulation Counter : 64, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:40:06 PM]Simulation Counter : 65, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:40:11 PM]Simulation Counter : 66, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:40:16 PM]Simulation Counter : 67, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:40:21 PM]Simulation Counter : 68, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:40:26 PM]Simulation Counter : 69, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:40:31 PM]Simulation Counter : 70, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:40:36 PM]Simulation Counter : 71, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:40:41 PM]Simulation Counter : 72, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:40:46 PM]Simulation Counter : 73, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:40:51 PM]Simulation Counter : 74, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:40:56 PM]Simulation Counter : 75, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:41:01 PM]Simulation Counter : 76, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:41:06 PM]Simulation Counter : 77, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:41:11 PM]Simulation Counter : 78, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:41:16 PM]Simulation Counter : 79, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:41:21 PM]Simulation Counter : 80, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:41:26 PM]Simulation Counter : 81, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:41:31 PM]Simulation Counter : 82, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:41:36 PM]Simulation Counter : 83, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:41:41 PM]Simulation Counter : 84, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:41:46 PM]Simulation Counter : 85, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:41:51 PM]Simulation Counter : 86, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:41:56 PM]Simulation Counter : 87, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:42:01 PM]Simulation Counter : 88, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:42:06 PM]Simulation Counter : 89, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:42:11 PM]Simulation Counter : 90, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:42:16 PM]Simulation Counter : 91, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:42:21 PM]Simulation Counter : 92, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:42:26 PM]Simulation Counter : 93, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:42:31 PM]Simulation Counter : 94, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:42:36 PM]Simulation Counter : 95, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:42:41 PM]Simulation Counter : 96, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:42:46 PM]Simulation Counter : 97, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:42:51 PM]Simulation Counter : 98, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:42:56 PM]Simulation Counter : 99, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:43:01 PM]Simulation Counter : 100, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:43:06 PM]Simulation Counter : 101, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:43:11 PM]Simulation Counter : 102, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:43:16 PM]Simulation Counter : 103, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:43:21 PM]Simulation Counter : 104, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:43:26 PM]Simulation Counter : 105, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:43:31 PM]Simulation Counter : 106, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:43:36 PM]Simulation Counter : 107, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:43:41 PM]Simulation Counter : 108, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:43:46 PM]Simulation Counter : 109, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:43:51 PM]Simulation Counter : 110, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:43:56 PM]Simulation Counter : 111, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:44:01 PM]Simulation Counter : 112, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:44:06 PM]Simulation Counter : 113, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:44:11 PM]Simulation Counter : 114, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:44:16 PM]Simulation Counter : 115, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:44:21 PM]Simulation Counter : 116, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:44:26 PM]Simulation Counter : 117, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:44:31 PM]Simulation Counter : 118, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:44:36 PM]Simulation Counter : 119, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:44:41 PM]Simulation Counter : 120, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:44:46 PM]Simulation Counter : 121, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:44:51 PM]Simulation Counter : 122, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:44:56 PM]Simulation Counter : 123, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:45:01 PM]Simulation Counter : 124, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:45:06 PM]Simulation Counter : 125, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:45:11 PM]Simulation Counter : 126, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:45:16 PM]Simulation Counter : 127, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:45:21 PM]Simulation Counter : 128, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:45:26 PM]Simulation Counter : 129, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:45:31 PM]Simulation Counter : 130, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:45:36 PM]Simulation Counter : 131, Last winner cat had: 16 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:45:41 PM]Simulation Counter : 132, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:45:46 PM]Simulation Counter : 133, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:45:51 PM]Simulation Counter : 134, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:45:56 PM]Simulation Counter : 135, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:46:01 PM]Simulation Counter : 136, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:46:06 PM]Simulation Counter : 137, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:46:11 PM]Simulation Counter : 138, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:46:16 PM]Simulation Counter : 139, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:46:21 PM]Simulation Counter : 140, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:46:26 PM]Simulation Counter : 141, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:46:31 PM]Simulation Counter : 142, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:46:36 PM]Simulation Counter : 143, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:46:41 PM]Simulation Counter : 144, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:46:46 PM]Simulation Counter : 145, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:46:51 PM]Simulation Counter : 146, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:46:56 PM]Simulation Counter : 147, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:47:01 PM]Simulation Counter : 148, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:47:06 PM]Simulation Counter : 149, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:47:11 PM]Simulation Counter : 150, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:47:16 PM]Simulation Counter : 151, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:47:21 PM]Simulation Counter : 152, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:47:26 PM]Simulation Counter : 153, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:47:31 PM]Simulation Counter : 154, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:47:36 PM]Simulation Counter : 155, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:47:41 PM]Simulation Counter : 156, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:47:46 PM]Simulation Counter : 157, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:47:51 PM]Simulation Counter : 158, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:47:56 PM]Simulation Counter : 159, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:48:01 PM]Simulation Counter : 160, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:48:06 PM]Simulation Counter : 161, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:48:11 PM]Simulation Counter : 162, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:48:16 PM]Simulation Counter : 163, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:48:21 PM]Simulation Counter : 164, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:48:26 PM]Simulation Counter : 165, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:48:31 PM]Simulation Counter : 166, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:48:36 PM]Simulation Counter : 167, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:48:41 PM]Simulation Counter : 168, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:48:46 PM]Simulation Counter : 169, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:48:51 PM]Simulation Counter : 170, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:48:56 PM]Simulation Counter : 171, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:49:01 PM]Simulation Counter : 172, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:49:06 PM]Simulation Counter : 173, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:49:11 PM]Simulation Counter : 174, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:49:16 PM]Simulation Counter : 175, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:49:21 PM]Simulation Counter : 176, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:49:26 PM]Simulation Counter : 177, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:49:31 PM]Simulation Counter : 178, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:49:36 PM]Simulation Counter : 179, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:49:41 PM]Simulation Counter : 180, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:49:46 PM]Simulation Counter : 181, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:49:51 PM]Simulation Counter : 182, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:49:56 PM]Simulation Counter : 183, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:50:01 PM]Simulation Counter : 184, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:50:06 PM]Simulation Counter : 185, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:50:11 PM]Simulation Counter : 186, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:50:16 PM]Simulation Counter : 187, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:50:21 PM]Simulation Counter : 188, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:50:26 PM]Simulation Counter : 189, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:50:31 PM]Simulation Counter : 190, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:50:36 PM]Simulation Counter : 191, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:50:41 PM]Simulation Counter : 192, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:50:46 PM]Simulation Counter : 193, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:50:51 PM]Simulation Counter : 194, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:50:56 PM]Simulation Counter : 195, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:51:01 PM]Simulation Counter : 196, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:51:06 PM]Simulation Counter : 197, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:51:11 PM]Simulation Counter : 198, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:51:16 PM]Simulation Counter : 199, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:51:21 PM]Simulation Counter : 200, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:51:26 PM]Simulation Counter : 201, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:51:31 PM]Simulation Counter : 202, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:51:36 PM]Simulation Counter : 203, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:51:41 PM]Simulation Counter : 204, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:51:46 PM]Simulation Counter : 205, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:51:51 PM]Simulation Counter : 206, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:51:56 PM]Simulation Counter : 207, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:52:01 PM]Simulation Counter : 208, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:52:06 PM]Simulation Counter : 209, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:52:11 PM]Simulation Counter : 210, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:52:16 PM]Simulation Counter : 211, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:52:21 PM]Simulation Counter : 212, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:52:26 PM]Simulation Counter : 213, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:52:31 PM]Simulation Counter : 214, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:52:36 PM]Simulation Counter : 215, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:52:41 PM]Simulation Counter : 216, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:52:46 PM]Simulation Counter : 217, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:52:51 PM]Simulation Counter : 218, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:52:56 PM]Simulation Counter : 219, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:53:01 PM]Simulation Counter : 220, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:53:06 PM]Simulation Counter : 221, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:53:11 PM]Simulation Counter : 222, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:53:16 PM]Simulation Counter : 223, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:53:21 PM]Simulation Counter : 224, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:53:26 PM]Simulation Counter : 225, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:53:31 PM]Simulation Counter : 226, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:53:36 PM]Simulation Counter : 227, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:53:41 PM]Simulation Counter : 228, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:53:46 PM]Simulation Counter : 229, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:53:51 PM]Simulation Counter : 230, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:53:56 PM]Simulation Counter : 231, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:54:01 PM]Simulation Counter : 232, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:54:06 PM]Simulation Counter : 233, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:54:11 PM]Simulation Counter : 234, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:54:16 PM]Simulation Counter : 235, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:54:21 PM]Simulation Counter : 236, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:54:26 PM]Simulation Counter : 237, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:54:31 PM]Simulation Counter : 238, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:54:36 PM]Simulation Counter : 239, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:54:41 PM]Simulation Counter : 240, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:54:46 PM]Simulation Counter : 241, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:54:51 PM]Simulation Counter : 242, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:54:56 PM]Simulation Counter : 243, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:55:01 PM]Simulation Counter : 244, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:55:06 PM]Simulation Counter : 245, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:55:11 PM]Simulation Counter : 246, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:55:16 PM]Simulation Counter : 247, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:55:21 PM]Simulation Counter : 248, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:55:26 PM]Simulation Counter : 249, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:55:31 PM]Simulation Counter : 250, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:55:36 PM]Simulation Counter : 251, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:55:41 PM]Simulation Counter : 252, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:55:46 PM]Simulation Counter : 253, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:55:51 PM]Simulation Counter : 254, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:55:56 PM]Simulation Counter : 255, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:56:01 PM]Simulation Counter : 256, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:56:06 PM]Simulation Counter : 257, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:56:11 PM]Simulation Counter : 258, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:56:16 PM]Simulation Counter : 259, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:56:21 PM]Simulation Counter : 260, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:56:26 PM]Simulation Counter : 261, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:56:31 PM]Simulation Counter : 262, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:56:36 PM]Simulation Counter : 263, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:56:41 PM]Simulation Counter : 264, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:56:46 PM]Simulation Counter : 265, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:56:51 PM]Simulation Counter : 266, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:56:56 PM]Simulation Counter : 267, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:57:01 PM]Simulation Counter : 268, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:57:06 PM]Simulation Counter : 269, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:57:11 PM]Simulation Counter : 270, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:57:16 PM]Simulation Counter : 271, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:57:21 PM]Simulation Counter : 272, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:57:26 PM]Simulation Counter : 273, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:57:31 PM]Simulation Counter : 274, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:57:36 PM]Simulation Counter : 275, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:57:41 PM]Simulation Counter : 276, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:57:46 PM]Simulation Counter : 277, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:57:51 PM]Simulation Counter : 278, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:57:56 PM]Simulation Counter : 279, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:58:01 PM]Simulation Counter : 280, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:58:06 PM]Simulation Counter : 281, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:58:11 PM]Simulation Counter : 282, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:58:16 PM]Simulation Counter : 283, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:58:21 PM]Simulation Counter : 284, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:58:26 PM]Simulation Counter : 285, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:58:31 PM]Simulation Counter : 286, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:58:36 PM]Simulation Counter : 287, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:58:41 PM]Simulation Counter : 288, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:58:46 PM]Simulation Counter : 289, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:58:51 PM]Simulation Counter : 290, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:58:56 PM]Simulation Counter : 291, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:59:01 PM]Simulation Counter : 292, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:59:06 PM]Simulation Counter : 293, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:59:11 PM]Simulation Counter : 294, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:59:16 PM]Simulation Counter : 295, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:59:21 PM]Simulation Counter : 296, Last winner cat had: 18 points! Last winner dog had: 15.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:59:26 PM]Simulation Counter : 297, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:59:31 PM]Simulation Counter : 298, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:59:36 PM]Simulation Counter : 299, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:59:41 PM]Simulation Counter : 300, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:59:46 PM]Simulation Counter : 301, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:59:51 PM]Simulation Counter : 302, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 3:59:56 PM]Simulation Counter : 303, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:00:01 PM]Simulation Counter : 304, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:00:06 PM]Simulation Counter : 305, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:00:11 PM]Simulation Counter : 306, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:00:16 PM]Simulation Counter : 307, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:00:21 PM]Simulation Counter : 308, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:00:26 PM]Simulation Counter : 309, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:00:31 PM]Simulation Counter : 310, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:00:36 PM]Simulation Counter : 311, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:00:41 PM]Simulation Counter : 312, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:00:46 PM]Simulation Counter : 313, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:00:51 PM]Simulation Counter : 314, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:00:56 PM]Simulation Counter : 315, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:01:01 PM]Simulation Counter : 316, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:01:06 PM]Simulation Counter : 317, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:01:11 PM]Simulation Counter : 318, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:01:16 PM]Simulation Counter : 319, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:01:21 PM]Simulation Counter : 320, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:01:26 PM]Simulation Counter : 321, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:01:31 PM]Simulation Counter : 322, Last winner cat had: 18 points! Last winner dog had: 15 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:01:36 PM]Simulation Counter : 323, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:01:41 PM]Simulation Counter : 324, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:01:46 PM]Simulation Counter : 325, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:01:51 PM]Simulation Counter : 326, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:01:56 PM]Simulation Counter : 327, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:02:01 PM]Simulation Counter : 328, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:02:06 PM]Simulation Counter : 329, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:02:11 PM]Simulation Counter : 330, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:02:16 PM]Simulation Counter : 331, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:02:21 PM]Simulation Counter : 332, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:02:26 PM]Simulation Counter : 333, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:02:31 PM]Simulation Counter : 334, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:02:36 PM]Simulation Counter : 335, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:02:41 PM]Simulation Counter : 336, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:02:46 PM]Simulation Counter : 337, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:02:51 PM]Simulation Counter : 338, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:02:56 PM]Simulation Counter : 339, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:03:01 PM]Simulation Counter : 340, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:03:06 PM]Simulation Counter : 341, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:03:11 PM]Simulation Counter : 342, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:03:16 PM]Simulation Counter : 343, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:03:21 PM]Simulation Counter : 344, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:03:26 PM]Simulation Counter : 345, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:03:31 PM]Simulation Counter : 346, Last winner cat had: 18 points! Last winner dog had: 10.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:03:36 PM]Simulation Counter : 347, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:03:41 PM]Simulation Counter : 348, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:03:46 PM]Simulation Counter : 349, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:03:51 PM]Simulation Counter : 350, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:03:56 PM]Simulation Counter : 351, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:04:01 PM]Simulation Counter : 352, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:04:06 PM]Simulation Counter : 353, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:04:11 PM]Simulation Counter : 354, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:04:16 PM]Simulation Counter : 355, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:04:21 PM]Simulation Counter : 356, Last winner cat had: 18 points! Last winner dog had: 5.2 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:04:26 PM]Simulation Counter : 357, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:04:31 PM]Simulation Counter : 358, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:04:36 PM]Simulation Counter : 359, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:04:41 PM]Simulation Counter : 360, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:04:46 PM]Simulation Counter : 361, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:04:51 PM]Simulation Counter : 362, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:04:56 PM]Simulation Counter : 363, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:05:01 PM]Simulation Counter : 364, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:05:06 PM]Simulation Counter : 365, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:05:11 PM]Simulation Counter : 366, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:05:16 PM]Simulation Counter : 367, Last winner cat had: 18 points! Last winner dog had: 5 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:05:21 PM]Simulation Counter : 368, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:05:26 PM]Simulation Counter : 369, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:05:31 PM]Simulation Counter : 370, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:05:36 PM]Simulation Counter : 371, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:05:41 PM]Simulation Counter : 372, Last winner cat had: 18 points! Last winner dog had: 10 points!</t>
+  </si>
+  <si>
+    <t>[5/5/2025 4:05:46 PM]Simulation Counter : 373, Last winner cat had: 18 points! Last winner dog had: 5.1 points!</t>
   </si>
 </sst>
 </file>
@@ -10520,15 +11645,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C76559D-2104-4C42-96BB-D4003E9D0DC2}">
-  <dimension ref="A1:CD786"/>
+  <dimension ref="A1:CO786"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CC1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CC4" sqref="CC4"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="CC10" sqref="CC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10553,8 +11678,11 @@
       <c r="CD1" t="s">
         <v>2999</v>
       </c>
-    </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO1" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10579,8 +11707,11 @@
       <c r="CD2" t="s">
         <v>3000</v>
       </c>
-    </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO2" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10605,8 +11736,11 @@
       <c r="CD3" t="s">
         <v>3001</v>
       </c>
-    </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO3" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10631,8 +11765,11 @@
       <c r="CD4" t="s">
         <v>3002</v>
       </c>
-    </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO4" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10657,8 +11794,11 @@
       <c r="CD5" t="s">
         <v>3003</v>
       </c>
-    </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO5" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10683,8 +11823,11 @@
       <c r="CD6" t="s">
         <v>3004</v>
       </c>
-    </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO6" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -10709,8 +11852,11 @@
       <c r="CD7" t="s">
         <v>3005</v>
       </c>
-    </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO7" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10735,8 +11881,11 @@
       <c r="CD8" t="s">
         <v>3006</v>
       </c>
-    </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO8" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -10761,8 +11910,11 @@
       <c r="CD9" t="s">
         <v>3007</v>
       </c>
-    </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO9" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -10787,8 +11939,11 @@
       <c r="CD10" t="s">
         <v>3008</v>
       </c>
-    </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO10" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -10813,8 +11968,11 @@
       <c r="CD11" t="s">
         <v>3009</v>
       </c>
-    </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO11" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -10839,8 +11997,11 @@
       <c r="CD12" t="s">
         <v>3010</v>
       </c>
-    </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO12" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -10865,8 +12026,11 @@
       <c r="CD13" t="s">
         <v>3011</v>
       </c>
-    </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO13" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -10891,8 +12055,11 @@
       <c r="CD14" t="s">
         <v>3012</v>
       </c>
-    </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO14" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -10917,8 +12084,11 @@
       <c r="CD15" t="s">
         <v>3013</v>
       </c>
-    </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO15" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -10943,8 +12113,11 @@
       <c r="CD16" t="s">
         <v>3014</v>
       </c>
-    </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO16" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -10969,8 +12142,11 @@
       <c r="CD17" t="s">
         <v>3015</v>
       </c>
-    </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO17" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -10995,8 +12171,11 @@
       <c r="CD18" t="s">
         <v>3016</v>
       </c>
-    </row>
-    <row r="19" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO18" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -11021,8 +12200,11 @@
       <c r="CD19" t="s">
         <v>3017</v>
       </c>
-    </row>
-    <row r="20" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO19" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -11047,8 +12229,11 @@
       <c r="CD20" t="s">
         <v>3018</v>
       </c>
-    </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO20" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -11073,8 +12258,11 @@
       <c r="CD21" t="s">
         <v>3019</v>
       </c>
-    </row>
-    <row r="22" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO21" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -11099,8 +12287,11 @@
       <c r="CD22" t="s">
         <v>3020</v>
       </c>
-    </row>
-    <row r="23" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO22" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -11125,8 +12316,11 @@
       <c r="CD23" t="s">
         <v>3021</v>
       </c>
-    </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO23" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -11151,8 +12345,11 @@
       <c r="CD24" t="s">
         <v>3022</v>
       </c>
-    </row>
-    <row r="25" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO24" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -11177,8 +12374,11 @@
       <c r="CD25" t="s">
         <v>3023</v>
       </c>
-    </row>
-    <row r="26" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO25" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -11203,8 +12403,11 @@
       <c r="CD26" t="s">
         <v>3024</v>
       </c>
-    </row>
-    <row r="27" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO26" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -11229,8 +12432,11 @@
       <c r="CD27" t="s">
         <v>3025</v>
       </c>
-    </row>
-    <row r="28" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO27" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -11255,8 +12461,11 @@
       <c r="CD28" t="s">
         <v>3026</v>
       </c>
-    </row>
-    <row r="29" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO28" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -11281,8 +12490,11 @@
       <c r="CD29" t="s">
         <v>3027</v>
       </c>
-    </row>
-    <row r="30" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO29" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -11307,8 +12519,11 @@
       <c r="CD30" t="s">
         <v>3028</v>
       </c>
-    </row>
-    <row r="31" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO30" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -11333,8 +12548,11 @@
       <c r="CD31" t="s">
         <v>3029</v>
       </c>
-    </row>
-    <row r="32" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO31" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -11359,8 +12577,11 @@
       <c r="CD32" t="s">
         <v>3030</v>
       </c>
-    </row>
-    <row r="33" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO32" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -11385,8 +12606,11 @@
       <c r="CD33" t="s">
         <v>3031</v>
       </c>
-    </row>
-    <row r="34" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO33" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -11411,8 +12635,11 @@
       <c r="CD34" t="s">
         <v>3032</v>
       </c>
-    </row>
-    <row r="35" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO34" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -11437,8 +12664,11 @@
       <c r="CD35" t="s">
         <v>3033</v>
       </c>
-    </row>
-    <row r="36" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO35" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -11463,8 +12693,11 @@
       <c r="CD36" t="s">
         <v>3034</v>
       </c>
-    </row>
-    <row r="37" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO36" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -11489,8 +12722,11 @@
       <c r="CD37" t="s">
         <v>3035</v>
       </c>
-    </row>
-    <row r="38" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO37" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -11515,8 +12751,11 @@
       <c r="CD38" t="s">
         <v>3036</v>
       </c>
-    </row>
-    <row r="39" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO38" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="39" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -11541,8 +12780,11 @@
       <c r="CD39" t="s">
         <v>3037</v>
       </c>
-    </row>
-    <row r="40" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO39" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -11567,8 +12809,11 @@
       <c r="CD40" t="s">
         <v>3038</v>
       </c>
-    </row>
-    <row r="41" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO40" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="41" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -11593,8 +12838,11 @@
       <c r="CD41" t="s">
         <v>3039</v>
       </c>
-    </row>
-    <row r="42" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO41" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -11619,8 +12867,11 @@
       <c r="CD42" t="s">
         <v>3040</v>
       </c>
-    </row>
-    <row r="43" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO42" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -11645,8 +12896,11 @@
       <c r="CD43" t="s">
         <v>3041</v>
       </c>
-    </row>
-    <row r="44" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO43" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -11671,8 +12925,11 @@
       <c r="CD44" t="s">
         <v>3042</v>
       </c>
-    </row>
-    <row r="45" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO44" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -11697,8 +12954,11 @@
       <c r="CD45" t="s">
         <v>3043</v>
       </c>
-    </row>
-    <row r="46" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO45" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="46" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -11723,8 +12983,11 @@
       <c r="CD46" t="s">
         <v>3044</v>
       </c>
-    </row>
-    <row r="47" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO46" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -11749,8 +13012,11 @@
       <c r="CD47" t="s">
         <v>3045</v>
       </c>
-    </row>
-    <row r="48" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO47" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -11775,8 +13041,11 @@
       <c r="CD48" t="s">
         <v>3046</v>
       </c>
-    </row>
-    <row r="49" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO48" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -11801,8 +13070,11 @@
       <c r="CD49" t="s">
         <v>3047</v>
       </c>
-    </row>
-    <row r="50" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO49" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="50" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -11827,8 +13099,11 @@
       <c r="CD50" t="s">
         <v>3048</v>
       </c>
-    </row>
-    <row r="51" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO50" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="51" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -11853,8 +13128,11 @@
       <c r="CD51" t="s">
         <v>3049</v>
       </c>
-    </row>
-    <row r="52" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO51" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -11879,8 +13157,11 @@
       <c r="CD52" t="s">
         <v>3050</v>
       </c>
-    </row>
-    <row r="53" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO52" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="53" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -11905,8 +13186,11 @@
       <c r="CD53" t="s">
         <v>3051</v>
       </c>
-    </row>
-    <row r="54" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO53" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="54" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -11931,8 +13215,11 @@
       <c r="CD54" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="55" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO54" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="55" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -11957,8 +13244,11 @@
       <c r="CD55" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="56" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO55" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="56" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -11983,8 +13273,11 @@
       <c r="CD56" t="s">
         <v>3054</v>
       </c>
-    </row>
-    <row r="57" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO56" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="57" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -12009,8 +13302,11 @@
       <c r="CD57" t="s">
         <v>3055</v>
       </c>
-    </row>
-    <row r="58" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO57" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="58" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -12035,8 +13331,11 @@
       <c r="CD58" t="s">
         <v>3056</v>
       </c>
-    </row>
-    <row r="59" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO58" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="59" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -12061,8 +13360,11 @@
       <c r="CD59" t="s">
         <v>3057</v>
       </c>
-    </row>
-    <row r="60" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO59" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="60" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -12087,8 +13389,11 @@
       <c r="CD60" t="s">
         <v>3058</v>
       </c>
-    </row>
-    <row r="61" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO60" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="61" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -12113,8 +13418,11 @@
       <c r="CD61" t="s">
         <v>3059</v>
       </c>
-    </row>
-    <row r="62" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO61" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="62" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -12139,8 +13447,11 @@
       <c r="CD62" t="s">
         <v>3060</v>
       </c>
-    </row>
-    <row r="63" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO62" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="63" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -12165,8 +13476,11 @@
       <c r="CD63" t="s">
         <v>3061</v>
       </c>
-    </row>
-    <row r="64" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO63" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="64" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -12191,8 +13505,11 @@
       <c r="CD64" t="s">
         <v>3062</v>
       </c>
-    </row>
-    <row r="65" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO64" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="65" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -12217,8 +13534,11 @@
       <c r="CD65" t="s">
         <v>3063</v>
       </c>
-    </row>
-    <row r="66" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO65" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="66" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -12243,8 +13563,11 @@
       <c r="CD66" t="s">
         <v>3064</v>
       </c>
-    </row>
-    <row r="67" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO66" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="67" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -12269,8 +13592,11 @@
       <c r="CD67" t="s">
         <v>3065</v>
       </c>
-    </row>
-    <row r="68" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO67" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="68" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -12295,8 +13621,11 @@
       <c r="CD68" t="s">
         <v>3066</v>
       </c>
-    </row>
-    <row r="69" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO68" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="69" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -12321,8 +13650,11 @@
       <c r="CD69" t="s">
         <v>3067</v>
       </c>
-    </row>
-    <row r="70" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO69" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -12347,8 +13679,11 @@
       <c r="CD70" t="s">
         <v>3068</v>
       </c>
-    </row>
-    <row r="71" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO70" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="71" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -12373,8 +13708,11 @@
       <c r="CD71" t="s">
         <v>3069</v>
       </c>
-    </row>
-    <row r="72" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO71" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="72" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -12399,8 +13737,11 @@
       <c r="CD72" t="s">
         <v>3070</v>
       </c>
-    </row>
-    <row r="73" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO72" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -12425,8 +13766,11 @@
       <c r="CD73" t="s">
         <v>3071</v>
       </c>
-    </row>
-    <row r="74" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO73" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -12451,8 +13795,11 @@
       <c r="CD74" t="s">
         <v>3072</v>
       </c>
-    </row>
-    <row r="75" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO74" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="75" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -12477,8 +13824,11 @@
       <c r="CD75" t="s">
         <v>3073</v>
       </c>
-    </row>
-    <row r="76" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO75" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="76" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -12503,8 +13853,11 @@
       <c r="CD76" t="s">
         <v>3074</v>
       </c>
-    </row>
-    <row r="77" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO76" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="77" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -12529,8 +13882,11 @@
       <c r="CD77" t="s">
         <v>3075</v>
       </c>
-    </row>
-    <row r="78" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO77" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="78" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -12555,8 +13911,11 @@
       <c r="CD78" t="s">
         <v>3076</v>
       </c>
-    </row>
-    <row r="79" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO78" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="79" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -12581,8 +13940,11 @@
       <c r="CD79" t="s">
         <v>3077</v>
       </c>
-    </row>
-    <row r="80" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO79" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="80" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -12607,8 +13969,11 @@
       <c r="CD80" t="s">
         <v>3078</v>
       </c>
-    </row>
-    <row r="81" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO80" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="81" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -12633,8 +13998,11 @@
       <c r="CD81" t="s">
         <v>3079</v>
       </c>
-    </row>
-    <row r="82" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO81" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="82" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -12659,8 +14027,11 @@
       <c r="CD82" t="s">
         <v>3080</v>
       </c>
-    </row>
-    <row r="83" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO82" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="83" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -12685,8 +14056,11 @@
       <c r="CD83" t="s">
         <v>3081</v>
       </c>
-    </row>
-    <row r="84" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO83" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="84" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -12711,8 +14085,11 @@
       <c r="CD84" t="s">
         <v>3082</v>
       </c>
-    </row>
-    <row r="85" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO84" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="85" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -12737,8 +14114,11 @@
       <c r="CD85" t="s">
         <v>3083</v>
       </c>
-    </row>
-    <row r="86" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO85" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="86" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -12763,8 +14143,11 @@
       <c r="CD86" t="s">
         <v>3084</v>
       </c>
-    </row>
-    <row r="87" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO86" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="87" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -12789,8 +14172,11 @@
       <c r="CD87" t="s">
         <v>3085</v>
       </c>
-    </row>
-    <row r="88" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO87" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="88" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -12815,8 +14201,11 @@
       <c r="CD88" t="s">
         <v>3086</v>
       </c>
-    </row>
-    <row r="89" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO88" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="89" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -12841,8 +14230,11 @@
       <c r="CD89" t="s">
         <v>3087</v>
       </c>
-    </row>
-    <row r="90" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO89" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="90" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -12867,8 +14259,11 @@
       <c r="CD90" t="s">
         <v>3088</v>
       </c>
-    </row>
-    <row r="91" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO90" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="91" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -12893,8 +14288,11 @@
       <c r="CD91" t="s">
         <v>3089</v>
       </c>
-    </row>
-    <row r="92" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO91" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="92" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -12919,8 +14317,11 @@
       <c r="CD92" t="s">
         <v>3090</v>
       </c>
-    </row>
-    <row r="93" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO92" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="93" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -12945,8 +14346,11 @@
       <c r="CD93" t="s">
         <v>3091</v>
       </c>
-    </row>
-    <row r="94" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO93" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="94" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -12971,8 +14375,11 @@
       <c r="CD94" t="s">
         <v>3092</v>
       </c>
-    </row>
-    <row r="95" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO94" t="s">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="95" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -12997,8 +14404,11 @@
       <c r="CD95" t="s">
         <v>3093</v>
       </c>
-    </row>
-    <row r="96" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO95" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="96" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -13023,8 +14433,11 @@
       <c r="CD96" t="s">
         <v>3094</v>
       </c>
-    </row>
-    <row r="97" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO96" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="97" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -13049,8 +14462,11 @@
       <c r="CD97" t="s">
         <v>3095</v>
       </c>
-    </row>
-    <row r="98" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO97" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="98" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -13075,8 +14491,11 @@
       <c r="CD98" t="s">
         <v>3096</v>
       </c>
-    </row>
-    <row r="99" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO98" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="99" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -13101,8 +14520,11 @@
       <c r="CD99" t="s">
         <v>3097</v>
       </c>
-    </row>
-    <row r="100" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO99" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="100" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -13127,8 +14549,11 @@
       <c r="CD100" t="s">
         <v>3098</v>
       </c>
-    </row>
-    <row r="101" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO100" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="101" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -13153,8 +14578,11 @@
       <c r="CD101" t="s">
         <v>3099</v>
       </c>
-    </row>
-    <row r="102" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO101" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="102" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -13179,8 +14607,11 @@
       <c r="CD102" t="s">
         <v>3100</v>
       </c>
-    </row>
-    <row r="103" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO102" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="103" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -13205,8 +14636,11 @@
       <c r="CD103" t="s">
         <v>3101</v>
       </c>
-    </row>
-    <row r="104" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO103" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="104" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -13231,8 +14665,11 @@
       <c r="CD104" t="s">
         <v>3102</v>
       </c>
-    </row>
-    <row r="105" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO104" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="105" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -13257,8 +14694,11 @@
       <c r="CD105" t="s">
         <v>3103</v>
       </c>
-    </row>
-    <row r="106" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO105" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="106" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -13283,8 +14723,11 @@
       <c r="CD106" t="s">
         <v>3104</v>
       </c>
-    </row>
-    <row r="107" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO106" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="107" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -13309,8 +14752,11 @@
       <c r="CD107" t="s">
         <v>3105</v>
       </c>
-    </row>
-    <row r="108" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO107" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="108" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -13335,8 +14781,11 @@
       <c r="CD108" t="s">
         <v>3106</v>
       </c>
-    </row>
-    <row r="109" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO108" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="109" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -13361,8 +14810,11 @@
       <c r="CD109" t="s">
         <v>3107</v>
       </c>
-    </row>
-    <row r="110" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO109" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="110" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -13387,8 +14839,11 @@
       <c r="CD110" t="s">
         <v>3108</v>
       </c>
-    </row>
-    <row r="111" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO110" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="111" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -13413,8 +14868,11 @@
       <c r="CD111" t="s">
         <v>3109</v>
       </c>
-    </row>
-    <row r="112" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO111" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="112" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -13439,8 +14897,11 @@
       <c r="CD112" t="s">
         <v>3110</v>
       </c>
-    </row>
-    <row r="113" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO112" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="113" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -13465,8 +14926,11 @@
       <c r="CD113" t="s">
         <v>3111</v>
       </c>
-    </row>
-    <row r="114" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO113" t="s">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="114" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -13491,8 +14955,11 @@
       <c r="CD114" t="s">
         <v>3112</v>
       </c>
-    </row>
-    <row r="115" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO114" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="115" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -13517,8 +14984,11 @@
       <c r="CD115" t="s">
         <v>3113</v>
       </c>
-    </row>
-    <row r="116" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO115" t="s">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="116" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -13543,8 +15013,11 @@
       <c r="CD116" t="s">
         <v>3114</v>
       </c>
-    </row>
-    <row r="117" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO116" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="117" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -13569,8 +15042,11 @@
       <c r="CD117" t="s">
         <v>3115</v>
       </c>
-    </row>
-    <row r="118" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO117" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="118" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -13595,8 +15071,11 @@
       <c r="CD118" t="s">
         <v>3116</v>
       </c>
-    </row>
-    <row r="119" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO118" t="s">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="119" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -13621,8 +15100,11 @@
       <c r="CD119" t="s">
         <v>3117</v>
       </c>
-    </row>
-    <row r="120" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO119" t="s">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="120" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -13647,8 +15129,11 @@
       <c r="CD120" t="s">
         <v>3118</v>
       </c>
-    </row>
-    <row r="121" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO120" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="121" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -13673,8 +15158,11 @@
       <c r="CD121" t="s">
         <v>3119</v>
       </c>
-    </row>
-    <row r="122" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO121" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="122" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -13699,8 +15187,11 @@
       <c r="CD122" t="s">
         <v>3120</v>
       </c>
-    </row>
-    <row r="123" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO122" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="123" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -13725,8 +15216,11 @@
       <c r="CD123" t="s">
         <v>3121</v>
       </c>
-    </row>
-    <row r="124" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO123" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="124" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -13751,8 +15245,11 @@
       <c r="CD124" t="s">
         <v>3122</v>
       </c>
-    </row>
-    <row r="125" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO124" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="125" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -13777,8 +15274,11 @@
       <c r="CD125" t="s">
         <v>3123</v>
       </c>
-    </row>
-    <row r="126" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO125" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="126" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -13803,8 +15303,11 @@
       <c r="CD126" t="s">
         <v>3124</v>
       </c>
-    </row>
-    <row r="127" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO126" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="127" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -13829,8 +15332,11 @@
       <c r="CD127" t="s">
         <v>3125</v>
       </c>
-    </row>
-    <row r="128" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO127" t="s">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="128" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -13855,8 +15361,11 @@
       <c r="CD128" t="s">
         <v>3126</v>
       </c>
-    </row>
-    <row r="129" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO128" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="129" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -13881,8 +15390,11 @@
       <c r="CD129" t="s">
         <v>3127</v>
       </c>
-    </row>
-    <row r="130" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO129" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="130" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -13907,8 +15419,11 @@
       <c r="CD130" t="s">
         <v>3128</v>
       </c>
-    </row>
-    <row r="131" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO130" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -13933,8 +15448,11 @@
       <c r="CD131" t="s">
         <v>3129</v>
       </c>
-    </row>
-    <row r="132" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO131" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="132" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -13959,8 +15477,11 @@
       <c r="CD132" t="s">
         <v>3130</v>
       </c>
-    </row>
-    <row r="133" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO132" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="133" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -13985,8 +15506,11 @@
       <c r="CD133" t="s">
         <v>3131</v>
       </c>
-    </row>
-    <row r="134" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO133" t="s">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="134" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -14011,8 +15535,11 @@
       <c r="CD134" t="s">
         <v>3132</v>
       </c>
-    </row>
-    <row r="135" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO134" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="135" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -14037,8 +15564,11 @@
       <c r="CD135" t="s">
         <v>3133</v>
       </c>
-    </row>
-    <row r="136" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO135" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="136" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -14063,8 +15593,11 @@
       <c r="CD136" t="s">
         <v>3134</v>
       </c>
-    </row>
-    <row r="137" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO136" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="137" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -14089,8 +15622,11 @@
       <c r="CD137" t="s">
         <v>3135</v>
       </c>
-    </row>
-    <row r="138" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO137" t="s">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="138" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -14115,8 +15651,11 @@
       <c r="CD138" t="s">
         <v>3136</v>
       </c>
-    </row>
-    <row r="139" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO138" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="139" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -14141,8 +15680,11 @@
       <c r="CD139" t="s">
         <v>3137</v>
       </c>
-    </row>
-    <row r="140" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO139" t="s">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="140" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -14167,8 +15709,11 @@
       <c r="CD140" t="s">
         <v>3138</v>
       </c>
-    </row>
-    <row r="141" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO140" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="141" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -14193,8 +15738,11 @@
       <c r="CD141" t="s">
         <v>3139</v>
       </c>
-    </row>
-    <row r="142" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO141" t="s">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="142" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -14219,8 +15767,11 @@
       <c r="CD142" t="s">
         <v>3140</v>
       </c>
-    </row>
-    <row r="143" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO142" t="s">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="143" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -14245,8 +15796,11 @@
       <c r="CD143" t="s">
         <v>3141</v>
       </c>
-    </row>
-    <row r="144" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO143" t="s">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="144" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -14271,8 +15825,11 @@
       <c r="CD144" t="s">
         <v>3142</v>
       </c>
-    </row>
-    <row r="145" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO144" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="145" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -14297,8 +15854,11 @@
       <c r="CD145" t="s">
         <v>3143</v>
       </c>
-    </row>
-    <row r="146" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO145" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="146" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -14323,8 +15883,11 @@
       <c r="CD146" t="s">
         <v>3144</v>
       </c>
-    </row>
-    <row r="147" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO146" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="147" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -14349,8 +15912,11 @@
       <c r="CD147" t="s">
         <v>3145</v>
       </c>
-    </row>
-    <row r="148" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO147" t="s">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="148" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -14375,8 +15941,11 @@
       <c r="CD148" t="s">
         <v>3146</v>
       </c>
-    </row>
-    <row r="149" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO148" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="149" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -14401,8 +15970,11 @@
       <c r="CD149" t="s">
         <v>3147</v>
       </c>
-    </row>
-    <row r="150" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO149" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="150" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -14427,8 +15999,11 @@
       <c r="CD150" t="s">
         <v>3148</v>
       </c>
-    </row>
-    <row r="151" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO150" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="151" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -14453,8 +16028,11 @@
       <c r="CD151" t="s">
         <v>3149</v>
       </c>
-    </row>
-    <row r="152" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO151" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="152" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -14479,8 +16057,11 @@
       <c r="CD152" t="s">
         <v>3150</v>
       </c>
-    </row>
-    <row r="153" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO152" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="153" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -14505,8 +16086,11 @@
       <c r="CD153" t="s">
         <v>3151</v>
       </c>
-    </row>
-    <row r="154" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO153" t="s">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="154" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -14531,8 +16115,11 @@
       <c r="CD154" t="s">
         <v>3152</v>
       </c>
-    </row>
-    <row r="155" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO154" t="s">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="155" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -14557,8 +16144,11 @@
       <c r="CD155" t="s">
         <v>3153</v>
       </c>
-    </row>
-    <row r="156" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO155" t="s">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="156" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -14583,8 +16173,11 @@
       <c r="CD156" t="s">
         <v>3154</v>
       </c>
-    </row>
-    <row r="157" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO156" t="s">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="157" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -14609,8 +16202,11 @@
       <c r="CD157" t="s">
         <v>3155</v>
       </c>
-    </row>
-    <row r="158" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO157" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="158" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -14635,8 +16231,11 @@
       <c r="CD158" t="s">
         <v>3156</v>
       </c>
-    </row>
-    <row r="159" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO158" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="159" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -14661,8 +16260,11 @@
       <c r="CD159" t="s">
         <v>3157</v>
       </c>
-    </row>
-    <row r="160" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO159" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="160" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -14687,8 +16289,11 @@
       <c r="CD160" t="s">
         <v>3158</v>
       </c>
-    </row>
-    <row r="161" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO160" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="161" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -14713,8 +16318,11 @@
       <c r="CD161" t="s">
         <v>3159</v>
       </c>
-    </row>
-    <row r="162" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO161" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="162" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -14739,8 +16347,11 @@
       <c r="CD162" t="s">
         <v>3160</v>
       </c>
-    </row>
-    <row r="163" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO162" t="s">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="163" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -14765,8 +16376,11 @@
       <c r="CD163" t="s">
         <v>3161</v>
       </c>
-    </row>
-    <row r="164" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO163" t="s">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="164" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -14791,8 +16405,11 @@
       <c r="CD164" t="s">
         <v>3162</v>
       </c>
-    </row>
-    <row r="165" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO164" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="165" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -14817,8 +16434,11 @@
       <c r="CD165" t="s">
         <v>3163</v>
       </c>
-    </row>
-    <row r="166" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO165" t="s">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="166" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -14843,8 +16463,11 @@
       <c r="CD166" t="s">
         <v>3164</v>
       </c>
-    </row>
-    <row r="167" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO166" t="s">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="167" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -14869,8 +16492,11 @@
       <c r="CD167" t="s">
         <v>3165</v>
       </c>
-    </row>
-    <row r="168" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO167" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="168" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -14895,8 +16521,11 @@
       <c r="CD168" t="s">
         <v>3166</v>
       </c>
-    </row>
-    <row r="169" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO168" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="169" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -14921,8 +16550,11 @@
       <c r="CD169" t="s">
         <v>3167</v>
       </c>
-    </row>
-    <row r="170" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO169" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="170" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -14947,8 +16579,11 @@
       <c r="CD170" t="s">
         <v>3168</v>
       </c>
-    </row>
-    <row r="171" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO170" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="171" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -14973,8 +16608,11 @@
       <c r="CD171" t="s">
         <v>3169</v>
       </c>
-    </row>
-    <row r="172" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO171" t="s">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="172" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -14999,8 +16637,11 @@
       <c r="CD172" t="s">
         <v>3170</v>
       </c>
-    </row>
-    <row r="173" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO172" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="173" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -15025,8 +16666,11 @@
       <c r="CD173" t="s">
         <v>3171</v>
       </c>
-    </row>
-    <row r="174" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO173" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="174" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -15051,8 +16695,11 @@
       <c r="CD174" t="s">
         <v>3172</v>
       </c>
-    </row>
-    <row r="175" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO174" t="s">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="175" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -15077,8 +16724,11 @@
       <c r="CD175" t="s">
         <v>3173</v>
       </c>
-    </row>
-    <row r="176" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO175" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="176" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -15103,8 +16753,11 @@
       <c r="CD176" t="s">
         <v>3174</v>
       </c>
-    </row>
-    <row r="177" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO176" t="s">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="177" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -15129,8 +16782,11 @@
       <c r="CD177" t="s">
         <v>3175</v>
       </c>
-    </row>
-    <row r="178" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO177" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="178" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -15155,8 +16811,11 @@
       <c r="CD178" t="s">
         <v>3176</v>
       </c>
-    </row>
-    <row r="179" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO178" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="179" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -15181,8 +16840,11 @@
       <c r="CD179" t="s">
         <v>3177</v>
       </c>
-    </row>
-    <row r="180" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO179" t="s">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="180" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -15207,8 +16869,11 @@
       <c r="CD180" t="s">
         <v>3178</v>
       </c>
-    </row>
-    <row r="181" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO180" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="181" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -15233,8 +16898,11 @@
       <c r="CD181" t="s">
         <v>3179</v>
       </c>
-    </row>
-    <row r="182" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO181" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="182" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -15259,8 +16927,11 @@
       <c r="CD182" t="s">
         <v>3180</v>
       </c>
-    </row>
-    <row r="183" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO182" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="183" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -15285,8 +16956,11 @@
       <c r="CD183" t="s">
         <v>3181</v>
       </c>
-    </row>
-    <row r="184" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO183" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="184" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -15311,8 +16985,11 @@
       <c r="CD184" t="s">
         <v>3182</v>
       </c>
-    </row>
-    <row r="185" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO184" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="185" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -15337,8 +17014,11 @@
       <c r="CD185" t="s">
         <v>3183</v>
       </c>
-    </row>
-    <row r="186" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO185" t="s">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="186" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -15363,8 +17043,11 @@
       <c r="CD186" t="s">
         <v>3184</v>
       </c>
-    </row>
-    <row r="187" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO186" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="187" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -15389,8 +17072,11 @@
       <c r="CD187" t="s">
         <v>3185</v>
       </c>
-    </row>
-    <row r="188" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO187" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="188" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -15415,8 +17101,11 @@
       <c r="CD188" t="s">
         <v>3186</v>
       </c>
-    </row>
-    <row r="189" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO188" t="s">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="189" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -15441,8 +17130,11 @@
       <c r="CD189" t="s">
         <v>3187</v>
       </c>
-    </row>
-    <row r="190" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO189" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="190" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -15467,8 +17159,11 @@
       <c r="CD190" t="s">
         <v>3188</v>
       </c>
-    </row>
-    <row r="191" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO190" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="191" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -15493,8 +17188,11 @@
       <c r="CD191" t="s">
         <v>3189</v>
       </c>
-    </row>
-    <row r="192" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO191" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="192" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -15519,8 +17217,11 @@
       <c r="CD192" t="s">
         <v>3190</v>
       </c>
-    </row>
-    <row r="193" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO192" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="193" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -15545,8 +17246,11 @@
       <c r="CD193" t="s">
         <v>3191</v>
       </c>
-    </row>
-    <row r="194" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO193" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="194" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -15571,8 +17275,11 @@
       <c r="CD194" t="s">
         <v>3192</v>
       </c>
-    </row>
-    <row r="195" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO194" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="195" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -15597,8 +17304,11 @@
       <c r="CD195" t="s">
         <v>3193</v>
       </c>
-    </row>
-    <row r="196" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO195" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="196" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -15623,8 +17333,11 @@
       <c r="CD196" t="s">
         <v>3194</v>
       </c>
-    </row>
-    <row r="197" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO196" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="197" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -15649,8 +17362,11 @@
       <c r="CD197" t="s">
         <v>3195</v>
       </c>
-    </row>
-    <row r="198" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO197" t="s">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="198" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -15675,8 +17391,11 @@
       <c r="CD198" t="s">
         <v>3196</v>
       </c>
-    </row>
-    <row r="199" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO198" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="199" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -15701,8 +17420,11 @@
       <c r="CD199" t="s">
         <v>3197</v>
       </c>
-    </row>
-    <row r="200" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO199" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="200" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -15727,8 +17449,11 @@
       <c r="CD200" t="s">
         <v>3198</v>
       </c>
-    </row>
-    <row r="201" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO200" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="201" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -15753,8 +17478,11 @@
       <c r="CD201" t="s">
         <v>3199</v>
       </c>
-    </row>
-    <row r="202" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO201" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="202" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -15779,8 +17507,11 @@
       <c r="CD202" t="s">
         <v>3200</v>
       </c>
-    </row>
-    <row r="203" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO202" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="203" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -15805,8 +17536,11 @@
       <c r="CD203" t="s">
         <v>3201</v>
       </c>
-    </row>
-    <row r="204" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO203" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="204" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -15831,8 +17565,11 @@
       <c r="CD204" t="s">
         <v>3202</v>
       </c>
-    </row>
-    <row r="205" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO204" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="205" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -15857,8 +17594,11 @@
       <c r="CD205" t="s">
         <v>3203</v>
       </c>
-    </row>
-    <row r="206" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO205" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="206" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -15883,8 +17623,11 @@
       <c r="CD206" t="s">
         <v>3204</v>
       </c>
-    </row>
-    <row r="207" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO206" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="207" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -15909,8 +17652,11 @@
       <c r="CD207" t="s">
         <v>3205</v>
       </c>
-    </row>
-    <row r="208" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO207" t="s">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="208" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -15935,8 +17681,11 @@
       <c r="CD208" t="s">
         <v>3206</v>
       </c>
-    </row>
-    <row r="209" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO208" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="209" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -15961,8 +17710,11 @@
       <c r="CD209" t="s">
         <v>3207</v>
       </c>
-    </row>
-    <row r="210" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO209" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="210" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -15987,8 +17739,11 @@
       <c r="CD210" t="s">
         <v>3208</v>
       </c>
-    </row>
-    <row r="211" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO210" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="211" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -16013,8 +17768,11 @@
       <c r="CD211" t="s">
         <v>3209</v>
       </c>
-    </row>
-    <row r="212" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO211" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="212" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -16039,8 +17797,11 @@
       <c r="CD212" t="s">
         <v>3210</v>
       </c>
-    </row>
-    <row r="213" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO212" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="213" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -16065,8 +17826,11 @@
       <c r="CD213" t="s">
         <v>3211</v>
       </c>
-    </row>
-    <row r="214" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO213" t="s">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="214" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -16091,8 +17855,11 @@
       <c r="CD214" t="s">
         <v>3212</v>
       </c>
-    </row>
-    <row r="215" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO214" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="215" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -16117,8 +17884,11 @@
       <c r="CD215" t="s">
         <v>3213</v>
       </c>
-    </row>
-    <row r="216" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO215" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="216" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -16143,8 +17913,11 @@
       <c r="CD216" t="s">
         <v>3214</v>
       </c>
-    </row>
-    <row r="217" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO216" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="217" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -16169,8 +17942,11 @@
       <c r="CD217" t="s">
         <v>3215</v>
       </c>
-    </row>
-    <row r="218" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO217" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="218" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -16195,8 +17971,11 @@
       <c r="CD218" t="s">
         <v>3216</v>
       </c>
-    </row>
-    <row r="219" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO218" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="219" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -16221,8 +18000,11 @@
       <c r="CD219" t="s">
         <v>3217</v>
       </c>
-    </row>
-    <row r="220" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO219" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="220" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -16247,8 +18029,11 @@
       <c r="CD220" t="s">
         <v>3218</v>
       </c>
-    </row>
-    <row r="221" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO220" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="221" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -16273,8 +18058,11 @@
       <c r="CD221" t="s">
         <v>3219</v>
       </c>
-    </row>
-    <row r="222" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO221" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="222" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -16299,8 +18087,11 @@
       <c r="CD222" t="s">
         <v>3220</v>
       </c>
-    </row>
-    <row r="223" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO222" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="223" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -16325,8 +18116,11 @@
       <c r="CD223" t="s">
         <v>3221</v>
       </c>
-    </row>
-    <row r="224" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO223" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="224" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -16351,8 +18145,11 @@
       <c r="CD224" t="s">
         <v>3222</v>
       </c>
-    </row>
-    <row r="225" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO224" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="225" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -16377,8 +18174,11 @@
       <c r="CD225" t="s">
         <v>3223</v>
       </c>
-    </row>
-    <row r="226" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO225" t="s">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="226" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -16403,8 +18203,11 @@
       <c r="CD226" t="s">
         <v>3224</v>
       </c>
-    </row>
-    <row r="227" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO226" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="227" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -16429,8 +18232,11 @@
       <c r="CD227" t="s">
         <v>3225</v>
       </c>
-    </row>
-    <row r="228" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO227" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="228" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -16455,8 +18261,11 @@
       <c r="CD228" t="s">
         <v>3226</v>
       </c>
-    </row>
-    <row r="229" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO228" t="s">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="229" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -16481,8 +18290,11 @@
       <c r="CD229" t="s">
         <v>3227</v>
       </c>
-    </row>
-    <row r="230" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO229" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="230" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -16507,8 +18319,11 @@
       <c r="CD230" t="s">
         <v>3228</v>
       </c>
-    </row>
-    <row r="231" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO230" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="231" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -16533,8 +18348,11 @@
       <c r="CD231" t="s">
         <v>3229</v>
       </c>
-    </row>
-    <row r="232" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO231" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="232" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -16559,8 +18377,11 @@
       <c r="CD232" t="s">
         <v>3230</v>
       </c>
-    </row>
-    <row r="233" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO232" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="233" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -16585,8 +18406,11 @@
       <c r="CD233" t="s">
         <v>3231</v>
       </c>
-    </row>
-    <row r="234" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO233" t="s">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="234" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -16611,8 +18435,11 @@
       <c r="CD234" t="s">
         <v>3232</v>
       </c>
-    </row>
-    <row r="235" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO234" t="s">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="235" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -16637,8 +18464,11 @@
       <c r="CD235" t="s">
         <v>3233</v>
       </c>
-    </row>
-    <row r="236" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO235" t="s">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="236" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -16663,8 +18493,11 @@
       <c r="CD236" t="s">
         <v>3234</v>
       </c>
-    </row>
-    <row r="237" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO236" t="s">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="237" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -16689,8 +18522,11 @@
       <c r="CD237" t="s">
         <v>3235</v>
       </c>
-    </row>
-    <row r="238" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO237" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="238" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -16715,8 +18551,11 @@
       <c r="CD238" t="s">
         <v>3236</v>
       </c>
-    </row>
-    <row r="239" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO238" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="239" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -16741,8 +18580,11 @@
       <c r="CD239" t="s">
         <v>3237</v>
       </c>
-    </row>
-    <row r="240" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO239" t="s">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="240" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -16767,8 +18609,11 @@
       <c r="CD240" t="s">
         <v>3238</v>
       </c>
-    </row>
-    <row r="241" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO240" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="241" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -16793,8 +18638,11 @@
       <c r="CD241" t="s">
         <v>3239</v>
       </c>
-    </row>
-    <row r="242" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO241" t="s">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="242" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -16819,8 +18667,11 @@
       <c r="CD242" t="s">
         <v>3240</v>
       </c>
-    </row>
-    <row r="243" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO242" t="s">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="243" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -16845,8 +18696,11 @@
       <c r="CD243" t="s">
         <v>3241</v>
       </c>
-    </row>
-    <row r="244" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO243" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="244" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -16871,8 +18725,11 @@
       <c r="CD244" t="s">
         <v>3242</v>
       </c>
-    </row>
-    <row r="245" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO244" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="245" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -16897,8 +18754,11 @@
       <c r="CD245" t="s">
         <v>3243</v>
       </c>
-    </row>
-    <row r="246" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO245" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="246" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -16923,8 +18783,11 @@
       <c r="CD246" t="s">
         <v>3244</v>
       </c>
-    </row>
-    <row r="247" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO246" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="247" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -16949,8 +18812,11 @@
       <c r="CD247" t="s">
         <v>3245</v>
       </c>
-    </row>
-    <row r="248" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO247" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="248" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -16975,8 +18841,11 @@
       <c r="CD248" t="s">
         <v>3246</v>
       </c>
-    </row>
-    <row r="249" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO248" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="249" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -17001,8 +18870,11 @@
       <c r="CD249" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="250" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO249" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="250" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -17027,8 +18899,11 @@
       <c r="CD250" t="s">
         <v>3248</v>
       </c>
-    </row>
-    <row r="251" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO250" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="251" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -17053,8 +18928,11 @@
       <c r="CD251" t="s">
         <v>3249</v>
       </c>
-    </row>
-    <row r="252" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO251" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="252" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -17079,8 +18957,11 @@
       <c r="CD252" t="s">
         <v>3250</v>
       </c>
-    </row>
-    <row r="253" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO252" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="253" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -17105,8 +18986,11 @@
       <c r="CD253" t="s">
         <v>3251</v>
       </c>
-    </row>
-    <row r="254" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO253" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="254" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -17131,8 +19015,11 @@
       <c r="CD254" t="s">
         <v>3252</v>
       </c>
-    </row>
-    <row r="255" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO254" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="255" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -17157,8 +19044,11 @@
       <c r="CD255" t="s">
         <v>3253</v>
       </c>
-    </row>
-    <row r="256" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO255" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="256" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -17183,8 +19073,11 @@
       <c r="CD256" t="s">
         <v>3254</v>
       </c>
-    </row>
-    <row r="257" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO256" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="257" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -17209,8 +19102,11 @@
       <c r="CD257" t="s">
         <v>3255</v>
       </c>
-    </row>
-    <row r="258" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO257" t="s">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="258" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -17235,8 +19131,11 @@
       <c r="CD258" t="s">
         <v>3256</v>
       </c>
-    </row>
-    <row r="259" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO258" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="259" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -17258,8 +19157,11 @@
       <c r="CD259" t="s">
         <v>3257</v>
       </c>
-    </row>
-    <row r="260" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO259" t="s">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="260" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -17281,8 +19183,11 @@
       <c r="CD260" t="s">
         <v>3258</v>
       </c>
-    </row>
-    <row r="261" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO260" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="261" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -17304,8 +19209,11 @@
       <c r="CD261" t="s">
         <v>3259</v>
       </c>
-    </row>
-    <row r="262" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO261" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="262" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -17327,8 +19235,11 @@
       <c r="CD262" t="s">
         <v>3260</v>
       </c>
-    </row>
-    <row r="263" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO262" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="263" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -17350,8 +19261,11 @@
       <c r="CD263" t="s">
         <v>3261</v>
       </c>
-    </row>
-    <row r="264" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO263" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="264" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -17373,8 +19287,11 @@
       <c r="CD264" t="s">
         <v>3262</v>
       </c>
-    </row>
-    <row r="265" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO264" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="265" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -17396,8 +19313,11 @@
       <c r="CD265" t="s">
         <v>3263</v>
       </c>
-    </row>
-    <row r="266" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO265" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="266" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -17419,8 +19339,11 @@
       <c r="CD266" t="s">
         <v>3264</v>
       </c>
-    </row>
-    <row r="267" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO266" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="267" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -17442,8 +19365,11 @@
       <c r="CD267" t="s">
         <v>3265</v>
       </c>
-    </row>
-    <row r="268" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO267" t="s">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="268" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -17465,8 +19391,11 @@
       <c r="CD268" t="s">
         <v>3266</v>
       </c>
-    </row>
-    <row r="269" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO268" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="269" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -17488,8 +19417,11 @@
       <c r="CD269" t="s">
         <v>3267</v>
       </c>
-    </row>
-    <row r="270" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO269" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="270" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -17511,8 +19443,11 @@
       <c r="CD270" t="s">
         <v>3268</v>
       </c>
-    </row>
-    <row r="271" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO270" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="271" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -17534,8 +19469,11 @@
       <c r="CD271" t="s">
         <v>3269</v>
       </c>
-    </row>
-    <row r="272" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO271" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="272" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -17557,8 +19495,11 @@
       <c r="CD272" t="s">
         <v>3270</v>
       </c>
-    </row>
-    <row r="273" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO272" t="s">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="273" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -17580,8 +19521,11 @@
       <c r="CD273" t="s">
         <v>3271</v>
       </c>
-    </row>
-    <row r="274" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO273" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="274" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -17603,8 +19547,11 @@
       <c r="CD274" t="s">
         <v>3272</v>
       </c>
-    </row>
-    <row r="275" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO274" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="275" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -17626,8 +19573,11 @@
       <c r="CD275" t="s">
         <v>3273</v>
       </c>
-    </row>
-    <row r="276" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO275" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="276" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -17646,8 +19596,11 @@
       <c r="CD276" t="s">
         <v>3274</v>
       </c>
-    </row>
-    <row r="277" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO276" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="277" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -17666,8 +19619,11 @@
       <c r="CD277" t="s">
         <v>3275</v>
       </c>
-    </row>
-    <row r="278" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO277" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="278" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -17686,8 +19642,11 @@
       <c r="CD278" t="s">
         <v>3276</v>
       </c>
-    </row>
-    <row r="279" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO278" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="279" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -17706,8 +19665,11 @@
       <c r="CD279" t="s">
         <v>3277</v>
       </c>
-    </row>
-    <row r="280" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO279" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="280" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -17726,8 +19688,11 @@
       <c r="CD280" t="s">
         <v>3278</v>
       </c>
-    </row>
-    <row r="281" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO280" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="281" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -17746,8 +19711,11 @@
       <c r="CD281" t="s">
         <v>3279</v>
       </c>
-    </row>
-    <row r="282" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO281" t="s">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="282" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -17766,8 +19734,11 @@
       <c r="CD282" t="s">
         <v>3280</v>
       </c>
-    </row>
-    <row r="283" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO282" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="283" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -17786,8 +19757,11 @@
       <c r="CD283" t="s">
         <v>3281</v>
       </c>
-    </row>
-    <row r="284" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO283" t="s">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="284" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -17806,8 +19780,11 @@
       <c r="CD284" t="s">
         <v>3282</v>
       </c>
-    </row>
-    <row r="285" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO284" t="s">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="285" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -17826,8 +19803,11 @@
       <c r="CD285" t="s">
         <v>3283</v>
       </c>
-    </row>
-    <row r="286" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO285" t="s">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="286" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -17846,8 +19826,11 @@
       <c r="CD286" t="s">
         <v>3284</v>
       </c>
-    </row>
-    <row r="287" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO286" t="s">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="287" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -17866,8 +19849,11 @@
       <c r="CD287" t="s">
         <v>3285</v>
       </c>
-    </row>
-    <row r="288" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO287" t="s">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="288" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -17886,8 +19872,11 @@
       <c r="CD288" t="s">
         <v>3286</v>
       </c>
-    </row>
-    <row r="289" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO288" t="s">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="289" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -17906,8 +19895,11 @@
       <c r="CD289" t="s">
         <v>3287</v>
       </c>
-    </row>
-    <row r="290" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO289" t="s">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="290" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -17926,8 +19918,11 @@
       <c r="CD290" t="s">
         <v>3288</v>
       </c>
-    </row>
-    <row r="291" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO290" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="291" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -17946,8 +19941,11 @@
       <c r="CD291" t="s">
         <v>3289</v>
       </c>
-    </row>
-    <row r="292" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO291" t="s">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="292" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -17966,8 +19964,11 @@
       <c r="CD292" t="s">
         <v>3290</v>
       </c>
-    </row>
-    <row r="293" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO292" t="s">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="293" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -17986,8 +19987,11 @@
       <c r="CD293" t="s">
         <v>3291</v>
       </c>
-    </row>
-    <row r="294" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO293" t="s">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="294" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -18006,8 +20010,11 @@
       <c r="CD294" t="s">
         <v>3292</v>
       </c>
-    </row>
-    <row r="295" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO294" t="s">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="295" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -18026,8 +20033,11 @@
       <c r="CD295" t="s">
         <v>3293</v>
       </c>
-    </row>
-    <row r="296" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO295" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="296" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -18046,8 +20056,11 @@
       <c r="CD296" t="s">
         <v>3294</v>
       </c>
-    </row>
-    <row r="297" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO296" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="297" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -18066,8 +20079,11 @@
       <c r="CD297" t="s">
         <v>3295</v>
       </c>
-    </row>
-    <row r="298" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO297" t="s">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="298" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -18086,8 +20102,11 @@
       <c r="CD298" t="s">
         <v>3296</v>
       </c>
-    </row>
-    <row r="299" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO298" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="299" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -18106,8 +20125,11 @@
       <c r="CD299" t="s">
         <v>3297</v>
       </c>
-    </row>
-    <row r="300" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO299" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="300" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -18126,8 +20148,11 @@
       <c r="CD300" t="s">
         <v>3298</v>
       </c>
-    </row>
-    <row r="301" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO300" t="s">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="301" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -18146,8 +20171,11 @@
       <c r="CD301" t="s">
         <v>3299</v>
       </c>
-    </row>
-    <row r="302" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO301" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="302" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -18166,8 +20194,11 @@
       <c r="CD302" t="s">
         <v>3300</v>
       </c>
-    </row>
-    <row r="303" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO302" t="s">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="303" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -18186,8 +20217,11 @@
       <c r="CD303" t="s">
         <v>3301</v>
       </c>
-    </row>
-    <row r="304" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO303" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="304" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -18206,8 +20240,11 @@
       <c r="CD304" t="s">
         <v>3302</v>
       </c>
-    </row>
-    <row r="305" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO304" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="305" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -18226,8 +20263,11 @@
       <c r="CD305" t="s">
         <v>3303</v>
       </c>
-    </row>
-    <row r="306" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO305" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="306" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -18246,8 +20286,11 @@
       <c r="CD306" t="s">
         <v>3304</v>
       </c>
-    </row>
-    <row r="307" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO306" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="307" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -18266,8 +20309,11 @@
       <c r="CD307" t="s">
         <v>3305</v>
       </c>
-    </row>
-    <row r="308" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO307" t="s">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="308" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -18286,8 +20332,11 @@
       <c r="CD308" t="s">
         <v>3306</v>
       </c>
-    </row>
-    <row r="309" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO308" t="s">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="309" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -18306,8 +20355,11 @@
       <c r="CD309" t="s">
         <v>3307</v>
       </c>
-    </row>
-    <row r="310" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO309" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="310" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -18326,8 +20378,11 @@
       <c r="CD310" t="s">
         <v>3308</v>
       </c>
-    </row>
-    <row r="311" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO310" t="s">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="311" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -18346,8 +20401,11 @@
       <c r="CD311" t="s">
         <v>3309</v>
       </c>
-    </row>
-    <row r="312" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO311" t="s">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="312" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -18366,8 +20424,11 @@
       <c r="CD312" t="s">
         <v>3310</v>
       </c>
-    </row>
-    <row r="313" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO312" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="313" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -18386,8 +20447,11 @@
       <c r="CD313" t="s">
         <v>3311</v>
       </c>
-    </row>
-    <row r="314" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO313" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="314" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -18406,8 +20470,11 @@
       <c r="CD314" t="s">
         <v>3312</v>
       </c>
-    </row>
-    <row r="315" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO314" t="s">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="315" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -18426,8 +20493,11 @@
       <c r="CD315" t="s">
         <v>3313</v>
       </c>
-    </row>
-    <row r="316" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO315" t="s">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="316" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -18446,8 +20516,11 @@
       <c r="CD316" t="s">
         <v>3314</v>
       </c>
-    </row>
-    <row r="317" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO316" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="317" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -18466,8 +20539,11 @@
       <c r="CD317" t="s">
         <v>3315</v>
       </c>
-    </row>
-    <row r="318" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO317" t="s">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="318" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -18486,8 +20562,11 @@
       <c r="CD318" t="s">
         <v>3316</v>
       </c>
-    </row>
-    <row r="319" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO318" t="s">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="319" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -18506,8 +20585,11 @@
       <c r="CD319" t="s">
         <v>3317</v>
       </c>
-    </row>
-    <row r="320" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO319" t="s">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="320" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -18526,8 +20608,11 @@
       <c r="CD320" t="s">
         <v>3318</v>
       </c>
-    </row>
-    <row r="321" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO320" t="s">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="321" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -18546,8 +20631,11 @@
       <c r="CD321" t="s">
         <v>3319</v>
       </c>
-    </row>
-    <row r="322" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO321" t="s">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="322" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -18566,8 +20654,11 @@
       <c r="CD322" t="s">
         <v>3320</v>
       </c>
-    </row>
-    <row r="323" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO322" t="s">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="323" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -18586,8 +20677,11 @@
       <c r="CD323" t="s">
         <v>3321</v>
       </c>
-    </row>
-    <row r="324" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO323" t="s">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="324" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -18606,8 +20700,11 @@
       <c r="CD324" t="s">
         <v>3322</v>
       </c>
-    </row>
-    <row r="325" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO324" t="s">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="325" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -18626,8 +20723,11 @@
       <c r="CD325" t="s">
         <v>3323</v>
       </c>
-    </row>
-    <row r="326" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO325" t="s">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="326" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -18646,8 +20746,11 @@
       <c r="CD326" t="s">
         <v>3324</v>
       </c>
-    </row>
-    <row r="327" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO326" t="s">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="327" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -18666,8 +20769,11 @@
       <c r="CD327" t="s">
         <v>3325</v>
       </c>
-    </row>
-    <row r="328" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO327" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="328" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -18686,8 +20792,11 @@
       <c r="CD328" t="s">
         <v>3326</v>
       </c>
-    </row>
-    <row r="329" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO328" t="s">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="329" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -18706,8 +20815,11 @@
       <c r="CD329" t="s">
         <v>3327</v>
       </c>
-    </row>
-    <row r="330" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO329" t="s">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="330" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -18726,8 +20838,11 @@
       <c r="CD330" t="s">
         <v>3328</v>
       </c>
-    </row>
-    <row r="331" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO330" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="331" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -18746,8 +20861,11 @@
       <c r="CD331" t="s">
         <v>3329</v>
       </c>
-    </row>
-    <row r="332" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO331" t="s">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="332" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -18766,8 +20884,11 @@
       <c r="CD332" t="s">
         <v>3330</v>
       </c>
-    </row>
-    <row r="333" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO332" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="333" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -18786,8 +20907,11 @@
       <c r="CD333" t="s">
         <v>3331</v>
       </c>
-    </row>
-    <row r="334" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO333" t="s">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="334" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -18806,8 +20930,11 @@
       <c r="CD334" t="s">
         <v>3332</v>
       </c>
-    </row>
-    <row r="335" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO334" t="s">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="335" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -18826,8 +20953,11 @@
       <c r="CD335" t="s">
         <v>3333</v>
       </c>
-    </row>
-    <row r="336" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO335" t="s">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="336" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -18846,8 +20976,11 @@
       <c r="CD336" t="s">
         <v>3334</v>
       </c>
-    </row>
-    <row r="337" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO336" t="s">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="337" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -18866,8 +20999,11 @@
       <c r="CD337" t="s">
         <v>3335</v>
       </c>
-    </row>
-    <row r="338" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO337" t="s">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="338" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>337</v>
       </c>
@@ -18886,8 +21022,11 @@
       <c r="CD338" t="s">
         <v>3336</v>
       </c>
-    </row>
-    <row r="339" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO338" t="s">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="339" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -18906,8 +21045,11 @@
       <c r="CD339" t="s">
         <v>3337</v>
       </c>
-    </row>
-    <row r="340" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO339" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="340" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -18926,8 +21068,11 @@
       <c r="CD340" t="s">
         <v>3338</v>
       </c>
-    </row>
-    <row r="341" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO340" t="s">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="341" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -18946,8 +21091,11 @@
       <c r="CD341" t="s">
         <v>3339</v>
       </c>
-    </row>
-    <row r="342" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO341" t="s">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="342" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -18966,8 +21114,11 @@
       <c r="CD342" t="s">
         <v>3340</v>
       </c>
-    </row>
-    <row r="343" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO342" t="s">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="343" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -18986,8 +21137,11 @@
       <c r="CD343" t="s">
         <v>3341</v>
       </c>
-    </row>
-    <row r="344" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO343" t="s">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="344" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -19006,8 +21160,11 @@
       <c r="CD344" t="s">
         <v>3342</v>
       </c>
-    </row>
-    <row r="345" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO344" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="345" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -19026,8 +21183,11 @@
       <c r="CD345" t="s">
         <v>3343</v>
       </c>
-    </row>
-    <row r="346" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO345" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="346" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -19046,8 +21206,11 @@
       <c r="CD346" t="s">
         <v>3344</v>
       </c>
-    </row>
-    <row r="347" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO346" t="s">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="347" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -19066,8 +21229,11 @@
       <c r="CD347" t="s">
         <v>3345</v>
       </c>
-    </row>
-    <row r="348" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO347" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="348" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -19086,8 +21252,11 @@
       <c r="CD348" t="s">
         <v>3346</v>
       </c>
-    </row>
-    <row r="349" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO348" t="s">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="349" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -19106,8 +21275,11 @@
       <c r="CD349" t="s">
         <v>3347</v>
       </c>
-    </row>
-    <row r="350" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO349" t="s">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="350" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -19126,8 +21298,11 @@
       <c r="CD350" t="s">
         <v>3348</v>
       </c>
-    </row>
-    <row r="351" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO350" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="351" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -19146,8 +21321,11 @@
       <c r="CD351" t="s">
         <v>3349</v>
       </c>
-    </row>
-    <row r="352" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO351" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="352" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -19166,8 +21344,11 @@
       <c r="CD352" t="s">
         <v>3350</v>
       </c>
-    </row>
-    <row r="353" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO352" t="s">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="353" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -19186,8 +21367,11 @@
       <c r="CD353" t="s">
         <v>3351</v>
       </c>
-    </row>
-    <row r="354" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO353" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="354" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>353</v>
       </c>
@@ -19206,8 +21390,11 @@
       <c r="CD354" t="s">
         <v>3352</v>
       </c>
-    </row>
-    <row r="355" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO354" t="s">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="355" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -19226,8 +21413,11 @@
       <c r="CD355" t="s">
         <v>3353</v>
       </c>
-    </row>
-    <row r="356" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO355" t="s">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="356" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>355</v>
       </c>
@@ -19246,8 +21436,11 @@
       <c r="CD356" t="s">
         <v>3354</v>
       </c>
-    </row>
-    <row r="357" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO356" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="357" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>356</v>
       </c>
@@ -19266,8 +21459,11 @@
       <c r="CD357" t="s">
         <v>3355</v>
       </c>
-    </row>
-    <row r="358" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO357" t="s">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="358" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -19286,8 +21482,11 @@
       <c r="CD358" t="s">
         <v>3356</v>
       </c>
-    </row>
-    <row r="359" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO358" t="s">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="359" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -19306,8 +21505,11 @@
       <c r="CD359" t="s">
         <v>3357</v>
       </c>
-    </row>
-    <row r="360" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO359" t="s">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="360" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -19326,8 +21528,11 @@
       <c r="CD360" t="s">
         <v>3358</v>
       </c>
-    </row>
-    <row r="361" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO360" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="361" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -19346,8 +21551,11 @@
       <c r="CD361" t="s">
         <v>3359</v>
       </c>
-    </row>
-    <row r="362" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO361" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="362" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -19366,8 +21574,11 @@
       <c r="CD362" t="s">
         <v>3360</v>
       </c>
-    </row>
-    <row r="363" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO362" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="363" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -19386,8 +21597,11 @@
       <c r="CD363" t="s">
         <v>3361</v>
       </c>
-    </row>
-    <row r="364" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO363" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="364" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -19406,8 +21620,11 @@
       <c r="CD364" t="s">
         <v>3362</v>
       </c>
-    </row>
-    <row r="365" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO364" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="365" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>364</v>
       </c>
@@ -19426,8 +21643,11 @@
       <c r="CD365" t="s">
         <v>3363</v>
       </c>
-    </row>
-    <row r="366" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO365" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="366" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -19446,8 +21666,11 @@
       <c r="CD366" t="s">
         <v>3364</v>
       </c>
-    </row>
-    <row r="367" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO366" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="367" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -19466,8 +21689,11 @@
       <c r="CD367" t="s">
         <v>3365</v>
       </c>
-    </row>
-    <row r="368" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO367" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="368" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>367</v>
       </c>
@@ -19483,8 +21709,11 @@
       <c r="CD368" t="s">
         <v>3366</v>
       </c>
-    </row>
-    <row r="369" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO368" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="369" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>368</v>
       </c>
@@ -19497,8 +21726,11 @@
       <c r="CD369" t="s">
         <v>3367</v>
       </c>
-    </row>
-    <row r="370" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO369" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="370" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>369</v>
       </c>
@@ -19511,8 +21743,11 @@
       <c r="CD370" t="s">
         <v>3368</v>
       </c>
-    </row>
-    <row r="371" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO370" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="371" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -19525,8 +21760,11 @@
       <c r="CD371" t="s">
         <v>3369</v>
       </c>
-    </row>
-    <row r="372" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO371" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="372" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -19539,8 +21777,11 @@
       <c r="CD372" t="s">
         <v>3370</v>
       </c>
-    </row>
-    <row r="373" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO372" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="373" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>372</v>
       </c>
@@ -19550,8 +21791,11 @@
       <c r="BH373" t="s">
         <v>2442</v>
       </c>
-    </row>
-    <row r="374" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO373" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="374" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -19561,8 +21805,11 @@
       <c r="BH374" t="s">
         <v>2443</v>
       </c>
-    </row>
-    <row r="375" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO374" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="375" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -19572,8 +21819,11 @@
       <c r="BH375" t="s">
         <v>2444</v>
       </c>
-    </row>
-    <row r="376" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CO375" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="376" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>375</v>
       </c>
@@ -19584,7 +21834,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="377" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>376</v>
       </c>
@@ -19595,7 +21845,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="378" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>377</v>
       </c>
@@ -19606,7 +21856,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="379" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -19617,7 +21867,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="380" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -19628,7 +21878,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="381" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -19639,7 +21889,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="382" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>381</v>
       </c>
@@ -19650,7 +21900,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="383" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -19661,7 +21911,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="384" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>383</v>
       </c>
